--- a/output/Restab_D62_NTCnoRAPA_DIFF_RAPA.xlsx
+++ b/output/Restab_D62_NTCnoRAPA_DIFF_RAPA.xlsx
@@ -3044,16 +3044,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.870204868336698</v>
+        <v>-0.870204868336692</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00000979469521832669</v>
+        <v>0.00000979469521954869</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.04012957507921</v>
+        <v>-1.04012957507919</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000190879415107749</v>
+        <v>0.000190879415432637</v>
       </c>
     </row>
     <row r="3">
@@ -3067,13 +3067,13 @@
         <v>-0.64209812245098</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00132838048014839</v>
+        <v>0.00132838048029773</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.916683653620008</v>
+        <v>-0.91668365361989</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0002782741576633</v>
+        <v>0.000278274158158563</v>
       </c>
     </row>
     <row r="4">
@@ -3084,16 +3084,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.709588348649509</v>
+        <v>-0.709588348649508</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00132838048014839</v>
+        <v>0.00132838048029773</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.09985730499396</v>
+        <v>-1.09985730499362</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00180832660960996</v>
+        <v>0.00180832661123817</v>
       </c>
     </row>
     <row r="5">
@@ -3104,16 +3104,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>6.64219478503926</v>
+        <v>6.64219478503927</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0163621658349626</v>
+        <v>0.0163621658356221</v>
       </c>
       <c r="E5" t="n">
-        <v>7.60784628165003</v>
+        <v>7.60784628164998</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000237914626749238</v>
+        <v>0.000237914626774737</v>
       </c>
     </row>
     <row r="6">
@@ -3124,16 +3124,16 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.2879424665239</v>
+        <v>-1.28794246652391</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00544895259283339</v>
+        <v>0.00544895259323099</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.39599748478727</v>
+        <v>-1.39599748478748</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00370776275479319</v>
+        <v>0.00370776275651863</v>
       </c>
     </row>
     <row r="7">
@@ -3144,16 +3144,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.811903743875361</v>
+        <v>-0.811903743875358</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00000207430987247307</v>
+        <v>0.00000207430987292283</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.14281481473335</v>
+        <v>-1.14281481473349</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000000514603971947059</v>
+        <v>0.000000514603973535092</v>
       </c>
     </row>
     <row r="8">
@@ -3164,16 +3164,16 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.617427716732651</v>
+        <v>-0.617427716732653</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0277867775891196</v>
+        <v>0.0277867775906506</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.17267022263265</v>
+        <v>-1.1726702226325</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0000200363227475532</v>
+        <v>0.0000200363227841051</v>
       </c>
     </row>
     <row r="9">
@@ -3184,16 +3184,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.81746184882135</v>
+        <v>-0.817461848821351</v>
       </c>
       <c r="D9" t="n">
-        <v>0.000104837216018724</v>
+        <v>0.000104837216033477</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.08546373273822</v>
+        <v>-1.08546373273832</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0000579046438405108</v>
+        <v>0.000057904643858768</v>
       </c>
     </row>
     <row r="10">
@@ -3204,16 +3204,16 @@
         <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.701166951178746</v>
+        <v>-0.70116695117874</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0478915821618869</v>
+        <v>0.0478915821641658</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.10586524934311</v>
+        <v>-1.10586524934335</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00396781764303363</v>
+        <v>0.00396781764563193</v>
       </c>
     </row>
     <row r="11">
@@ -3224,16 +3224,16 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.915405637556953</v>
+        <v>-0.915405637556958</v>
       </c>
       <c r="D11" t="n">
-        <v>0.000000173371107265838</v>
+        <v>0.000000173371107306452</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.995870741497554</v>
+        <v>-0.995870741497458</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0000620936267668286</v>
+        <v>0.0000620936268961275</v>
       </c>
     </row>
     <row r="12">
@@ -3244,16 +3244,16 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.869828362900399</v>
+        <v>-0.869828362900389</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0334829954072995</v>
+        <v>0.0334829954086328</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.29701423527783</v>
+        <v>-1.29701423527817</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000168373293723932</v>
+        <v>0.000168373293810829</v>
       </c>
     </row>
     <row r="13">
@@ -3264,16 +3264,16 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.662903062629239</v>
+        <v>-0.662903062629233</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0276138871940807</v>
+        <v>0.0276138871951414</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.710134852559691</v>
+        <v>-0.710134852559541</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0310813737610268</v>
+        <v>0.0310813737818955</v>
       </c>
     </row>
     <row r="14">
@@ -3287,13 +3287,13 @@
         <v>-0.551217236365559</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0230909150604369</v>
+        <v>0.0230909150620454</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.60337090387536</v>
+        <v>-0.603370903875384</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0301698514253389</v>
+        <v>0.0301698514523795</v>
       </c>
     </row>
     <row r="15">
@@ -3304,16 +3304,16 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>1.52803038526858</v>
+        <v>1.52803038526859</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00000000153522123329646</v>
+        <v>0.00000000153522123364312</v>
       </c>
       <c r="E15" t="n">
         <v>2.05510983525868</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0000000000000000681142429722317</v>
+        <v>0.0000000000000000681142433493578</v>
       </c>
     </row>
     <row r="16">
@@ -3324,16 +3324,16 @@
         <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.711905748299533</v>
+        <v>-0.711905748299535</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0234585804443966</v>
+        <v>0.0234585804457733</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.827729426830615</v>
+        <v>-0.827729426830813</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0221327041399998</v>
+        <v>0.022132704153417</v>
       </c>
     </row>
     <row r="17">
@@ -3344,16 +3344,16 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.711949299807402</v>
+        <v>-0.711949299807403</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0457112824929548</v>
+        <v>0.0457112824950116</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.14587568786327</v>
+        <v>-1.14587568786305</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00363972041367221</v>
+        <v>0.00363972041605064</v>
       </c>
     </row>
     <row r="18">
@@ -3364,16 +3364,16 @@
         <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>4.57716711142934</v>
+        <v>4.57716711142931</v>
       </c>
       <c r="D18" t="n">
-        <v>0.000000000357162165708333</v>
+        <v>0.000000000357162165784131</v>
       </c>
       <c r="E18" t="n">
         <v>5.41447502681283</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000125912288881597</v>
+        <v>0.000125912288881594</v>
       </c>
     </row>
     <row r="19">
@@ -3384,16 +3384,16 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>0.575094042366458</v>
+        <v>0.575094042366457</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0144219159443739</v>
+        <v>0.0144219159452464</v>
       </c>
       <c r="E19" t="n">
-        <v>0.940432890892837</v>
+        <v>0.940432890892756</v>
       </c>
       <c r="F19" t="n">
-        <v>0.000153458033823088</v>
+        <v>0.000153458033865759</v>
       </c>
     </row>
     <row r="20">
@@ -3404,16 +3404,16 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>0.612849428487905</v>
+        <v>0.612849428487904</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00230282200922824</v>
+        <v>0.00230282200947181</v>
       </c>
       <c r="E20" t="n">
-        <v>0.797007898152683</v>
+        <v>0.797007898152587</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00221587221158395</v>
+        <v>0.00221587221469012</v>
       </c>
     </row>
     <row r="21">
@@ -3424,16 +3424,16 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>0.91587242645546</v>
+        <v>0.915872426455463</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00000000102147001612047</v>
+        <v>0.00000000102147001646783</v>
       </c>
       <c r="E21" t="n">
-        <v>1.32174112184309</v>
+        <v>1.32174112184311</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0000000000855443035308908</v>
+        <v>0.0000000000855443039872665</v>
       </c>
     </row>
     <row r="22">
@@ -3444,16 +3444,16 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>1.71663630920561</v>
+        <v>1.71663630920562</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0000000000000000000000148813572935475</v>
+        <v>0.0000000000000000000000148813573025324</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5766022545805</v>
+        <v>1.57660225458043</v>
       </c>
       <c r="F22" t="n">
-        <v>0.000000000135869072740487</v>
+        <v>0.000000000135869073293717</v>
       </c>
     </row>
     <row r="23">
@@ -3462,16 +3462,16 @@
       </c>
       <c r="B23"/>
       <c r="C23" t="n">
-        <v>4.50601987306182</v>
+        <v>4.50601987306214</v>
       </c>
       <c r="D23" t="n">
-        <v>0.03309994673062</v>
+        <v>0.0330999467319883</v>
       </c>
       <c r="E23" t="n">
-        <v>5.06473695268513</v>
+        <v>5.06473695268563</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0160685464369269</v>
+        <v>0.0160685464380296</v>
       </c>
     </row>
     <row r="24">
@@ -3482,16 +3482,16 @@
         <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>0.919379736191546</v>
+        <v>0.919379736191538</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0464287529967076</v>
+        <v>0.0464287529987609</v>
       </c>
       <c r="E24" t="n">
-        <v>1.52315297129989</v>
+        <v>1.52315297130003</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00190477941898277</v>
+        <v>0.00190477941994213</v>
       </c>
     </row>
     <row r="25">
@@ -3502,16 +3502,16 @@
         <v>52</v>
       </c>
       <c r="C25" t="n">
-        <v>-3.15924328277279</v>
+        <v>-3.15924328277274</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0002260743179525</v>
+        <v>0.000226074317974028</v>
       </c>
       <c r="E25" t="n">
-        <v>-2.5216634737611</v>
+        <v>-2.52166347376089</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00357564919465425</v>
+        <v>0.00357564919535928</v>
       </c>
     </row>
     <row r="26">
@@ -3522,16 +3522,16 @@
         <v>54</v>
       </c>
       <c r="C26" t="n">
-        <v>1.22416312316949</v>
+        <v>1.22416312316951</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00595795796260988</v>
+        <v>0.00595795796292751</v>
       </c>
       <c r="E26" t="n">
-        <v>1.99548742900801</v>
+        <v>1.99548742900794</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00000663381640547344</v>
+        <v>0.00000663381641136539</v>
       </c>
     </row>
     <row r="27">
@@ -3545,13 +3545,13 @@
         <v>-2.39281829652429</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00000213057880235956</v>
+        <v>0.00000213057880260125</v>
       </c>
       <c r="E27" t="n">
-        <v>-2.53962336835217</v>
+        <v>-2.53962336835154</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0000000931977368822235</v>
+        <v>0.0000000931977369786997</v>
       </c>
     </row>
     <row r="28">
@@ -3562,16 +3562,16 @@
         <v>58</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.77035460627836</v>
+        <v>-1.77035460627838</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00467329283624048</v>
+        <v>0.00467329283647872</v>
       </c>
       <c r="E28" t="n">
-        <v>-2.79792308038312</v>
+        <v>-2.79792308038339</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00000096835554637234</v>
+        <v>0.000000968355546989434</v>
       </c>
     </row>
     <row r="29">
@@ -3582,16 +3582,16 @@
         <v>60</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.2524135647213</v>
+        <v>-1.25241356472131</v>
       </c>
       <c r="D29" t="n">
-        <v>0.00333266597795152</v>
+        <v>0.00333266597819854</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.49587334649274</v>
+        <v>-1.4958733464925</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00693272201107051</v>
+        <v>0.00693272201884949</v>
       </c>
     </row>
     <row r="30">
@@ -3602,16 +3602,16 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.679506641699355</v>
+        <v>-0.679506641699351</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0109444774842301</v>
+        <v>0.0109444774850049</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.884224136107353</v>
+        <v>-0.884224136107282</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0104779417049884</v>
+        <v>0.0104779417126604</v>
       </c>
     </row>
     <row r="31">
@@ -3622,16 +3622,16 @@
         <v>64</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.872354097094306</v>
+        <v>-0.872354097094304</v>
       </c>
       <c r="D31" t="n">
-        <v>0.000969479780179903</v>
+        <v>0.000969479780263232</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.859071210044947</v>
+        <v>-0.859071210045007</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0205516259859157</v>
+        <v>0.0205516259992972</v>
       </c>
     </row>
     <row r="32">
@@ -3642,16 +3642,16 @@
         <v>66</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.813925920197301</v>
+        <v>-0.813925920197302</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00479980539877144</v>
+        <v>0.00479980539917442</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.167734300345</v>
+        <v>-1.16773430034491</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0000816761036304442</v>
+        <v>0.0000816761037455557</v>
       </c>
     </row>
     <row r="33">
@@ -3665,13 +3665,13 @@
         <v>1.07154784805467</v>
       </c>
       <c r="D33" t="n">
-        <v>0.00625677168193499</v>
+        <v>0.00625677168225408</v>
       </c>
       <c r="E33" t="n">
-        <v>1.66858597569932</v>
+        <v>1.66858597569931</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0000047776502034648</v>
+        <v>0.00000477765021014938</v>
       </c>
     </row>
     <row r="34">
@@ -3682,16 +3682,16 @@
         <v>70</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.971950726317462</v>
+        <v>-0.971950726317457</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0000031775501894499</v>
+        <v>0.00000317755019003248</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.59459477063696</v>
+        <v>-1.59459477063693</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0000000000748466176294503</v>
+        <v>0.0000000000748466179123175</v>
       </c>
     </row>
     <row r="35">
@@ -3705,13 +3705,13 @@
         <v>-1.05543271766566</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0000637502814349816</v>
+        <v>0.0000637502814423843</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.996963456802168</v>
+        <v>-0.996963456802302</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00231978794173958</v>
+        <v>0.00231978794397308</v>
       </c>
     </row>
     <row r="36">
@@ -3722,16 +3722,16 @@
         <v>74</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.980462125716847</v>
+        <v>-0.980462125716842</v>
       </c>
       <c r="D36" t="n">
-        <v>0.00206092129568263</v>
+        <v>0.00206092129583508</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.17775747786029</v>
+        <v>-1.17775747786047</v>
       </c>
       <c r="F36" t="n">
-        <v>0.000269771017245821</v>
+        <v>0.000269771017557562</v>
       </c>
     </row>
     <row r="37">
@@ -3742,16 +3742,16 @@
         <v>76</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.16564056283779</v>
+        <v>-1.16564056283778</v>
       </c>
       <c r="D37" t="n">
-        <v>0.000000087157485313162</v>
+        <v>0.0000000871574853315142</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.708659769749266</v>
+        <v>-0.708659769749398</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00898484763628238</v>
+        <v>0.00898484763839334</v>
       </c>
     </row>
     <row r="38">
@@ -3762,16 +3762,16 @@
         <v>78</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.981692829967861</v>
+        <v>-0.981692829967864</v>
       </c>
       <c r="D38" t="n">
-        <v>0.00255504611671481</v>
+        <v>0.00255504611693198</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.769214102951438</v>
+        <v>-0.769214102951499</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0441238420368174</v>
+        <v>0.044123842043552</v>
       </c>
     </row>
     <row r="39">
@@ -3782,16 +3782,16 @@
         <v>80</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.18508984528647</v>
+        <v>-1.18508984528649</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0230584054331373</v>
+        <v>0.0230584054343449</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.72232301006162</v>
+        <v>-1.72232301006188</v>
       </c>
       <c r="F39" t="n">
-        <v>0.000657479091559852</v>
+        <v>0.000657479091880334</v>
       </c>
     </row>
     <row r="40">
@@ -3802,16 +3802,16 @@
         <v>82</v>
       </c>
       <c r="C40" t="n">
-        <v>3.02711565042467</v>
+        <v>3.02711565042466</v>
       </c>
       <c r="D40" t="n">
-        <v>0.00248637998388581</v>
+        <v>0.00248637998402275</v>
       </c>
       <c r="E40" t="n">
-        <v>3.99771682142888</v>
+        <v>3.99771682142879</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00000024467717442078</v>
+        <v>0.000000244677174556843</v>
       </c>
     </row>
     <row r="41">
@@ -3822,16 +3822,16 @@
         <v>84</v>
       </c>
       <c r="C41" t="n">
-        <v>0.987103849189365</v>
+        <v>0.98710384918937</v>
       </c>
       <c r="D41" t="n">
-        <v>0.000189938741649915</v>
+        <v>0.000189938741683118</v>
       </c>
       <c r="E41" t="n">
-        <v>1.37135866436291</v>
+        <v>1.37135866436303</v>
       </c>
       <c r="F41" t="n">
-        <v>0.000000168043326140329</v>
+        <v>0.000000168043326575538</v>
       </c>
     </row>
     <row r="42">
@@ -3842,16 +3842,16 @@
         <v>86</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.733343209740215</v>
+        <v>-0.733343209740218</v>
       </c>
       <c r="D42" t="n">
-        <v>0.00932460300945925</v>
+        <v>0.00932460301004259</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.858278762005048</v>
+        <v>-0.858278762005131</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00356003289839087</v>
+        <v>0.00356003290219694</v>
       </c>
     </row>
     <row r="43">
@@ -3862,16 +3862,16 @@
         <v>88</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.04463811066379</v>
+        <v>-1.04463811066378</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0162579162738359</v>
+        <v>0.0162579162748037</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.46919253366362</v>
+        <v>-1.46919253366349</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00204172304702331</v>
+        <v>0.00204172304802625</v>
       </c>
     </row>
     <row r="44">
@@ -3882,16 +3882,16 @@
         <v>90</v>
       </c>
       <c r="C44" t="n">
-        <v>1.59057257269325</v>
+        <v>1.59057257269324</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0455654946806777</v>
+        <v>0.0455654946826688</v>
       </c>
       <c r="E44" t="n">
-        <v>1.8141245351929</v>
+        <v>1.81412453519289</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0396136902965564</v>
+        <v>0.0396136903017736</v>
       </c>
     </row>
     <row r="45">
@@ -3902,16 +3902,16 @@
         <v>92</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.628856569883277</v>
+        <v>-0.628856569883272</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0415980489808135</v>
+        <v>0.0415980489829687</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.911803917600679</v>
+        <v>-0.911803917600787</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0155242429208618</v>
+        <v>0.0155242429280065</v>
       </c>
     </row>
     <row r="46">
@@ -3922,16 +3922,16 @@
         <v>94</v>
       </c>
       <c r="C46" t="n">
-        <v>0.888700192533578</v>
+        <v>0.888700192533577</v>
       </c>
       <c r="D46" t="n">
-        <v>0.00527125639241141</v>
+        <v>0.00527125639276374</v>
       </c>
       <c r="E46" t="n">
-        <v>0.79481310879698</v>
+        <v>0.794813108796864</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0137617587794585</v>
+        <v>0.0137617587899296</v>
       </c>
     </row>
     <row r="47">
@@ -3942,16 +3942,16 @@
         <v>96</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.31859973693118</v>
+        <v>-1.31859973693116</v>
       </c>
       <c r="D47" t="n">
-        <v>0.00414464481040877</v>
+        <v>0.00414464481069394</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.41146592490903</v>
+        <v>-1.4114659249087</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00509600464691468</v>
+        <v>0.00509600464899301</v>
       </c>
     </row>
     <row r="48">
@@ -3962,16 +3962,16 @@
         <v>98</v>
       </c>
       <c r="C48" t="n">
-        <v>-2.61150242162729</v>
+        <v>-2.61150242162728</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0120869473564139</v>
+        <v>0.0120869473570573</v>
       </c>
       <c r="E48" t="n">
-        <v>-2.16742890149577</v>
+        <v>-2.16742890149555</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0261158839342631</v>
+        <v>0.0261158839375577</v>
       </c>
     </row>
     <row r="49">
@@ -3982,16 +3982,16 @@
         <v>100</v>
       </c>
       <c r="C49" t="n">
-        <v>-2.54312903914989</v>
+        <v>-2.54312903914985</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0295021389836214</v>
+        <v>0.0295021389853228</v>
       </c>
       <c r="E49" t="n">
-        <v>-3.82196667185193</v>
+        <v>-3.82196667185274</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00147091431870554</v>
+        <v>0.00147091431895591</v>
       </c>
     </row>
     <row r="50">
@@ -4000,16 +4000,16 @@
       </c>
       <c r="B50"/>
       <c r="C50" t="n">
-        <v>-2.42602877476104</v>
+        <v>-2.42602877476103</v>
       </c>
       <c r="D50" t="n">
-        <v>0.000000000000000232550476676316</v>
+        <v>0.00000000000000023255047674507</v>
       </c>
       <c r="E50" t="n">
-        <v>-3.06342074408937</v>
+        <v>-3.06342074408912</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0000000000000000000106829168699384</v>
+        <v>0.000000000000000000010682916930332</v>
       </c>
     </row>
     <row r="51">
@@ -4020,16 +4020,16 @@
         <v>103</v>
       </c>
       <c r="C51" t="n">
-        <v>-2.00642460298348</v>
+        <v>-2.00642460298349</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0000203240425936223</v>
+        <v>0.00002032404259537</v>
       </c>
       <c r="E51" t="n">
-        <v>-3.37361913922584</v>
+        <v>-3.37361913922626</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00000000037713509388889</v>
+        <v>0.000000000377135095220035</v>
       </c>
     </row>
     <row r="52">
@@ -4040,16 +4040,16 @@
         <v>105</v>
       </c>
       <c r="C52" t="n">
-        <v>2.14496056367751</v>
+        <v>2.1449605636775</v>
       </c>
       <c r="D52" t="n">
-        <v>0.00000480707926862192</v>
+        <v>0.00000480707926916409</v>
       </c>
       <c r="E52" t="n">
-        <v>2.11496744394595</v>
+        <v>2.11496744394591</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0000203701543575088</v>
+        <v>0.0000203701543747573</v>
       </c>
     </row>
     <row r="53">
@@ -4060,16 +4060,16 @@
         <v>107</v>
       </c>
       <c r="C53" t="n">
-        <v>1.19724001259894</v>
+        <v>1.19724001259895</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0000000219659067686485</v>
+        <v>0.0000000219659067740367</v>
       </c>
       <c r="E53" t="n">
-        <v>1.13306130478736</v>
+        <v>1.13306130478725</v>
       </c>
       <c r="F53" t="n">
-        <v>0.000162459283429047</v>
+        <v>0.000162459283649128</v>
       </c>
     </row>
     <row r="54">
@@ -4080,16 +4080,16 @@
         <v>109</v>
       </c>
       <c r="C54" t="n">
-        <v>3.18007764916983</v>
+        <v>3.18007764916993</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0301817307933112</v>
+        <v>0.0301817307944486</v>
       </c>
       <c r="E54" t="n">
-        <v>3.23550770346631</v>
+        <v>3.23550770346659</v>
       </c>
       <c r="F54" t="n">
-        <v>0.035090610985021</v>
+        <v>0.0350906109879552</v>
       </c>
     </row>
     <row r="55">
@@ -4103,13 +4103,13 @@
         <v>1.06158881647991</v>
       </c>
       <c r="D55" t="n">
-        <v>0.000000000029323569387667</v>
+        <v>0.0000000000293235693973863</v>
       </c>
       <c r="E55" t="n">
-        <v>0.932858404618162</v>
+        <v>0.932858404717553</v>
       </c>
       <c r="F55" t="n">
-        <v>0.000000189291768662025</v>
+        <v>0.000000189273147606254</v>
       </c>
     </row>
     <row r="56">
@@ -4123,13 +4123,13 @@
         <v>1.11418604070903</v>
       </c>
       <c r="D56" t="n">
-        <v>0.000298534504103473</v>
+        <v>0.000298534504133047</v>
       </c>
       <c r="E56" t="n">
-        <v>1.65297578484227</v>
+        <v>1.65297578484243</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00000114743931903539</v>
+        <v>0.00000114743932081771</v>
       </c>
     </row>
     <row r="57">
@@ -4140,16 +4140,16 @@
         <v>115</v>
       </c>
       <c r="C57" t="n">
-        <v>0.900581970719877</v>
+        <v>0.900581970719871</v>
       </c>
       <c r="D57" t="n">
-        <v>0.041814791659632</v>
+        <v>0.041814791661746</v>
       </c>
       <c r="E57" t="n">
-        <v>1.16336437814124</v>
+        <v>1.16336437814122</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00967913370348586</v>
+        <v>0.00967913370778966</v>
       </c>
     </row>
     <row r="58">
@@ -4160,16 +4160,16 @@
         <v>117</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.55893077290954</v>
+        <v>-1.55893077290952</v>
       </c>
       <c r="D58" t="n">
-        <v>0.000702855836283335</v>
+        <v>0.000702855836341264</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.69309715145521</v>
+        <v>-1.69309715145519</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00104466847585826</v>
+        <v>0.00104466847635906</v>
       </c>
     </row>
     <row r="59">
@@ -4180,16 +4180,16 @@
         <v>119</v>
       </c>
       <c r="C59" t="n">
-        <v>2.29882918634946</v>
+        <v>2.29882918634942</v>
       </c>
       <c r="D59" t="n">
-        <v>0.00229895147468351</v>
+        <v>0.00229895147485614</v>
       </c>
       <c r="E59" t="n">
-        <v>2.68187667545672</v>
+        <v>2.68187667545675</v>
       </c>
       <c r="F59" t="n">
-        <v>0.000989945118722922</v>
+        <v>0.000989945118956794</v>
       </c>
     </row>
     <row r="60">
@@ -4200,16 +4200,16 @@
         <v>121</v>
       </c>
       <c r="C60" t="n">
-        <v>1.45613755318894</v>
+        <v>1.45613755318893</v>
       </c>
       <c r="D60" t="n">
-        <v>0.00000000000000181883318518707</v>
+        <v>0.00000000000000181883318597762</v>
       </c>
       <c r="E60" t="n">
-        <v>1.60193278923988</v>
+        <v>1.60193278923986</v>
       </c>
       <c r="F60" t="n">
-        <v>0.000000000738988973320446</v>
+        <v>0.000000000738988975783659</v>
       </c>
     </row>
     <row r="61">
@@ -4220,16 +4220,16 @@
         <v>123</v>
       </c>
       <c r="C61" t="n">
-        <v>1.14136536083339</v>
+        <v>1.1413653608334</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0487313351697192</v>
+        <v>0.0487313351713415</v>
       </c>
       <c r="E61" t="n">
-        <v>1.4571419766252</v>
+        <v>1.4571419766253</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0300783054848045</v>
+        <v>0.0300783054918209</v>
       </c>
     </row>
     <row r="62">
@@ -4240,16 +4240,16 @@
         <v>125</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.543695996664142</v>
+        <v>-0.543695996664137</v>
       </c>
       <c r="D62" t="n">
-        <v>0.000189938741649915</v>
+        <v>0.000189938741683118</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.593028360082781</v>
+        <v>-0.593028360082777</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00443619347928286</v>
+        <v>0.0044361934877699</v>
       </c>
     </row>
     <row r="63">
@@ -4260,16 +4260,16 @@
         <v>127</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.8999569296469</v>
+        <v>-1.89995692964691</v>
       </c>
       <c r="D63" t="n">
-        <v>0.00000000000000000127954166446627</v>
+        <v>0.00000000000000000127954166508063</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.56179523469491</v>
+        <v>-1.56179523469461</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00000000015584585534435</v>
+        <v>0.000000000155845855921208</v>
       </c>
     </row>
     <row r="64">
@@ -4280,16 +4280,16 @@
         <v>129</v>
       </c>
       <c r="C64" t="n">
-        <v>6.82275282707386</v>
+        <v>6.82275282707387</v>
       </c>
       <c r="D64" t="n">
-        <v>0.00712088667814002</v>
+        <v>0.00712088667846963</v>
       </c>
       <c r="E64" t="n">
-        <v>6.88234733737562</v>
+        <v>6.8823473373757</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0070894857457302</v>
+        <v>0.00708948574625045</v>
       </c>
     </row>
     <row r="65">
@@ -4300,16 +4300,16 @@
         <v>131</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.80514850514016</v>
+        <v>-1.80514850514018</v>
       </c>
       <c r="D65" t="n">
-        <v>0.000000142423821960408</v>
+        <v>0.000000142423821983902</v>
       </c>
       <c r="E65" t="n">
-        <v>-2.4161307013909</v>
+        <v>-2.41613070139095</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0000000000000030881998842003</v>
+        <v>0.00000000000000308819989442909</v>
       </c>
     </row>
     <row r="66">
@@ -4320,16 +4320,16 @@
         <v>133</v>
       </c>
       <c r="C66" t="n">
-        <v>1.21672694190113</v>
+        <v>1.21672694190115</v>
       </c>
       <c r="D66" t="n">
-        <v>0.038078630795177</v>
+        <v>0.0380786307968958</v>
       </c>
       <c r="E66" t="n">
-        <v>1.43767911883377</v>
+        <v>1.43767911883388</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00726435943410157</v>
+        <v>0.00726435943663517</v>
       </c>
     </row>
     <row r="67">
@@ -4343,13 +4343,13 @@
         <v>-2.11953616868789</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0000447460316863713</v>
+        <v>0.000044746031691019</v>
       </c>
       <c r="E67" t="n">
-        <v>-2.40066203935201</v>
+        <v>-2.40066203935248</v>
       </c>
       <c r="F67" t="n">
-        <v>0.000147143695362875</v>
+        <v>0.000147143695426047</v>
       </c>
     </row>
     <row r="68">
@@ -4360,16 +4360,16 @@
         <v>137</v>
       </c>
       <c r="C68" t="n">
-        <v>-4.85961337855968</v>
+        <v>-4.85961337855973</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0000000000631214632473918</v>
+        <v>0.0000000000631214632580889</v>
       </c>
       <c r="E68" t="n">
-        <v>-2.42810663349767</v>
+        <v>-2.42810663349795</v>
       </c>
       <c r="F68" t="n">
-        <v>0.000499277009529365</v>
+        <v>0.000499277009687687</v>
       </c>
     </row>
     <row r="69">
@@ -4380,16 +4380,16 @@
         <v>139</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.522907842759008</v>
+        <v>-0.522907842759004</v>
       </c>
       <c r="D69" t="n">
-        <v>0.00539283773978617</v>
+        <v>0.00539283774030548</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.31110881152319</v>
+        <v>-1.31110881152311</v>
       </c>
       <c r="F69" t="n">
-        <v>0.000000000181115921176233</v>
+        <v>0.000000000181115922090771</v>
       </c>
     </row>
     <row r="70">
@@ -4400,16 +4400,16 @@
         <v>141</v>
       </c>
       <c r="C70" t="n">
-        <v>0.891682411578993</v>
+        <v>0.891682411578996</v>
       </c>
       <c r="D70" t="n">
-        <v>0.043981077623234</v>
+        <v>0.0439810776252675</v>
       </c>
       <c r="E70" t="n">
-        <v>1.31135283825625</v>
+        <v>1.31135283825638</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00272761941553624</v>
+        <v>0.00272761941705546</v>
       </c>
     </row>
     <row r="71">
@@ -4423,13 +4423,13 @@
         <v>1.5401151202326</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0256226774795157</v>
+        <v>0.0256226774806253</v>
       </c>
       <c r="E71" t="n">
-        <v>1.78906366763832</v>
+        <v>1.78906366763847</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0146807350989745</v>
+        <v>0.014680735101717</v>
       </c>
     </row>
     <row r="72">
@@ -4443,13 +4443,13 @@
         <v>-1.19627682479003</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0371818282101041</v>
+        <v>0.037181828211559</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.32429906348392</v>
+        <v>-2.32429906348425</v>
       </c>
       <c r="F72" t="n">
-        <v>0.00000558715239207898</v>
+        <v>0.00000558715239595287</v>
       </c>
     </row>
     <row r="73">
@@ -4460,16 +4460,16 @@
         <v>147</v>
       </c>
       <c r="C73" t="n">
-        <v>-1.13984652036164</v>
+        <v>-1.13984652036163</v>
       </c>
       <c r="D73" t="n">
-        <v>0.000781190283068245</v>
+        <v>0.000781190283141051</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.979414733022499</v>
+        <v>-0.979414733022572</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0168859993078435</v>
+        <v>0.0168859993113113</v>
       </c>
     </row>
     <row r="74">
@@ -4483,13 +4483,13 @@
         <v>1.24096659925343</v>
       </c>
       <c r="D74" t="n">
-        <v>0.00728094680747868</v>
+        <v>0.00728094680789447</v>
       </c>
       <c r="E74" t="n">
-        <v>1.47405849671159</v>
+        <v>1.47405849671166</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00144292179465121</v>
+        <v>0.00144292179543986</v>
       </c>
     </row>
     <row r="75">
@@ -4500,16 +4500,16 @@
         <v>151</v>
       </c>
       <c r="C75" t="n">
-        <v>1.02708987730118</v>
+        <v>1.02708987730119</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0000229596273423245</v>
+        <v>0.0000229596273461134</v>
       </c>
       <c r="E75" t="n">
-        <v>1.11012098210472</v>
+        <v>1.11012098210477</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00190477941898277</v>
+        <v>0.00190477941994213</v>
       </c>
     </row>
     <row r="76">
@@ -4523,13 +4523,13 @@
         <v>0.829903426334239</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0317965577815847</v>
+        <v>0.0317965577829483</v>
       </c>
       <c r="E76" t="n">
-        <v>1.06988703394495</v>
+        <v>1.06988703394488</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0147636951451964</v>
+        <v>0.0147636951525646</v>
       </c>
     </row>
     <row r="77">
@@ -4540,16 +4540,16 @@
         <v>155</v>
       </c>
       <c r="C77" t="n">
-        <v>0.805802794916839</v>
+        <v>0.805802794916844</v>
       </c>
       <c r="D77" t="n">
-        <v>0.000681859688397157</v>
+        <v>0.000681859688451026</v>
       </c>
       <c r="E77" t="n">
-        <v>0.793372119281255</v>
+        <v>0.793372119281364</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0265418754515095</v>
+        <v>0.0265418754683065</v>
       </c>
     </row>
     <row r="78">
@@ -4560,16 +4560,16 @@
         <v>157</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.52120969231671</v>
+        <v>-0.521209692316697</v>
       </c>
       <c r="D78" t="n">
-        <v>0.00588168841051488</v>
+        <v>0.00588168841106676</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.768519949495034</v>
+        <v>-0.768519949495077</v>
       </c>
       <c r="F78" t="n">
-        <v>0.000133074238024795</v>
+        <v>0.0001330742383936</v>
       </c>
     </row>
     <row r="79">
@@ -4580,16 +4580,16 @@
         <v>159</v>
       </c>
       <c r="C79" t="n">
-        <v>-3.126320029379</v>
+        <v>-3.12632002937899</v>
       </c>
       <c r="D79" t="n">
-        <v>0.000783112654145686</v>
+        <v>0.000783112654194504</v>
       </c>
       <c r="E79" t="n">
-        <v>-3.00366987055259</v>
+        <v>-3.00366987055236</v>
       </c>
       <c r="F79" t="n">
-        <v>0.000000766516407495978</v>
+        <v>0.000000766516407935915</v>
       </c>
     </row>
     <row r="80">
@@ -4600,16 +4600,16 @@
         <v>161</v>
       </c>
       <c r="C80" t="n">
-        <v>1.17808329115635</v>
+        <v>1.17808329115634</v>
       </c>
       <c r="D80" t="n">
-        <v>0.00000979469521832669</v>
+        <v>0.00000979469521954869</v>
       </c>
       <c r="E80" t="n">
-        <v>1.62390628095122</v>
+        <v>1.62390628095133</v>
       </c>
       <c r="F80" t="n">
-        <v>0.00000000902022846367027</v>
+        <v>0.0000000090202284871979</v>
       </c>
     </row>
     <row r="81">
@@ -4620,16 +4620,16 @@
         <v>163</v>
       </c>
       <c r="C81" t="n">
-        <v>2.17415075680908</v>
+        <v>2.17415075680907</v>
       </c>
       <c r="D81" t="n">
-        <v>0.00000000000000675555062775627</v>
+        <v>0.00000000000000675555062982436</v>
       </c>
       <c r="E81" t="n">
-        <v>2.55907030302119</v>
+        <v>2.559070303021</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0000000000000000000106829168699384</v>
+        <v>0.000000000000000000010682916930332</v>
       </c>
     </row>
     <row r="82">
@@ -4638,16 +4638,16 @@
       </c>
       <c r="B82"/>
       <c r="C82" t="n">
-        <v>-1.40150444107579</v>
+        <v>-1.40150444107578</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0190154133196632</v>
+        <v>0.0190154133206846</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.44784293297269</v>
+        <v>-1.44784293297247</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0185350165789243</v>
+        <v>0.0185350165835671</v>
       </c>
     </row>
     <row r="83">
@@ -4658,16 +4658,16 @@
         <v>166</v>
       </c>
       <c r="C83" t="n">
-        <v>1.11441234048428</v>
+        <v>1.11441234048427</v>
       </c>
       <c r="D83" t="n">
-        <v>0.00000000612013360169236</v>
+        <v>0.00000000612013360330424</v>
       </c>
       <c r="E83" t="n">
-        <v>0.876048803268423</v>
+        <v>0.876048803268426</v>
       </c>
       <c r="F83" t="n">
-        <v>0.000173564353779907</v>
+        <v>0.00017356435413672</v>
       </c>
     </row>
     <row r="84">
@@ -4678,16 +4678,16 @@
         <v>168</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.83842407604771</v>
+        <v>-1.83842407604773</v>
       </c>
       <c r="D84" t="n">
-        <v>0.000404630260073726</v>
+        <v>0.000404630260113209</v>
       </c>
       <c r="E84" t="n">
-        <v>-2.30542901500866</v>
+        <v>-2.30542901500852</v>
       </c>
       <c r="F84" t="n">
-        <v>0.00000797224810902537</v>
+        <v>0.00000797224811417732</v>
       </c>
     </row>
     <row r="85">
@@ -4701,13 +4701,13 @@
         <v>-1.27352321103282</v>
       </c>
       <c r="D85" t="n">
-        <v>0.00621065167047425</v>
+        <v>0.00621065167088979</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.29363167663304</v>
+        <v>-1.29363167663295</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0136619373123414</v>
+        <v>0.0136619373227768</v>
       </c>
     </row>
     <row r="86">
@@ -4718,16 +4718,16 @@
         <v>172</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.992775090065459</v>
+        <v>-0.992775090065446</v>
       </c>
       <c r="D86" t="n">
-        <v>0.048953488633</v>
+        <v>0.0489534886354668</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.21276768504571</v>
+        <v>-1.212767685046</v>
       </c>
       <c r="F86" t="n">
-        <v>0.035090610985021</v>
+        <v>0.0350906109879552</v>
       </c>
     </row>
     <row r="87">
@@ -4738,16 +4738,16 @@
         <v>174</v>
       </c>
       <c r="C87" t="n">
-        <v>0.888419383077763</v>
+        <v>0.888419383077766</v>
       </c>
       <c r="D87" t="n">
-        <v>0.000487848399884138</v>
+        <v>0.0004878483999354</v>
       </c>
       <c r="E87" t="n">
-        <v>1.02783752629938</v>
+        <v>1.02783752629933</v>
       </c>
       <c r="F87" t="n">
-        <v>0.000549969485819046</v>
+        <v>0.000549969486507359</v>
       </c>
     </row>
     <row r="88">
@@ -4758,16 +4758,16 @@
         <v>176</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.37847861756041</v>
+        <v>-1.3784786175604</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0216671833705653</v>
+        <v>0.021667183371504</v>
       </c>
       <c r="E88" t="n">
-        <v>-1.42816679005994</v>
+        <v>-1.42816679005966</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0164036344883848</v>
+        <v>0.0164036344928861</v>
       </c>
     </row>
     <row r="89">
@@ -4778,16 +4778,16 @@
         <v>178</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.946486154151333</v>
+        <v>-0.946486154151322</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0435975652179556</v>
+        <v>0.0435975652202535</v>
       </c>
       <c r="E89" t="n">
-        <v>-1.82718741244463</v>
+        <v>-1.82718741244497</v>
       </c>
       <c r="F89" t="n">
-        <v>0.000946066691310543</v>
+        <v>0.000946066691782977</v>
       </c>
     </row>
     <row r="90">
@@ -4798,16 +4798,16 @@
         <v>180</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.601012842172208</v>
+        <v>-0.601012842172202</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0113675516906285</v>
+        <v>0.0113675516914198</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.851338999604035</v>
+        <v>-0.851338999604107</v>
       </c>
       <c r="F90" t="n">
-        <v>0.00300479032718125</v>
+        <v>0.00300479033073312</v>
       </c>
     </row>
     <row r="91">
@@ -4821,13 +4821,13 @@
         <v>-1.58642536470614</v>
       </c>
       <c r="D91" t="n">
-        <v>0.000000000000000207776291216053</v>
+        <v>0.000000000000000207776291301566</v>
       </c>
       <c r="E91" t="n">
-        <v>-1.64014709878892</v>
+        <v>-1.64014709878876</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0000000000484533617634707</v>
+        <v>0.0000000000484533619567884</v>
       </c>
     </row>
     <row r="92">
@@ -4838,16 +4838,16 @@
         <v>184</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.719669142339855</v>
+        <v>-0.719669142339852</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0000405653086739379</v>
+        <v>0.0000405653086809196</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.796324284071535</v>
+        <v>-0.796324284071619</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0091347915879597</v>
+        <v>0.00913479159680728</v>
       </c>
     </row>
     <row r="93">
@@ -4856,16 +4856,16 @@
       </c>
       <c r="B93"/>
       <c r="C93" t="n">
-        <v>-0.924720615869338</v>
+        <v>-0.92472061586934</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0165013920791879</v>
+        <v>0.016501392080186</v>
       </c>
       <c r="E93" t="n">
-        <v>-1.21026681488167</v>
+        <v>-1.21026681488146</v>
       </c>
       <c r="F93" t="n">
-        <v>0.00252626620404165</v>
+        <v>0.00252626620638353</v>
       </c>
     </row>
     <row r="94">
@@ -4879,13 +4879,13 @@
         <v>-0.854056350701769</v>
       </c>
       <c r="D94" t="n">
-        <v>0.00210574261139059</v>
+        <v>0.00210574261156668</v>
       </c>
       <c r="E94" t="n">
-        <v>-1.28060711623094</v>
+        <v>-1.28060711623076</v>
       </c>
       <c r="F94" t="n">
-        <v>0.000338522820170329</v>
+        <v>0.000338522820513575</v>
       </c>
     </row>
     <row r="95">
@@ -4896,16 +4896,16 @@
         <v>189</v>
       </c>
       <c r="C95" t="n">
-        <v>-1.1675712857277</v>
+        <v>-1.16757128572771</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0159973020818097</v>
+        <v>0.0159973020827967</v>
       </c>
       <c r="E95" t="n">
-        <v>-1.62119089846875</v>
+        <v>-1.62119089846905</v>
       </c>
       <c r="F95" t="n">
-        <v>0.00601492178048298</v>
+        <v>0.00601492178236668</v>
       </c>
     </row>
     <row r="96">
@@ -4916,16 +4916,16 @@
         <v>191</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.482261118004577</v>
+        <v>-0.482261118004573</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0356522555281126</v>
+        <v>0.0356522555302518</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.981908629590313</v>
+        <v>-0.981908629590417</v>
       </c>
       <c r="F96" t="n">
-        <v>0.000027169553718895</v>
+        <v>0.0000271695537837327</v>
       </c>
     </row>
     <row r="97">
@@ -4936,16 +4936,16 @@
         <v>193</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.75541876075107</v>
+        <v>-0.755418760751061</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0183534198939876</v>
+        <v>0.0183534198949249</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.837843465476572</v>
+        <v>-0.837843465476498</v>
       </c>
       <c r="F97" t="n">
-        <v>0.00593407653285368</v>
+        <v>0.00593407653842224</v>
       </c>
     </row>
     <row r="98">
@@ -4956,16 +4956,16 @@
         <v>195</v>
       </c>
       <c r="C98" t="n">
-        <v>2.28058255400149</v>
+        <v>2.28058255400148</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0429454615106588</v>
+        <v>0.0429454615123903</v>
       </c>
       <c r="E98" t="n">
-        <v>2.75359932265051</v>
+        <v>2.75359932265042</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00238866370581498</v>
+        <v>0.0023886637060591</v>
       </c>
     </row>
     <row r="99">
@@ -4976,16 +4976,16 @@
         <v>197</v>
       </c>
       <c r="C99" t="n">
-        <v>1.07654923910966</v>
+        <v>1.07654923910967</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0000532677702568385</v>
+        <v>0.0000532677702638823</v>
       </c>
       <c r="E99" t="n">
-        <v>1.6843149938852</v>
+        <v>1.68431499388533</v>
       </c>
       <c r="F99" t="n">
-        <v>0.00000548921421346616</v>
+        <v>0.00000548921422075918</v>
       </c>
     </row>
     <row r="100">
@@ -4996,16 +4996,16 @@
         <v>199</v>
       </c>
       <c r="C100" t="n">
-        <v>1.19831925829353</v>
+        <v>1.19831925829351</v>
       </c>
       <c r="D100" t="n">
-        <v>0.00750067216885907</v>
+        <v>0.00750067216937134</v>
       </c>
       <c r="E100" t="n">
-        <v>1.48979460933615</v>
+        <v>1.48979460933625</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00450425272919715</v>
+        <v>0.0045042527309537</v>
       </c>
     </row>
     <row r="101">
@@ -5016,16 +5016,16 @@
         <v>201</v>
       </c>
       <c r="C101" t="n">
-        <v>1.54480860107018</v>
+        <v>1.54480860107015</v>
       </c>
       <c r="D101" t="n">
-        <v>0.00584323335904179</v>
+        <v>0.00584323335939125</v>
       </c>
       <c r="E101" t="n">
-        <v>2.35738026246827</v>
+        <v>2.35738026246822</v>
       </c>
       <c r="F101" t="n">
-        <v>0.00000354977814459636</v>
+        <v>0.0000035497781472922</v>
       </c>
     </row>
     <row r="102">
@@ -5039,13 +5039,13 @@
         <v>-1.95152559067121</v>
       </c>
       <c r="D102" t="n">
-        <v>0.00000894387901179324</v>
+        <v>0.00000894387901307126</v>
       </c>
       <c r="E102" t="n">
-        <v>-1.99714836533047</v>
+        <v>-1.99714836533083</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0000258839658624968</v>
+        <v>0.0000258839658805203</v>
       </c>
     </row>
     <row r="103">
@@ -5056,16 +5056,16 @@
         <v>205</v>
       </c>
       <c r="C103" t="n">
-        <v>-2.19787052457892</v>
+        <v>-2.19787052457894</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0000841239690924357</v>
+        <v>0.0000841239690995019</v>
       </c>
       <c r="E103" t="n">
-        <v>-2.83312099311692</v>
+        <v>-2.83312099311685</v>
       </c>
       <c r="F103" t="n">
-        <v>0.000000476969065639477</v>
+        <v>0.000000476969065960086</v>
       </c>
     </row>
     <row r="104">
@@ -5076,16 +5076,16 @@
         <v>207</v>
       </c>
       <c r="C104" t="n">
-        <v>-2.00061153744185</v>
+        <v>-2.00061153744184</v>
       </c>
       <c r="D104" t="n">
-        <v>0.00338114190636512</v>
+        <v>0.00338114190662101</v>
       </c>
       <c r="E104" t="n">
-        <v>-2.08262781899523</v>
+        <v>-2.08262781899537</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0325662874763514</v>
+        <v>0.0325662874804909</v>
       </c>
     </row>
     <row r="105">
@@ -5096,16 +5096,16 @@
         <v>209</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.659662098191634</v>
+        <v>-0.659662098191631</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0000559238609515305</v>
+        <v>0.0000559238609608102</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.60410489412654</v>
+        <v>-0.604104894126551</v>
       </c>
       <c r="F105" t="n">
-        <v>0.00886675309741455</v>
+        <v>0.00886675311065121</v>
       </c>
     </row>
     <row r="106">
@@ -5116,16 +5116,16 @@
         <v>211</v>
       </c>
       <c r="C106" t="n">
-        <v>0.667528500270447</v>
+        <v>0.667528500270441</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0357442382131454</v>
+        <v>0.0357442382150656</v>
       </c>
       <c r="E106" t="n">
-        <v>0.861629255086408</v>
+        <v>0.861629255086533</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0445609631186277</v>
+        <v>0.0445609631375502</v>
       </c>
     </row>
     <row r="107">
@@ -5136,16 +5136,16 @@
         <v>213</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.524868687069251</v>
+        <v>-0.52486868706925</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0213630632096898</v>
+        <v>0.0213630632109856</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.619990519030324</v>
+        <v>-0.619990519030299</v>
       </c>
       <c r="F107" t="n">
-        <v>0.00711923878195229</v>
+        <v>0.00711923879288209</v>
       </c>
     </row>
     <row r="108">
@@ -5156,16 +5156,16 @@
         <v>215</v>
       </c>
       <c r="C108" t="n">
-        <v>-1.1268297404846</v>
+        <v>-1.12682974048459</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0000346427600062208</v>
+        <v>0.0000346427600100948</v>
       </c>
       <c r="E108" t="n">
-        <v>-1.10515382443685</v>
+        <v>-1.10515382443692</v>
       </c>
       <c r="F108" t="n">
-        <v>0.00025919561562959</v>
+        <v>0.000259195615981355</v>
       </c>
     </row>
     <row r="109">
@@ -5179,13 +5179,13 @@
         <v>-1.13956136404222</v>
       </c>
       <c r="D109" t="n">
-        <v>0.00505147867260164</v>
+        <v>0.00505147867292962</v>
       </c>
       <c r="E109" t="n">
-        <v>-1.35095614560415</v>
+        <v>-1.35095614560439</v>
       </c>
       <c r="F109" t="n">
-        <v>0.00114878933141316</v>
+        <v>0.00114878933216478</v>
       </c>
     </row>
     <row r="110">
@@ -5199,13 +5199,13 @@
         <v>1.38348933073603</v>
       </c>
       <c r="D110" t="n">
-        <v>0.00000000388922934835974</v>
+        <v>0.00000000388922934910245</v>
       </c>
       <c r="E110" t="n">
-        <v>1.28663020668064</v>
+        <v>1.2866302066806</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0000271062231822743</v>
+        <v>0.0000271062232303884</v>
       </c>
     </row>
     <row r="111">
@@ -5219,13 +5219,13 @@
         <v>1.60138935114284</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0000861840186143551</v>
+        <v>0.0000861840186242606</v>
       </c>
       <c r="E111" t="n">
-        <v>2.00491395916965</v>
+        <v>2.00491395916973</v>
       </c>
       <c r="F111" t="n">
-        <v>0.00000238862279828255</v>
+        <v>0.00000238862280059405</v>
       </c>
     </row>
     <row r="112">
@@ -5236,16 +5236,16 @@
         <v>223</v>
       </c>
       <c r="C112" t="n">
-        <v>1.37701827792746</v>
+        <v>1.37701827792745</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0299115383292164</v>
+        <v>0.0299115383308495</v>
       </c>
       <c r="E112" t="n">
-        <v>1.5437648933318</v>
+        <v>1.54376489333176</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0119596376627693</v>
+        <v>0.0119596376660813</v>
       </c>
     </row>
     <row r="113">
@@ -5259,13 +5259,13 @@
         <v>0.77236108675288</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0450274480005154</v>
+        <v>0.0450274480027116</v>
       </c>
       <c r="E113" t="n">
-        <v>0.924819814213053</v>
+        <v>0.924819814213159</v>
       </c>
       <c r="F113" t="n">
-        <v>0.031047407387744</v>
+        <v>0.0310474074021104</v>
       </c>
     </row>
     <row r="114">
@@ -5276,16 +5276,16 @@
         <v>227</v>
       </c>
       <c r="C114" t="n">
-        <v>4.12367198571224</v>
+        <v>4.12367198571213</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0276138871940807</v>
+        <v>0.0276138871951414</v>
       </c>
       <c r="E114" t="n">
-        <v>4.21298649085022</v>
+        <v>4.21298649084993</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0178303901471697</v>
+        <v>0.0178303901486498</v>
       </c>
     </row>
     <row r="115">
@@ -5296,16 +5296,16 @@
         <v>229</v>
       </c>
       <c r="C115" t="n">
-        <v>3.97361374807904</v>
+        <v>3.97361374807897</v>
       </c>
       <c r="D115" t="n">
-        <v>0.00212100723179653</v>
+        <v>0.00212100723190676</v>
       </c>
       <c r="E115" t="n">
-        <v>4.03629355159198</v>
+        <v>4.0362935515918</v>
       </c>
       <c r="F115" t="n">
-        <v>0.000263781971877956</v>
+        <v>0.000263781972015556</v>
       </c>
     </row>
     <row r="116">
@@ -5316,16 +5316,16 @@
         <v>231</v>
       </c>
       <c r="C116" t="n">
-        <v>1.35227721214222</v>
+        <v>1.35227721214221</v>
       </c>
       <c r="D116" t="n">
-        <v>0.000000000314106980392341</v>
+        <v>0.000000000314106980467623</v>
       </c>
       <c r="E116" t="n">
-        <v>1.30887974120597</v>
+        <v>1.30887974120598</v>
       </c>
       <c r="F116" t="n">
-        <v>0.000102906309829104</v>
+        <v>0.000102906309969049</v>
       </c>
     </row>
     <row r="117">
@@ -5336,16 +5336,16 @@
         <v>233</v>
       </c>
       <c r="C117" t="n">
-        <v>2.36213464751456</v>
+        <v>2.36213464751458</v>
       </c>
       <c r="D117" t="n">
-        <v>0.00310701667227058</v>
+        <v>0.00310701667243059</v>
       </c>
       <c r="E117" t="n">
-        <v>2.50755721789435</v>
+        <v>2.50755721789439</v>
       </c>
       <c r="F117" t="n">
-        <v>0.00147110736842126</v>
+        <v>0.00147110736883694</v>
       </c>
     </row>
     <row r="118">
@@ -5354,16 +5354,16 @@
       </c>
       <c r="B118"/>
       <c r="C118" t="n">
-        <v>-3.16843619081597</v>
+        <v>-3.16843619081596</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0000000000000000000000000000000000988416429150923</v>
+        <v>0.0000000000000000000000000000000000988416429950222</v>
       </c>
       <c r="E118" t="n">
-        <v>-3.66505460058255</v>
+        <v>-3.66505460058257</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0000000000000000000000000000000000502114770562464</v>
+        <v>0.0000000000000000000000000000000000502114774307208</v>
       </c>
     </row>
     <row r="119">
@@ -5374,16 +5374,16 @@
         <v>236</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.772055661742039</v>
+        <v>-0.772055661742034</v>
       </c>
       <c r="D119" t="n">
-        <v>0.035516820438402</v>
+        <v>0.0355168204398953</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.764613954324795</v>
+        <v>-0.764613954324897</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0365251431412112</v>
+        <v>0.036525143161426</v>
       </c>
     </row>
     <row r="120">
@@ -5394,16 +5394,16 @@
         <v>238</v>
       </c>
       <c r="C120" t="n">
-        <v>-1.14184673326189</v>
+        <v>-1.14184673326188</v>
       </c>
       <c r="D120" t="n">
-        <v>0.00252084414697562</v>
+        <v>0.00252084414718313</v>
       </c>
       <c r="E120" t="n">
-        <v>-2.06408394844328</v>
+        <v>-2.06408394844372</v>
       </c>
       <c r="F120" t="n">
-        <v>0.000000692057182876194</v>
+        <v>0.000000692057183617727</v>
       </c>
     </row>
     <row r="121">
@@ -5420,10 +5420,10 @@
         <v>0.0000900821007017072</v>
       </c>
       <c r="E121" t="n">
-        <v>-2.20109697062858</v>
+        <v>-2.2010969706282</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0000533777380681959</v>
+        <v>0.0000533777382036873</v>
       </c>
     </row>
     <row r="122">
@@ -5434,16 +5434,16 @@
         <v>242</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.853594141051438</v>
+        <v>-0.85359414105144</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0186893685383872</v>
+        <v>0.0186893685392525</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.718419211203312</v>
+        <v>-0.718419211203206</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0207691054865357</v>
+        <v>0.0207691055027138</v>
       </c>
     </row>
     <row r="123">
@@ -5454,16 +5454,16 @@
         <v>244</v>
       </c>
       <c r="C123" t="n">
-        <v>0.518506935919745</v>
+        <v>0.518506935919741</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0250421869727955</v>
+        <v>0.0250421869746449</v>
       </c>
       <c r="E123" t="n">
-        <v>0.720839667090734</v>
+        <v>0.720839667090754</v>
       </c>
       <c r="F123" t="n">
-        <v>0.00515794265601481</v>
+        <v>0.00515794266253091</v>
       </c>
     </row>
     <row r="124">
@@ -5477,13 +5477,13 @@
         <v>1.35792871021318</v>
       </c>
       <c r="D124" t="n">
-        <v>0.000159090649348115</v>
+        <v>0.000159090649360058</v>
       </c>
       <c r="E124" t="n">
-        <v>1.5130491043947</v>
+        <v>1.51304910439475</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0000282045231631082</v>
+        <v>0.0000282045231938985</v>
       </c>
     </row>
     <row r="125">
@@ -5497,13 +5497,13 @@
         <v>-1.23229749539446</v>
       </c>
       <c r="D125" t="n">
-        <v>0.024858904593201</v>
+        <v>0.0248589045942135</v>
       </c>
       <c r="E125" t="n">
-        <v>-1.4552058407061</v>
+        <v>-1.45520584070627</v>
       </c>
       <c r="F125" t="n">
-        <v>0.00472467105717274</v>
+        <v>0.00472467105905497</v>
       </c>
     </row>
     <row r="126">
@@ -5514,16 +5514,16 @@
         <v>250</v>
       </c>
       <c r="C126" t="n">
-        <v>1.6190068493764</v>
+        <v>1.61900684937638</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0188262548230873</v>
+        <v>0.0188262548241603</v>
       </c>
       <c r="E126" t="n">
-        <v>2.17570569420917</v>
+        <v>2.17570569420901</v>
       </c>
       <c r="F126" t="n">
-        <v>0.00219242280488293</v>
+        <v>0.00219242280535846</v>
       </c>
     </row>
     <row r="127">
@@ -5534,16 +5534,16 @@
         <v>252</v>
       </c>
       <c r="C127" t="n">
-        <v>1.39546450920247</v>
+        <v>1.39546450920248</v>
       </c>
       <c r="D127" t="n">
-        <v>0.00067958159852993</v>
+        <v>0.000679581598585086</v>
       </c>
       <c r="E127" t="n">
-        <v>1.36881974815509</v>
+        <v>1.36881974815512</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0108418514197724</v>
+        <v>0.0108418514236536</v>
       </c>
     </row>
     <row r="128">
@@ -5554,16 +5554,16 @@
         <v>254</v>
       </c>
       <c r="C128" t="n">
-        <v>1.28808996306586</v>
+        <v>1.28808996306585</v>
       </c>
       <c r="D128" t="n">
-        <v>0.000000409571069718548</v>
+        <v>0.000000409571069795538</v>
       </c>
       <c r="E128" t="n">
-        <v>1.35620585574084</v>
+        <v>1.35620585574075</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0000328559202218202</v>
+        <v>0.0000328559202650005</v>
       </c>
     </row>
     <row r="129">
@@ -5572,16 +5572,16 @@
       </c>
       <c r="B129"/>
       <c r="C129" t="n">
-        <v>-1.20014401974344</v>
+        <v>-1.20014401974343</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0209257841300503</v>
+        <v>0.0209257841311148</v>
       </c>
       <c r="E129" t="n">
-        <v>-1.50986891021841</v>
+        <v>-1.50986891021843</v>
       </c>
       <c r="F129" t="n">
-        <v>0.00153781557692482</v>
+        <v>0.00153781557768473</v>
       </c>
     </row>
     <row r="130">
@@ -5592,16 +5592,16 @@
         <v>257</v>
       </c>
       <c r="C130" t="n">
-        <v>-1.39718470738623</v>
+        <v>-1.39718470738625</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0131960997330705</v>
+        <v>0.0131960997337256</v>
       </c>
       <c r="E130" t="n">
-        <v>-2.4564489365959</v>
+        <v>-2.45644893659598</v>
       </c>
       <c r="F130" t="n">
-        <v>0.000080041135036715</v>
+        <v>0.0000800411350664138</v>
       </c>
     </row>
     <row r="131">
@@ -5612,16 +5612,16 @@
         <v>259</v>
       </c>
       <c r="C131" t="n">
-        <v>-6.06555263910355</v>
+        <v>-6.06555263910366</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0000396196390136906</v>
+        <v>0.0000396196390161059</v>
       </c>
       <c r="E131" t="n">
-        <v>-4.37615500926293</v>
+        <v>-4.37615500926358</v>
       </c>
       <c r="F131" t="n">
-        <v>0.000720230923554318</v>
+        <v>0.000720230923661776</v>
       </c>
     </row>
     <row r="132">
@@ -5632,16 +5632,16 @@
         <v>261</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.675346654010996</v>
+        <v>-0.675346654010989</v>
       </c>
       <c r="D132" t="n">
-        <v>0.00171031265416189</v>
+        <v>0.00171031265434311</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.697763974535106</v>
+        <v>-0.697763974535207</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0165745480925781</v>
+        <v>0.016574548107736</v>
       </c>
     </row>
     <row r="133">
@@ -5652,16 +5652,16 @@
         <v>263</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.770923469081863</v>
+        <v>-0.770923469081864</v>
       </c>
       <c r="D133" t="n">
-        <v>0.00024486375299555</v>
+        <v>0.000244863753025659</v>
       </c>
       <c r="E133" t="n">
-        <v>-1.09688705675571</v>
+        <v>-1.09688705675584</v>
       </c>
       <c r="F133" t="n">
-        <v>0.000117457883043007</v>
+        <v>0.000117457883233166</v>
       </c>
     </row>
     <row r="134">
@@ -5675,13 +5675,13 @@
         <v>1.42718673082448</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0311773023132316</v>
+        <v>0.0311773023147072</v>
       </c>
       <c r="E134" t="n">
-        <v>1.48689681785685</v>
+        <v>1.48689681785678</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0366042126876974</v>
+        <v>0.0366042126943208</v>
       </c>
     </row>
     <row r="135">
@@ -5692,16 +5692,16 @@
         <v>267</v>
       </c>
       <c r="C135" t="n">
-        <v>1.97381664986327</v>
+        <v>1.97381664986328</v>
       </c>
       <c r="D135" t="n">
-        <v>0.00000000000263166544780234</v>
+        <v>0.00000000000263166544861197</v>
       </c>
       <c r="E135" t="n">
-        <v>2.10516884936024</v>
+        <v>2.10516884936034</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0000000000117716358624497</v>
+        <v>0.000000000011771635893156</v>
       </c>
     </row>
     <row r="136">
@@ -5712,16 +5712,16 @@
         <v>269</v>
       </c>
       <c r="C136" t="n">
-        <v>2.40266715175987</v>
+        <v>2.40266715175981</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0474519181851897</v>
+        <v>0.0474519181869161</v>
       </c>
       <c r="E136" t="n">
-        <v>2.55344678991873</v>
+        <v>2.55344678991868</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0377820338851268</v>
+        <v>0.0377820338898057</v>
       </c>
     </row>
     <row r="137">
@@ -5732,16 +5732,16 @@
         <v>271</v>
       </c>
       <c r="C137" t="n">
-        <v>1.19885799967037</v>
+        <v>1.19885799967036</v>
       </c>
       <c r="D137" t="n">
-        <v>0.000000802535191238837</v>
+        <v>0.000000802535191374781</v>
       </c>
       <c r="E137" t="n">
-        <v>1.08495751302915</v>
+        <v>1.0849575130292</v>
       </c>
       <c r="F137" t="n">
-        <v>0.000680335967189325</v>
+        <v>0.000680335967944776</v>
       </c>
     </row>
     <row r="138">
@@ -5752,16 +5752,16 @@
         <v>273</v>
       </c>
       <c r="C138" t="n">
-        <v>0.89304374905727</v>
+        <v>0.893043749057273</v>
       </c>
       <c r="D138" t="n">
-        <v>0.000114226605582251</v>
+        <v>0.000114226605597558</v>
       </c>
       <c r="E138" t="n">
-        <v>1.03799341862472</v>
+        <v>1.03799341862485</v>
       </c>
       <c r="F138" t="n">
-        <v>0.000219115509125603</v>
+        <v>0.000219115509449751</v>
       </c>
     </row>
     <row r="139">
@@ -5772,16 +5772,16 @@
         <v>275</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.752241763842998</v>
+        <v>-0.752241763842992</v>
       </c>
       <c r="D139" t="n">
-        <v>0.00000723462306782223</v>
+        <v>0.00000723462306926618</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.813290240905621</v>
+        <v>-0.813290240905606</v>
       </c>
       <c r="F139" t="n">
-        <v>0.00193451303403296</v>
+        <v>0.00193451303683033</v>
       </c>
     </row>
     <row r="140">
@@ -5792,16 +5792,16 @@
         <v>277</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.881111984238885</v>
+        <v>-0.881111984238882</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0000379052673592568</v>
+        <v>0.0000379052673649878</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.91465412967432</v>
+        <v>-0.914654129674533</v>
       </c>
       <c r="F140" t="n">
-        <v>0.000501919447680321</v>
+        <v>0.000501919448456532</v>
       </c>
     </row>
     <row r="141">
@@ -5812,16 +5812,16 @@
         <v>279</v>
       </c>
       <c r="C141" t="n">
-        <v>1.5878165216686</v>
+        <v>1.58781652166858</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0435975652179556</v>
+        <v>0.0435975652202535</v>
       </c>
       <c r="E141" t="n">
-        <v>1.82795649027453</v>
+        <v>1.8279564902746</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0195739748009273</v>
+        <v>0.0195739748043097</v>
       </c>
     </row>
     <row r="142">
@@ -5832,16 +5832,16 @@
         <v>281</v>
       </c>
       <c r="C142" t="n">
-        <v>0.866875011173003</v>
+        <v>0.866875011172992</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0000200907552212678</v>
+        <v>0.0000200907552243158</v>
       </c>
       <c r="E142" t="n">
-        <v>0.858707716844064</v>
+        <v>0.858707716843982</v>
       </c>
       <c r="F142" t="n">
-        <v>0.000521647218184653</v>
+        <v>0.000521647219093468</v>
       </c>
     </row>
     <row r="143">
@@ -5852,16 +5852,16 @@
         <v>283</v>
       </c>
       <c r="C143" t="n">
-        <v>5.22395302845028</v>
+        <v>5.22395302845047</v>
       </c>
       <c r="D143" t="n">
-        <v>0.00000103477272522529</v>
+        <v>0.00000103477272533562</v>
       </c>
       <c r="E143" t="n">
-        <v>4.58120319226482</v>
+        <v>4.58120319226524</v>
       </c>
       <c r="F143" t="n">
-        <v>0.000378708567706186</v>
+        <v>0.000378708567772648</v>
       </c>
     </row>
     <row r="144">
@@ -5872,16 +5872,16 @@
         <v>285</v>
       </c>
       <c r="C144" t="n">
-        <v>1.00989663621695</v>
+        <v>1.00989663621694</v>
       </c>
       <c r="D144" t="n">
-        <v>0.0127968312460037</v>
+        <v>0.0127968312468604</v>
       </c>
       <c r="E144" t="n">
-        <v>1.80894569926661</v>
+        <v>1.80894569926676</v>
       </c>
       <c r="F144" t="n">
-        <v>0.000141514862909726</v>
+        <v>0.000141514863005433</v>
       </c>
     </row>
     <row r="145">
@@ -5892,16 +5892,16 @@
         <v>287</v>
       </c>
       <c r="C145" t="n">
-        <v>-4.1724442651355</v>
+        <v>-4.17244426513542</v>
       </c>
       <c r="D145" t="n">
-        <v>0.000601475324034381</v>
+        <v>0.000601475324076358</v>
       </c>
       <c r="E145" t="n">
-        <v>-7.75139982473149</v>
+        <v>-7.75139982473151</v>
       </c>
       <c r="F145" t="n">
-        <v>0.00000678015111620618</v>
+        <v>0.00000678015111697655</v>
       </c>
     </row>
     <row r="146">
@@ -5915,13 +5915,13 @@
         <v>1.10319735235772</v>
       </c>
       <c r="D146" t="n">
-        <v>0.0381620420332856</v>
+        <v>0.0381620420348603</v>
       </c>
       <c r="E146" t="n">
-        <v>1.78316619160192</v>
+        <v>1.78316619160179</v>
       </c>
       <c r="F146" t="n">
-        <v>0.00000982139317564483</v>
+        <v>0.00000982139318906113</v>
       </c>
     </row>
     <row r="147">
@@ -5932,16 +5932,16 @@
         <v>291</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.471560236846054</v>
+        <v>-0.471560236933549</v>
       </c>
       <c r="D147" t="n">
-        <v>0.00323013853176626</v>
+        <v>0.00323010283570033</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.653076126336649</v>
+        <v>-0.653076126336588</v>
       </c>
       <c r="F147" t="n">
-        <v>0.00718962724822071</v>
+        <v>0.00718962725154058</v>
       </c>
     </row>
     <row r="148">
@@ -5952,16 +5952,16 @@
         <v>293</v>
       </c>
       <c r="C148" t="n">
-        <v>-2.04349817227925</v>
+        <v>-2.04349817227924</v>
       </c>
       <c r="D148" t="n">
-        <v>0.00378812328230729</v>
+        <v>0.00378812328265663</v>
       </c>
       <c r="E148" t="n">
-        <v>-2.43965367287283</v>
+        <v>-2.43965367287293</v>
       </c>
       <c r="F148" t="n">
-        <v>0.00124060449915559</v>
+        <v>0.00124060449947531</v>
       </c>
     </row>
     <row r="149">
@@ -5972,16 +5972,16 @@
         <v>295</v>
       </c>
       <c r="C149" t="n">
-        <v>1.8437688158331</v>
+        <v>1.84376881583311</v>
       </c>
       <c r="D149" t="n">
-        <v>0.000259606244204056</v>
+        <v>0.000259606244228795</v>
       </c>
       <c r="E149" t="n">
-        <v>1.40979964501095</v>
+        <v>1.40979964501088</v>
       </c>
       <c r="F149" t="n">
-        <v>0.0307860590894126</v>
+        <v>0.0307860590960227</v>
       </c>
     </row>
     <row r="150">
@@ -5995,13 +5995,13 @@
         <v>7.35868055437134</v>
       </c>
       <c r="D150" t="n">
-        <v>0.000755811659654132</v>
+        <v>0.000755811659694836</v>
       </c>
       <c r="E150" t="n">
-        <v>6.79298949338798</v>
+        <v>6.79298949338795</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0367616715037313</v>
+        <v>0.0367616715056692</v>
       </c>
     </row>
     <row r="151">
@@ -6012,16 +6012,16 @@
         <v>299</v>
       </c>
       <c r="C151" t="n">
-        <v>-2.38061424727892</v>
+        <v>-2.38061424727894</v>
       </c>
       <c r="D151" t="n">
-        <v>0.000357941975565552</v>
+        <v>0.000357941975592554</v>
       </c>
       <c r="E151" t="n">
-        <v>-1.64249052171924</v>
+        <v>-1.64249052171887</v>
       </c>
       <c r="F151" t="n">
-        <v>0.00157349070175995</v>
+        <v>0.00157349070245031</v>
       </c>
     </row>
     <row r="152">
@@ -6032,16 +6032,16 @@
         <v>301</v>
       </c>
       <c r="C152" t="n">
-        <v>-2.87874808746856</v>
+        <v>-2.8787480874686</v>
       </c>
       <c r="D152" t="n">
-        <v>0.00393440360361194</v>
+        <v>0.00393440360382741</v>
       </c>
       <c r="E152" t="n">
-        <v>-2.85791847437326</v>
+        <v>-2.8579184743734</v>
       </c>
       <c r="F152" t="n">
-        <v>0.00027333005563317</v>
+        <v>0.000273330055710536</v>
       </c>
     </row>
     <row r="153">
@@ -6055,13 +6055,13 @@
         <v>2.12031310368643</v>
       </c>
       <c r="D153" t="n">
-        <v>0.00000000000000000000233944422424047</v>
+        <v>0.00000000000000000000233944422541218</v>
       </c>
       <c r="E153" t="n">
-        <v>2.66726533861982</v>
+        <v>2.66726533861974</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0000000000000000000106829168699384</v>
+        <v>0.000000000000000000010682916930332</v>
       </c>
     </row>
     <row r="154">
@@ -6072,16 +6072,16 @@
         <v>305</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.637174880911511</v>
+        <v>-0.637174880911508</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0161354375899035</v>
+        <v>0.0161354375908003</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.688054856519924</v>
+        <v>-0.688054856519995</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0037416721488688</v>
+        <v>0.0037416721546557</v>
       </c>
     </row>
     <row r="155">
@@ -6092,16 +6092,16 @@
         <v>307</v>
       </c>
       <c r="C155" t="n">
-        <v>0.702676741824472</v>
+        <v>0.702676741824479</v>
       </c>
       <c r="D155" t="n">
-        <v>0.0325798081408848</v>
+        <v>0.0325798081426996</v>
       </c>
       <c r="E155" t="n">
-        <v>0.831766096291581</v>
+        <v>0.831766096291562</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0146392213923062</v>
+        <v>0.0146392213936552</v>
       </c>
     </row>
     <row r="156">
@@ -6110,16 +6110,16 @@
       </c>
       <c r="B156"/>
       <c r="C156" t="n">
-        <v>-0.785817978868765</v>
+        <v>-0.785817978868756</v>
       </c>
       <c r="D156" t="n">
-        <v>0.00378812328230729</v>
+        <v>0.00378812328265663</v>
       </c>
       <c r="E156" t="n">
-        <v>-0.95540088306489</v>
+        <v>-0.955400883065073</v>
       </c>
       <c r="F156" t="n">
-        <v>0.00866308545925207</v>
+        <v>0.00866308546204397</v>
       </c>
     </row>
     <row r="157">
@@ -6133,13 +6133,13 @@
         <v>-1.09280971200272</v>
       </c>
       <c r="D157" t="n">
-        <v>0.000000543572558668681</v>
+        <v>0.000000543572558769224</v>
       </c>
       <c r="E157" t="n">
-        <v>-2.16597031354263</v>
+        <v>-2.16597031354259</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0000000538370271553325</v>
+        <v>0.0000000538370272461031</v>
       </c>
     </row>
     <row r="158">
@@ -6151,13 +6151,13 @@
         <v>-1.14153789656221</v>
       </c>
       <c r="D158" t="n">
-        <v>0.000196010371774918</v>
+        <v>0.000196010371795216</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.926836603982796</v>
+        <v>-0.926836603982818</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0208597570950969</v>
+        <v>0.0208597571059322</v>
       </c>
     </row>
     <row r="159">
@@ -6171,13 +6171,13 @@
         <v>-1.11379246972145</v>
       </c>
       <c r="D159" t="n">
-        <v>0.00740389105742241</v>
+        <v>0.00740389105780094</v>
       </c>
       <c r="E159" t="n">
-        <v>-1.18772572034307</v>
+        <v>-1.18772572034289</v>
       </c>
       <c r="F159" t="n">
-        <v>0.000384024182602125</v>
+        <v>0.000384024183000717</v>
       </c>
     </row>
     <row r="160">
@@ -6186,16 +6186,16 @@
       </c>
       <c r="B160"/>
       <c r="C160" t="n">
-        <v>-0.859997798759775</v>
+        <v>-0.859997798759778</v>
       </c>
       <c r="D160" t="n">
-        <v>0.0000364468060586288</v>
+        <v>0.0000364468060642671</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.712765162612159</v>
+        <v>-0.712765162612101</v>
       </c>
       <c r="F160" t="n">
-        <v>0.016669649939231</v>
+        <v>0.0166696499539136</v>
       </c>
     </row>
     <row r="161">
@@ -6204,16 +6204,16 @@
       </c>
       <c r="B161"/>
       <c r="C161" t="n">
-        <v>1.54210049405885</v>
+        <v>1.54210049405884</v>
       </c>
       <c r="D161" t="n">
-        <v>0.0331232761387061</v>
+        <v>0.033123276140216</v>
       </c>
       <c r="E161" t="n">
-        <v>1.7881154032564</v>
+        <v>1.78811540325645</v>
       </c>
       <c r="F161" t="n">
-        <v>0.00898484763628238</v>
+        <v>0.00898484763839334</v>
       </c>
     </row>
     <row r="162">
@@ -6224,16 +6224,16 @@
         <v>317</v>
       </c>
       <c r="C162" t="n">
-        <v>-2.03717495522526</v>
+        <v>-2.03717495522527</v>
       </c>
       <c r="D162" t="n">
-        <v>0.0000000000000000000000108649517297522</v>
+        <v>0.0000000000000000000000108649517361586</v>
       </c>
       <c r="E162" t="n">
-        <v>-2.22300009791094</v>
+        <v>-2.22300009791131</v>
       </c>
       <c r="F162" t="n">
-        <v>0.000000000253100727747418</v>
+        <v>0.000000000253100728362925</v>
       </c>
     </row>
     <row r="163">
@@ -6244,16 +6244,16 @@
         <v>319</v>
       </c>
       <c r="C163" t="n">
-        <v>1.70839305200008</v>
+        <v>1.7083930520001</v>
       </c>
       <c r="D163" t="n">
-        <v>0.00218963310219491</v>
+        <v>0.00218963310232693</v>
       </c>
       <c r="E163" t="n">
-        <v>2.41165863414953</v>
+        <v>2.41165863414975</v>
       </c>
       <c r="F163" t="n">
-        <v>0.00000535747059778725</v>
+        <v>0.00000535747060181024</v>
       </c>
     </row>
     <row r="164">
@@ -6264,16 +6264,16 @@
         <v>321</v>
       </c>
       <c r="C164" t="n">
-        <v>1.6305163688313</v>
+        <v>1.63051636883131</v>
       </c>
       <c r="D164" t="n">
-        <v>0.000000000698842397014493</v>
+        <v>0.000000000698842397186295</v>
       </c>
       <c r="E164" t="n">
-        <v>1.72489764993419</v>
+        <v>1.7248976499342</v>
       </c>
       <c r="F164" t="n">
-        <v>0.00000000252971449138647</v>
+        <v>0.00000000252971449764444</v>
       </c>
     </row>
     <row r="165">
@@ -6284,16 +6284,16 @@
         <v>323</v>
       </c>
       <c r="C165" t="n">
-        <v>0.902563740201342</v>
+        <v>0.902563740201351</v>
       </c>
       <c r="D165" t="n">
-        <v>0.0400723631545414</v>
+        <v>0.0400723631561763</v>
       </c>
       <c r="E165" t="n">
-        <v>1.14770961669828</v>
+        <v>1.14770961669845</v>
       </c>
       <c r="F165" t="n">
-        <v>0.0105421286198662</v>
+        <v>0.0105421286249001</v>
       </c>
     </row>
     <row r="166">
@@ -6304,16 +6304,16 @@
         <v>325</v>
       </c>
       <c r="C166" t="n">
-        <v>1.08714315292774</v>
+        <v>1.08714315292773</v>
       </c>
       <c r="D166" t="n">
-        <v>0.0221331030225262</v>
+        <v>0.0221331030237569</v>
       </c>
       <c r="E166" t="n">
-        <v>1.3100350604844</v>
+        <v>1.31003506048427</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0238515205063869</v>
+        <v>0.023851520528616</v>
       </c>
     </row>
     <row r="167">
@@ -6324,16 +6324,16 @@
         <v>327</v>
       </c>
       <c r="C167" t="n">
-        <v>0.698559077249339</v>
+        <v>0.698559077249349</v>
       </c>
       <c r="D167" t="n">
-        <v>0.00145947959876087</v>
+        <v>0.00145947959891732</v>
       </c>
       <c r="E167" t="n">
-        <v>0.773355902573406</v>
+        <v>0.773355902573455</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0213749601277415</v>
+        <v>0.0213749601430814</v>
       </c>
     </row>
     <row r="168">
@@ -6347,13 +6347,13 @@
         <v>-1.06509056508999</v>
       </c>
       <c r="D168" t="n">
-        <v>0.0000000000641030205858176</v>
+        <v>0.0000000000641030206067051</v>
       </c>
       <c r="E168" t="n">
-        <v>-1.49377668991647</v>
+        <v>-1.49377668991643</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0000000000000764306824790089</v>
+        <v>0.0000000000000764306829963188</v>
       </c>
     </row>
     <row r="169">
@@ -6364,16 +6364,16 @@
         <v>331</v>
       </c>
       <c r="C169" t="n">
-        <v>-1.04792118989497</v>
+        <v>-1.04792118989496</v>
       </c>
       <c r="D169" t="n">
-        <v>0.0000673142468959087</v>
+        <v>0.0000673142469041511</v>
       </c>
       <c r="E169" t="n">
-        <v>-1.33052816734146</v>
+        <v>-1.33052816734157</v>
       </c>
       <c r="F169" t="n">
-        <v>0.0000604092099441814</v>
+        <v>0.0000604092100219156</v>
       </c>
     </row>
     <row r="170">
@@ -6382,16 +6382,16 @@
       </c>
       <c r="B170"/>
       <c r="C170" t="n">
-        <v>-1.19519715426089</v>
+        <v>-1.19519715426088</v>
       </c>
       <c r="D170" t="n">
-        <v>0.000000000564260914741935</v>
+        <v>0.000000000564260914911097</v>
       </c>
       <c r="E170" t="n">
-        <v>-2.14376082291435</v>
+        <v>-2.14376082291443</v>
       </c>
       <c r="F170" t="n">
-        <v>0.0000000000761754210797192</v>
+        <v>0.0000000000761754212804801</v>
       </c>
     </row>
     <row r="171">
@@ -6405,13 +6405,13 @@
         <v>-1.55586292762919</v>
       </c>
       <c r="D171" t="n">
-        <v>0.0000000102228568946351</v>
+        <v>0.0000000102228568967685</v>
       </c>
       <c r="E171" t="n">
-        <v>-2.03788487894926</v>
+        <v>-2.03788487894959</v>
       </c>
       <c r="F171" t="n">
-        <v>0.00000000000606625168350604</v>
+        <v>0.00000000000606625170146589</v>
       </c>
     </row>
     <row r="172">
@@ -6425,13 +6425,13 @@
         <v>-1.19751670714345</v>
       </c>
       <c r="D172" t="n">
-        <v>0.000140719009623767</v>
+        <v>0.000140719009638796</v>
       </c>
       <c r="E172" t="n">
-        <v>-0.875805052237899</v>
+        <v>-0.875805052238137</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0184372918268422</v>
+        <v>0.0184372918421206</v>
       </c>
     </row>
     <row r="173">
@@ -6442,16 +6442,16 @@
         <v>338</v>
       </c>
       <c r="C173" t="n">
-        <v>1.26317680108659</v>
+        <v>1.2631768010866</v>
       </c>
       <c r="D173" t="n">
-        <v>0.022558504327639</v>
+        <v>0.0225585043286093</v>
       </c>
       <c r="E173" t="n">
-        <v>1.40561289255738</v>
+        <v>1.40561289255744</v>
       </c>
       <c r="F173" t="n">
-        <v>0.00156526908344128</v>
+        <v>0.00156526908430612</v>
       </c>
     </row>
     <row r="174">
@@ -6462,16 +6462,16 @@
         <v>340</v>
       </c>
       <c r="C174" t="n">
-        <v>-1.39149876980096</v>
+        <v>-1.39149876980095</v>
       </c>
       <c r="D174" t="n">
-        <v>0.000990634054239639</v>
+        <v>0.000990634054378262</v>
       </c>
       <c r="E174" t="n">
-        <v>-1.80416437412197</v>
+        <v>-1.80416437412169</v>
       </c>
       <c r="F174" t="n">
-        <v>0.00198920924104698</v>
+        <v>0.00198920924183575</v>
       </c>
     </row>
     <row r="175">
@@ -6482,16 +6482,16 @@
         <v>342</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.787790340085322</v>
+        <v>-0.78779034008532</v>
       </c>
       <c r="D175" t="n">
-        <v>0.0289992646445325</v>
+        <v>0.0289992646462151</v>
       </c>
       <c r="E175" t="n">
-        <v>-1.09364028321231</v>
+        <v>-1.09364028321251</v>
       </c>
       <c r="F175" t="n">
-        <v>0.00748497464254404</v>
+        <v>0.00748497464661045</v>
       </c>
     </row>
     <row r="176">
@@ -6502,16 +6502,16 @@
         <v>344</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.914929846814624</v>
+        <v>-0.914929846814617</v>
       </c>
       <c r="D176" t="n">
-        <v>0.000399868905455348</v>
+        <v>0.000399868905494226</v>
       </c>
       <c r="E176" t="n">
-        <v>-1.34959884704041</v>
+        <v>-1.34959884704014</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0000000163272507169161</v>
+        <v>0.0000000163272507702348</v>
       </c>
     </row>
     <row r="177">
@@ -6522,16 +6522,16 @@
         <v>346</v>
       </c>
       <c r="C177" t="n">
-        <v>0.670771188640122</v>
+        <v>0.670771188640121</v>
       </c>
       <c r="D177" t="n">
-        <v>0.0248997549538609</v>
+        <v>0.0248997549553021</v>
       </c>
       <c r="E177" t="n">
-        <v>0.93417453509493</v>
+        <v>0.934174535094928</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0011559507572254</v>
+        <v>0.00115595075864078</v>
       </c>
     </row>
     <row r="178">
@@ -6542,16 +6542,16 @@
         <v>348</v>
       </c>
       <c r="C178" t="n">
-        <v>2.73570026965813</v>
+        <v>2.73570026965809</v>
       </c>
       <c r="D178" t="n">
-        <v>0.0000158571769834736</v>
+        <v>0.0000158571769854525</v>
       </c>
       <c r="E178" t="n">
-        <v>2.59218782798849</v>
+        <v>2.59218782798832</v>
       </c>
       <c r="F178" t="n">
-        <v>0.00023553628261622</v>
+        <v>0.000235536282779416</v>
       </c>
     </row>
     <row r="179">
@@ -6562,16 +6562,16 @@
         <v>350</v>
       </c>
       <c r="C179" t="n">
-        <v>0.859832454449807</v>
+        <v>0.859832454449797</v>
       </c>
       <c r="D179" t="n">
-        <v>0.0142274496727968</v>
+        <v>0.0142274496736101</v>
       </c>
       <c r="E179" t="n">
-        <v>1.61002642101346</v>
+        <v>1.61002642101329</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0000000329261589899478</v>
+        <v>0.000000032926159065269</v>
       </c>
     </row>
     <row r="180">
@@ -6582,16 +6582,16 @@
         <v>352</v>
       </c>
       <c r="C180" t="n">
-        <v>-1.47915432313559</v>
+        <v>-1.47915432313558</v>
       </c>
       <c r="D180" t="n">
-        <v>0.000193493324620177</v>
+        <v>0.000193493324639975</v>
       </c>
       <c r="E180" t="n">
-        <v>-1.53640801717632</v>
+        <v>-1.53640801717657</v>
       </c>
       <c r="F180" t="n">
-        <v>0.0400914252415627</v>
+        <v>0.0400914252489705</v>
       </c>
     </row>
     <row r="181">
@@ -6602,16 +6602,16 @@
         <v>354</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.819981796474021</v>
+        <v>-0.81998179647403</v>
       </c>
       <c r="D181" t="n">
-        <v>0.00114741131975459</v>
+        <v>0.00114741131987496</v>
       </c>
       <c r="E181" t="n">
-        <v>-0.938292183204027</v>
+        <v>-0.938292183204285</v>
       </c>
       <c r="F181" t="n">
-        <v>0.00435132987502138</v>
+        <v>0.00435132987876147</v>
       </c>
     </row>
     <row r="182">
@@ -6622,16 +6622,16 @@
         <v>356</v>
       </c>
       <c r="C182" t="n">
-        <v>1.23088986304154</v>
+        <v>1.23088986304152</v>
       </c>
       <c r="D182" t="n">
-        <v>0.0275866612250124</v>
+        <v>0.0275866612261525</v>
       </c>
       <c r="E182" t="n">
-        <v>1.26479934011324</v>
+        <v>1.26479934011325</v>
       </c>
       <c r="F182" t="n">
-        <v>0.0302762333316499</v>
+        <v>0.030276233339726</v>
       </c>
     </row>
     <row r="183">
@@ -6640,16 +6640,16 @@
       </c>
       <c r="B183"/>
       <c r="C183" t="n">
-        <v>-0.84479066519692</v>
+        <v>-0.844790665196926</v>
       </c>
       <c r="D183" t="n">
-        <v>0.0000111163191880726</v>
+        <v>0.0000111163191898016</v>
       </c>
       <c r="E183" t="n">
-        <v>-0.74760921758957</v>
+        <v>-0.747609217589628</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0112429159262098</v>
+        <v>0.0112429159376881</v>
       </c>
     </row>
     <row r="184">
@@ -6660,16 +6660,16 @@
         <v>359</v>
       </c>
       <c r="C184" t="n">
-        <v>4.95813353919592</v>
+        <v>4.95813353919591</v>
       </c>
       <c r="D184" t="n">
-        <v>0.00252084414697562</v>
+        <v>0.00252084414718313</v>
       </c>
       <c r="E184" t="n">
-        <v>5.06038826595156</v>
+        <v>5.06038826595147</v>
       </c>
       <c r="F184" t="n">
-        <v>0.00238866370581498</v>
+        <v>0.0023886637060591</v>
       </c>
     </row>
     <row r="185">
@@ -6680,16 +6680,16 @@
         <v>361</v>
       </c>
       <c r="C185" t="n">
-        <v>-1.48644413214349</v>
+        <v>-1.48644413214348</v>
       </c>
       <c r="D185" t="n">
-        <v>0.00000143892805504486</v>
+        <v>0.00000143892805525385</v>
       </c>
       <c r="E185" t="n">
-        <v>-1.64880847169631</v>
+        <v>-1.64880847169602</v>
       </c>
       <c r="F185" t="n">
-        <v>0.000234292397304638</v>
+        <v>0.000234292397485616</v>
       </c>
     </row>
     <row r="186">
@@ -6700,16 +6700,16 @@
         <v>363</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.619815861326876</v>
+        <v>-0.619815861326877</v>
       </c>
       <c r="D186" t="n">
-        <v>0.0372585229292121</v>
+        <v>0.0372585229311685</v>
       </c>
       <c r="E186" t="n">
-        <v>-0.791768153455505</v>
+        <v>-0.791768153455425</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0123773053249482</v>
+        <v>0.012377305334945</v>
       </c>
     </row>
     <row r="187">
@@ -6721,13 +6721,13 @@
         <v>-1.14189575365466</v>
       </c>
       <c r="D187" t="n">
-        <v>0.0131960997330705</v>
+        <v>0.0131960997337256</v>
       </c>
       <c r="E187" t="n">
-        <v>-1.03381055873599</v>
+        <v>-1.03381055873614</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0233639142579234</v>
+        <v>0.0233639142672291</v>
       </c>
     </row>
     <row r="188">
@@ -6738,16 +6738,16 @@
         <v>366</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.83751021725556</v>
+        <v>-0.837510217255558</v>
       </c>
       <c r="D188" t="n">
-        <v>0.0280844033583377</v>
+        <v>0.0280844033599386</v>
       </c>
       <c r="E188" t="n">
-        <v>-1.24951899231329</v>
+        <v>-1.24951899231351</v>
       </c>
       <c r="F188" t="n">
-        <v>0.00161878916082536</v>
+        <v>0.00161878916197727</v>
       </c>
     </row>
     <row r="189">
@@ -6758,16 +6758,16 @@
         <v>368</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.828111509185409</v>
+        <v>-0.828111509185411</v>
       </c>
       <c r="D189" t="n">
-        <v>0.0481266554214507</v>
+        <v>0.0481266554235619</v>
       </c>
       <c r="E189" t="n">
-        <v>-0.922888375079963</v>
+        <v>-0.922888375080149</v>
       </c>
       <c r="F189" t="n">
-        <v>0.0465344912544172</v>
+        <v>0.0465344912658725</v>
       </c>
     </row>
     <row r="190">
@@ -6778,16 +6778,16 @@
         <v>370</v>
       </c>
       <c r="C190" t="n">
-        <v>-1.81304414612228</v>
+        <v>-1.81304414612226</v>
       </c>
       <c r="D190" t="n">
-        <v>0.000344217095093071</v>
+        <v>0.000344217095119231</v>
       </c>
       <c r="E190" t="n">
-        <v>-1.56041602162721</v>
+        <v>-1.560416021627</v>
       </c>
       <c r="F190" t="n">
-        <v>0.00866308545925207</v>
+        <v>0.00866308546204397</v>
       </c>
     </row>
     <row r="191">
@@ -6796,16 +6796,16 @@
       </c>
       <c r="B191"/>
       <c r="C191" t="n">
-        <v>1.25381535467685</v>
+        <v>1.25381535467684</v>
       </c>
       <c r="D191" t="n">
-        <v>0.0000000000631214632473918</v>
+        <v>0.0000000000631214632580889</v>
       </c>
       <c r="E191" t="n">
-        <v>1.3033701729182</v>
+        <v>1.30337017291808</v>
       </c>
       <c r="F191" t="n">
-        <v>0.000000134213903124178</v>
+        <v>0.000000134213903514334</v>
       </c>
     </row>
     <row r="192">
@@ -6816,16 +6816,16 @@
         <v>373</v>
       </c>
       <c r="C192" t="n">
-        <v>0.91010825204344</v>
+        <v>0.910108252043435</v>
       </c>
       <c r="D192" t="n">
-        <v>0.0147517573026795</v>
+        <v>0.0147517573035383</v>
       </c>
       <c r="E192" t="n">
-        <v>1.52469955973138</v>
+        <v>1.52469955973146</v>
       </c>
       <c r="F192" t="n">
-        <v>0.000080041135036715</v>
+        <v>0.0000800411350664138</v>
       </c>
     </row>
     <row r="193">
@@ -6836,16 +6836,16 @@
         <v>375</v>
       </c>
       <c r="C193" t="n">
-        <v>-1.85377842882911</v>
+        <v>-1.8537784288291</v>
       </c>
       <c r="D193" t="n">
-        <v>0.035827066365379</v>
+        <v>0.03582706636684</v>
       </c>
       <c r="E193" t="n">
-        <v>-1.96472616750165</v>
+        <v>-1.96472616750189</v>
       </c>
       <c r="F193" t="n">
-        <v>0.0377820338851268</v>
+        <v>0.0377820338898057</v>
       </c>
     </row>
     <row r="194">
@@ -6856,16 +6856,16 @@
         <v>377</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.739413023111553</v>
+        <v>-0.739413023111552</v>
       </c>
       <c r="D194" t="n">
-        <v>0.00118118829621454</v>
+        <v>0.00118118829632354</v>
       </c>
       <c r="E194" t="n">
-        <v>-1.53401555338559</v>
+        <v>-1.53401555338552</v>
       </c>
       <c r="F194" t="n">
-        <v>0.00000000000155959786987348</v>
+        <v>0.00000000000155959787834177</v>
       </c>
     </row>
     <row r="195">
@@ -6876,16 +6876,16 @@
         <v>379</v>
       </c>
       <c r="C195" t="n">
-        <v>-2.02516994070026</v>
+        <v>-2.02516994070025</v>
       </c>
       <c r="D195" t="n">
-        <v>0.0000000526367728604803</v>
+        <v>0.0000000526367728706085</v>
       </c>
       <c r="E195" t="n">
-        <v>-1.72063076152231</v>
+        <v>-1.72063076152189</v>
       </c>
       <c r="F195" t="n">
-        <v>0.0000797970187173142</v>
+        <v>0.0000797970187776548</v>
       </c>
     </row>
     <row r="196">
@@ -6896,16 +6896,16 @@
         <v>381</v>
       </c>
       <c r="C196" t="n">
-        <v>-1.13906857306866</v>
+        <v>-1.13906857306865</v>
       </c>
       <c r="D196" t="n">
-        <v>0.00490869204364522</v>
+        <v>0.00490869204393847</v>
       </c>
       <c r="E196" t="n">
-        <v>-1.05625233281786</v>
+        <v>-1.05625233281811</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0034677197813924</v>
+        <v>0.00346771978437376</v>
       </c>
     </row>
     <row r="197">
@@ -6916,16 +6916,16 @@
         <v>383</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.786273323245749</v>
+        <v>-0.786273323245748</v>
       </c>
       <c r="D197" t="n">
-        <v>0.00365820917975468</v>
+        <v>0.00365820918002031</v>
       </c>
       <c r="E197" t="n">
-        <v>-0.814952768988222</v>
+        <v>-0.814952768988367</v>
       </c>
       <c r="F197" t="n">
-        <v>0.0231291696357012</v>
+        <v>0.0231291696500344</v>
       </c>
     </row>
     <row r="198">
@@ -6936,16 +6936,16 @@
         <v>385</v>
       </c>
       <c r="C198" t="n">
-        <v>0.696741864007802</v>
+        <v>0.696741864007805</v>
       </c>
       <c r="D198" t="n">
-        <v>0.00341741554772722</v>
+        <v>0.00341741554805181</v>
       </c>
       <c r="E198" t="n">
-        <v>1.08858688049455</v>
+        <v>1.08858688049467</v>
       </c>
       <c r="F198" t="n">
-        <v>0.00010858637400934</v>
+        <v>0.000108586374181044</v>
       </c>
     </row>
     <row r="199">
@@ -6956,16 +6956,16 @@
         <v>387</v>
       </c>
       <c r="C199" t="n">
-        <v>6.40944602818109</v>
+        <v>6.4094460281811</v>
       </c>
       <c r="D199" t="n">
-        <v>0.0404568013270667</v>
+        <v>0.0404568013284069</v>
       </c>
       <c r="E199" t="n">
-        <v>7.10557076064198</v>
+        <v>7.10557076064202</v>
       </c>
       <c r="F199" t="n">
-        <v>0.00242409356449269</v>
+        <v>0.00242409356470265</v>
       </c>
     </row>
     <row r="200">
@@ -6976,16 +6976,16 @@
         <v>389</v>
       </c>
       <c r="C200" t="n">
-        <v>-3.10370675080761</v>
+        <v>-3.10370675080763</v>
       </c>
       <c r="D200" t="n">
-        <v>0.0000000000000000702906088877155</v>
+        <v>0.0000000000000000702906089142074</v>
       </c>
       <c r="E200" t="n">
         <v>-3.22300942258824</v>
       </c>
       <c r="F200" t="n">
-        <v>0.0296622357396574</v>
+        <v>0.0296622357550559</v>
       </c>
     </row>
     <row r="201">
@@ -6996,16 +6996,16 @@
         <v>391</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.905278833162381</v>
+        <v>-0.905278833162382</v>
       </c>
       <c r="D201" t="n">
-        <v>0.00000838214585148968</v>
+        <v>0.00000838214585311237</v>
       </c>
       <c r="E201" t="n">
-        <v>-1.25439644670154</v>
+        <v>-1.25439644670184</v>
       </c>
       <c r="F201" t="n">
-        <v>0.00000474600675669211</v>
+        <v>0.00000474600675932072</v>
       </c>
     </row>
     <row r="202">
@@ -7014,16 +7014,16 @@
       </c>
       <c r="B202"/>
       <c r="C202" t="n">
-        <v>-0.602368439740776</v>
+        <v>-0.602368439740773</v>
       </c>
       <c r="D202" t="n">
-        <v>0.0338051806092566</v>
+        <v>0.0338051806108957</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.90419857309016</v>
+        <v>-0.904198573090266</v>
       </c>
       <c r="F202" t="n">
-        <v>0.0213073994742752</v>
+        <v>0.0213073994875056</v>
       </c>
     </row>
     <row r="203">
@@ -7034,16 +7034,16 @@
         <v>394</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.745087710398141</v>
+        <v>-0.745087710398146</v>
       </c>
       <c r="D203" t="n">
-        <v>0.00341741554772722</v>
+        <v>0.00341741554805181</v>
       </c>
       <c r="E203" t="n">
-        <v>-0.865244556683394</v>
+        <v>-0.865244556683552</v>
       </c>
       <c r="F203" t="n">
-        <v>0.00592370077526094</v>
+        <v>0.00592370077749202</v>
       </c>
     </row>
     <row r="204">
@@ -7052,16 +7052,16 @@
       </c>
       <c r="B204"/>
       <c r="C204" t="n">
-        <v>3.46697161760511</v>
+        <v>3.46697161760504</v>
       </c>
       <c r="D204" t="n">
-        <v>0.00542145187954179</v>
+        <v>0.00542145187986327</v>
       </c>
       <c r="E204" t="n">
-        <v>3.31046553593195</v>
+        <v>3.31046553593192</v>
       </c>
       <c r="F204" t="n">
-        <v>0.0301457753478862</v>
+        <v>0.0301457753505262</v>
       </c>
     </row>
     <row r="205">
@@ -7072,16 +7072,16 @@
         <v>397</v>
       </c>
       <c r="C205" t="n">
-        <v>-1.10462415573669</v>
+        <v>-1.10462415573668</v>
       </c>
       <c r="D205" t="n">
-        <v>0.00206092129568263</v>
+        <v>0.00206092129583508</v>
       </c>
       <c r="E205" t="n">
-        <v>-1.21460027381744</v>
+        <v>-1.21460027381778</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0274104853183486</v>
+        <v>0.0274104853266431</v>
       </c>
     </row>
     <row r="206">
@@ -7092,16 +7092,16 @@
         <v>399</v>
       </c>
       <c r="C206" t="n">
-        <v>-1.30653867596158</v>
+        <v>-1.30653867596157</v>
       </c>
       <c r="D206" t="n">
-        <v>0.00611027508846864</v>
+        <v>0.00611027508890211</v>
       </c>
       <c r="E206" t="n">
-        <v>-1.24895772119592</v>
+        <v>-1.24895772119613</v>
       </c>
       <c r="F206" t="n">
-        <v>0.0420720738084322</v>
+        <v>0.0420720738150422</v>
       </c>
     </row>
     <row r="207">
@@ -7112,16 +7112,16 @@
         <v>401</v>
       </c>
       <c r="C207" t="n">
-        <v>0.471721567834821</v>
+        <v>0.471721567834818</v>
       </c>
       <c r="D207" t="n">
-        <v>0.0484629282083509</v>
+        <v>0.0484629282109668</v>
       </c>
       <c r="E207" t="n">
-        <v>0.609719778873638</v>
+        <v>0.609719778873661</v>
       </c>
       <c r="F207" t="n">
-        <v>0.035567027237928</v>
+        <v>0.0355670272679032</v>
       </c>
     </row>
     <row r="208">
@@ -7135,13 +7135,13 @@
         <v>1.97279437535158</v>
       </c>
       <c r="D208" t="n">
-        <v>0.0146812701113057</v>
+        <v>0.0146812701120026</v>
       </c>
       <c r="E208" t="n">
-        <v>2.71004784945876</v>
+        <v>2.7100478494589</v>
       </c>
       <c r="F208" t="n">
-        <v>0.000080041135036715</v>
+        <v>0.0000800411350664138</v>
       </c>
     </row>
     <row r="209">
@@ -7152,16 +7152,16 @@
         <v>405</v>
       </c>
       <c r="C209" t="n">
-        <v>0.645792109541767</v>
+        <v>0.645792109541765</v>
       </c>
       <c r="D209" t="n">
-        <v>0.0350287991754011</v>
+        <v>0.0350287991770966</v>
       </c>
       <c r="E209" t="n">
-        <v>1.16465112531082</v>
+        <v>1.16465112531091</v>
       </c>
       <c r="F209" t="n">
-        <v>0.00192546578309272</v>
+        <v>0.00192546578477906</v>
       </c>
     </row>
     <row r="210">
@@ -7172,16 +7172,16 @@
         <v>407</v>
       </c>
       <c r="C210" t="n">
-        <v>-1.21205348446657</v>
+        <v>-1.21205348446656</v>
       </c>
       <c r="D210" t="n">
-        <v>0.00848681812348873</v>
+        <v>0.00848681812388463</v>
       </c>
       <c r="E210" t="n">
-        <v>-1.86888671723882</v>
+        <v>-1.86888671723927</v>
       </c>
       <c r="F210" t="n">
-        <v>0.0000375756276394775</v>
+        <v>0.0000375756276682549</v>
       </c>
     </row>
     <row r="211">
@@ -7192,16 +7192,16 @@
         <v>409</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.553659681070778</v>
+        <v>-0.553659681070774</v>
       </c>
       <c r="D211" t="n">
-        <v>0.0148871007798215</v>
+        <v>0.0148871007808942</v>
       </c>
       <c r="E211" t="n">
-        <v>-0.741420820775646</v>
+        <v>-0.741420820775738</v>
       </c>
       <c r="F211" t="n">
-        <v>0.00693272201107051</v>
+        <v>0.00693272201884949</v>
       </c>
     </row>
     <row r="212">
@@ -7215,13 +7215,13 @@
         <v>-2.00171186278708</v>
       </c>
       <c r="D212" t="n">
-        <v>0.000000000107593361008623</v>
+        <v>0.000000000107593361037181</v>
       </c>
       <c r="E212" t="n">
-        <v>-2.3827524166816</v>
+        <v>-2.38275241668179</v>
       </c>
       <c r="F212" t="n">
-        <v>0.000000034468338354472</v>
+        <v>0.0000000344683383970127</v>
       </c>
     </row>
     <row r="213">
@@ -7232,16 +7232,16 @@
         <v>413</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.670642527806221</v>
+        <v>-0.670642527806223</v>
       </c>
       <c r="D213" t="n">
-        <v>0.00159814822312856</v>
+        <v>0.00159814822329367</v>
       </c>
       <c r="E213" t="n">
-        <v>-0.844013582778194</v>
+        <v>-0.844013582778328</v>
       </c>
       <c r="F213" t="n">
-        <v>0.000820395125238013</v>
+        <v>0.000820395126563254</v>
       </c>
     </row>
     <row r="214">
@@ -7252,16 +7252,16 @@
         <v>415</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.752370882022019</v>
+        <v>-0.752370882022021</v>
       </c>
       <c r="D214" t="n">
-        <v>0.0446556185539189</v>
+        <v>0.0446556185556632</v>
       </c>
       <c r="E214" t="n">
-        <v>-1.04465887270057</v>
+        <v>-1.04465887270076</v>
       </c>
       <c r="F214" t="n">
-        <v>0.0168859993078435</v>
+        <v>0.0168859993113113</v>
       </c>
     </row>
     <row r="215">
@@ -7272,16 +7272,16 @@
         <v>417</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.454385363329014</v>
+        <v>-0.454385363329007</v>
       </c>
       <c r="D215" t="n">
-        <v>0.0214226039281436</v>
+        <v>0.0214226039298296</v>
       </c>
       <c r="E215" t="n">
-        <v>-0.507833202510299</v>
+        <v>-0.507833202510316</v>
       </c>
       <c r="F215" t="n">
-        <v>0.0420720738084322</v>
+        <v>0.0420720738150422</v>
       </c>
     </row>
     <row r="216">
@@ -7292,16 +7292,16 @@
         <v>419</v>
       </c>
       <c r="C216" t="n">
-        <v>-0.723580041796535</v>
+        <v>-0.72358004179653</v>
       </c>
       <c r="D216" t="n">
-        <v>0.0151517752363719</v>
+        <v>0.01515177523733</v>
       </c>
       <c r="E216" t="n">
-        <v>-0.936088307117059</v>
+        <v>-0.936088307117158</v>
       </c>
       <c r="F216" t="n">
-        <v>0.0124279209714412</v>
+        <v>0.0124279209792122</v>
       </c>
     </row>
     <row r="217">
@@ -7312,16 +7312,16 @@
         <v>421</v>
       </c>
       <c r="C217" t="n">
-        <v>1.30578413954159</v>
+        <v>1.30578413954158</v>
       </c>
       <c r="D217" t="n">
-        <v>0.00000210405720569801</v>
+        <v>0.00000210405720594424</v>
       </c>
       <c r="E217" t="n">
-        <v>1.51470015748632</v>
+        <v>1.51470015748625</v>
       </c>
       <c r="F217" t="n">
-        <v>0.00000982139317564483</v>
+        <v>0.00000982139318906113</v>
       </c>
     </row>
     <row r="218">
@@ -7332,16 +7332,16 @@
         <v>423</v>
       </c>
       <c r="C218" t="n">
-        <v>1.05575378025214</v>
+        <v>1.05575378025215</v>
       </c>
       <c r="D218" t="n">
-        <v>0.00252084414697562</v>
+        <v>0.00252084414718313</v>
       </c>
       <c r="E218" t="n">
-        <v>1.83908258502853</v>
+        <v>1.83908258502867</v>
       </c>
       <c r="F218" t="n">
-        <v>0.0000345907390527741</v>
+        <v>0.0000345907390844335</v>
       </c>
     </row>
     <row r="219">
@@ -7352,16 +7352,16 @@
         <v>425</v>
       </c>
       <c r="C219" t="n">
-        <v>-1.40804169219616</v>
+        <v>-1.40804169219617</v>
       </c>
       <c r="D219" t="n">
-        <v>0.0265289283605744</v>
+        <v>0.0265289283615789</v>
       </c>
       <c r="E219" t="n">
-        <v>-1.80514010413116</v>
+        <v>-1.80514010413113</v>
       </c>
       <c r="F219" t="n">
-        <v>0.00376103136628394</v>
+        <v>0.00376103136739521</v>
       </c>
     </row>
     <row r="220">
@@ -7375,13 +7375,13 @@
         <v>2.33321873542014</v>
       </c>
       <c r="D220" t="n">
-        <v>0.000244372335867303</v>
+        <v>0.000244372335886415</v>
       </c>
       <c r="E220" t="n">
-        <v>2.66474678264828</v>
+        <v>2.66474678264825</v>
       </c>
       <c r="F220" t="n">
-        <v>0.000000437121511570643</v>
+        <v>0.00000043712151191558</v>
       </c>
     </row>
     <row r="221">
@@ -7392,16 +7392,16 @@
         <v>429</v>
       </c>
       <c r="C221" t="n">
-        <v>0.8908202063385</v>
+        <v>0.890820206338501</v>
       </c>
       <c r="D221" t="n">
-        <v>0.000301239694664883</v>
+        <v>0.000301239694712789</v>
       </c>
       <c r="E221" t="n">
-        <v>1.23084535414667</v>
+        <v>1.23084535414665</v>
       </c>
       <c r="F221" t="n">
-        <v>0.000000857798899124924</v>
+        <v>0.000000857798901261903</v>
       </c>
     </row>
     <row r="222">
@@ -7412,16 +7412,16 @@
         <v>431</v>
       </c>
       <c r="C222" t="n">
-        <v>1.32814765800553</v>
+        <v>1.32814765800552</v>
       </c>
       <c r="D222" t="n">
-        <v>0.0387402330882367</v>
+        <v>0.0387402330899687</v>
       </c>
       <c r="E222" t="n">
         <v>1.75176408140471</v>
       </c>
       <c r="F222" t="n">
-        <v>0.000270257068449263</v>
+        <v>0.000270257068603255</v>
       </c>
     </row>
     <row r="223">
@@ -7430,16 +7430,16 @@
       </c>
       <c r="B223"/>
       <c r="C223" t="n">
-        <v>-1.34800494002634</v>
+        <v>-1.34800494002635</v>
       </c>
       <c r="D223" t="n">
-        <v>0.00133273311352632</v>
+        <v>0.00133273311363626</v>
       </c>
       <c r="E223" t="n">
-        <v>-1.53642262358249</v>
+        <v>-1.53642262358277</v>
       </c>
       <c r="F223" t="n">
-        <v>0.000661694131995949</v>
+        <v>0.000661694132390782</v>
       </c>
     </row>
     <row r="224">
@@ -7450,16 +7450,16 @@
         <v>434</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.473600711564722</v>
+        <v>-0.473600711564721</v>
       </c>
       <c r="D224" t="n">
-        <v>0.0266286763375394</v>
+        <v>0.026628676339349</v>
       </c>
       <c r="E224" t="n">
-        <v>-0.71724147860896</v>
+        <v>-0.717241478609072</v>
       </c>
       <c r="F224" t="n">
-        <v>0.023585177006178</v>
+        <v>0.0235851770253871</v>
       </c>
     </row>
     <row r="225">
@@ -7473,13 +7473,13 @@
         <v>-0.736216522703925</v>
       </c>
       <c r="D225" t="n">
-        <v>0.00670918588751365</v>
+        <v>0.00670918588806075</v>
       </c>
       <c r="E225" t="n">
-        <v>-1.03708359448379</v>
+        <v>-1.03708359448356</v>
       </c>
       <c r="F225" t="n">
-        <v>0.000924674298156143</v>
+        <v>0.000924674299154495</v>
       </c>
     </row>
     <row r="226">
@@ -7493,13 +7493,13 @@
         <v>1.19748817807365</v>
       </c>
       <c r="D226" t="n">
-        <v>0.000168094716553731</v>
+        <v>0.000168094716574034</v>
       </c>
       <c r="E226" t="n">
-        <v>1.05937444704159</v>
+        <v>1.05937444704141</v>
       </c>
       <c r="F226" t="n">
-        <v>0.0295784030277177</v>
+        <v>0.0295784030383496</v>
       </c>
     </row>
     <row r="227">
@@ -7510,16 +7510,16 @@
         <v>440</v>
       </c>
       <c r="C227" t="n">
-        <v>-1.41297258919506</v>
+        <v>-1.41297258919504</v>
       </c>
       <c r="D227" t="n">
-        <v>0.00378812328230729</v>
+        <v>0.00378812328265663</v>
       </c>
       <c r="E227" t="n">
-        <v>-1.57454402758903</v>
+        <v>-1.57454402758924</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0199766949187786</v>
+        <v>0.0199766949235543</v>
       </c>
     </row>
     <row r="228">
@@ -7530,16 +7530,16 @@
         <v>442</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.666289603752289</v>
+        <v>-0.666289603752277</v>
       </c>
       <c r="D228" t="n">
-        <v>0.00648768596355351</v>
+        <v>0.0064876859640459</v>
       </c>
       <c r="E228" t="n">
-        <v>-0.716550869368963</v>
+        <v>-0.716550869369043</v>
       </c>
       <c r="F228" t="n">
-        <v>0.0110289032897714</v>
+        <v>0.0110289033009498</v>
       </c>
     </row>
     <row r="229">
@@ -7550,16 +7550,16 @@
         <v>444</v>
       </c>
       <c r="C229" t="n">
-        <v>-1.03023464765262</v>
+        <v>-1.03023464765261</v>
       </c>
       <c r="D229" t="n">
-        <v>0.00012494436002914</v>
+        <v>0.00012494436004412</v>
       </c>
       <c r="E229" t="n">
-        <v>-1.5088944226486</v>
+        <v>-1.50889442264831</v>
       </c>
       <c r="F229" t="n">
-        <v>0.000000686111195844239</v>
+        <v>0.000000686111197103089</v>
       </c>
     </row>
     <row r="230">
@@ -7573,13 +7573,13 @@
         <v>-1.1297056817288</v>
       </c>
       <c r="D230" t="n">
-        <v>0.000174242232064911</v>
+        <v>0.000174242232081871</v>
       </c>
       <c r="E230" t="n">
-        <v>-0.793029257731404</v>
+        <v>-0.793029257731423</v>
       </c>
       <c r="F230" t="n">
-        <v>0.0320716563657973</v>
+        <v>0.0320716563889545</v>
       </c>
     </row>
     <row r="231">
@@ -7590,16 +7590,16 @@
         <v>448</v>
       </c>
       <c r="C231" t="n">
-        <v>1.72124037849857</v>
+        <v>1.72124037849855</v>
       </c>
       <c r="D231" t="n">
-        <v>0.0139978204663492</v>
+        <v>0.013997820467024</v>
       </c>
       <c r="E231" t="n">
-        <v>1.90760815091969</v>
+        <v>1.90760815091978</v>
       </c>
       <c r="F231" t="n">
-        <v>0.00273706961113891</v>
+        <v>0.00273706961194602</v>
       </c>
     </row>
     <row r="232">
@@ -7613,13 +7613,13 @@
         <v>-0.714571185785378</v>
       </c>
       <c r="D232" t="n">
-        <v>0.00796989865258271</v>
+        <v>0.00796989865306805</v>
       </c>
       <c r="E232" t="n">
-        <v>-1.01907904255797</v>
+        <v>-1.01907904255804</v>
       </c>
       <c r="F232" t="n">
-        <v>0.00888190346599111</v>
+        <v>0.00888190347276903</v>
       </c>
     </row>
     <row r="233">
@@ -7630,16 +7630,16 @@
         <v>452</v>
       </c>
       <c r="C233" t="n">
-        <v>2.70615020352481</v>
+        <v>2.70615020352478</v>
       </c>
       <c r="D233" t="n">
-        <v>0.000000141796527908919</v>
+        <v>0.000000141796527933913</v>
       </c>
       <c r="E233" t="n">
-        <v>1.98805209939093</v>
+        <v>1.98805209939079</v>
       </c>
       <c r="F233" t="n">
-        <v>0.00800764547499912</v>
+        <v>0.00800764547668344</v>
       </c>
     </row>
     <row r="234">
@@ -7648,16 +7648,16 @@
       </c>
       <c r="B234"/>
       <c r="C234" t="n">
-        <v>-0.516454031818763</v>
+        <v>-0.516454031818762</v>
       </c>
       <c r="D234" t="n">
-        <v>0.0295021389836214</v>
+        <v>0.0295021389853228</v>
       </c>
       <c r="E234" t="n">
-        <v>-0.615288646248623</v>
+        <v>-0.61528864624868</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0427976066592837</v>
+        <v>0.0427976066927176</v>
       </c>
     </row>
     <row r="235">
@@ -7668,16 +7668,16 @@
         <v>455</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.756237795413136</v>
+        <v>-0.756237795413143</v>
       </c>
       <c r="D235" t="n">
-        <v>0.0161969385160627</v>
+        <v>0.0161969385171403</v>
       </c>
       <c r="E235" t="n">
-        <v>-1.34030359519141</v>
+        <v>-1.34030359519101</v>
       </c>
       <c r="F235" t="n">
-        <v>0.000470529677069494</v>
+        <v>0.00047052967746617</v>
       </c>
     </row>
     <row r="236">
@@ -7688,16 +7688,16 @@
         <v>457</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.847876925972414</v>
+        <v>-0.847876925972413</v>
       </c>
       <c r="D236" t="n">
-        <v>0.000115505095746885</v>
+        <v>0.000115505095762433</v>
       </c>
       <c r="E236" t="n">
-        <v>-1.27658731390838</v>
+        <v>-1.27658731390819</v>
       </c>
       <c r="F236" t="n">
-        <v>0.0000000201019151210742</v>
+        <v>0.0000000201019151908337</v>
       </c>
     </row>
     <row r="237">
@@ -7708,16 +7708,16 @@
         <v>459</v>
       </c>
       <c r="C237" t="n">
-        <v>-1.93478674914759</v>
+        <v>-1.93478674914761</v>
       </c>
       <c r="D237" t="n">
-        <v>0.00473016292862147</v>
+        <v>0.00473016292893065</v>
       </c>
       <c r="E237" t="n">
-        <v>-2.25233617745787</v>
+        <v>-2.2523361774582</v>
       </c>
       <c r="F237" t="n">
-        <v>0.00151582449351636</v>
+        <v>0.0015158244939333</v>
       </c>
     </row>
     <row r="238">
@@ -7728,16 +7728,16 @@
         <v>461</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.16546319057222</v>
+        <v>-1.16546319057221</v>
       </c>
       <c r="D238" t="n">
-        <v>0.000000762649749787418</v>
+        <v>0.000000762649749911765</v>
       </c>
       <c r="E238" t="n">
-        <v>-1.09254386075036</v>
+        <v>-1.09254386075048</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0000749321296819947</v>
+        <v>0.0000749321298114205</v>
       </c>
     </row>
     <row r="239">
@@ -7748,16 +7748,16 @@
         <v>463</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.910638264657993</v>
+        <v>-0.910638264657986</v>
       </c>
       <c r="D239" t="n">
-        <v>0.0000532677702568385</v>
+        <v>0.0000532677702638823</v>
       </c>
       <c r="E239" t="n">
-        <v>-0.955830593055308</v>
+        <v>-0.95583059305556</v>
       </c>
       <c r="F239" t="n">
-        <v>0.00579711197073033</v>
+        <v>0.00579711197522318</v>
       </c>
     </row>
     <row r="240">
@@ -7768,16 +7768,16 @@
         <v>465</v>
       </c>
       <c r="C240" t="n">
-        <v>-2.0110488174066</v>
+        <v>-2.01104881740657</v>
       </c>
       <c r="D240" t="n">
-        <v>0.00239071551737609</v>
+        <v>0.00239071551755615</v>
       </c>
       <c r="E240" t="n">
-        <v>-1.38560153711914</v>
+        <v>-1.38560153711918</v>
       </c>
       <c r="F240" t="n">
-        <v>0.0382484425053291</v>
+        <v>0.0382484425190331</v>
       </c>
     </row>
     <row r="241">
@@ -7788,16 +7788,16 @@
         <v>467</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.510474080864068</v>
+        <v>-0.510474080864073</v>
       </c>
       <c r="D241" t="n">
-        <v>0.0234585804443966</v>
+        <v>0.0234585804457733</v>
       </c>
       <c r="E241" t="n">
-        <v>-0.889186791852194</v>
+        <v>-0.8891867918521</v>
       </c>
       <c r="F241" t="n">
-        <v>0.0000533777380681959</v>
+        <v>0.0000533777382036873</v>
       </c>
     </row>
     <row r="242">
@@ -7808,16 +7808,16 @@
         <v>469</v>
       </c>
       <c r="C242" t="n">
-        <v>-1.94263746160261</v>
+        <v>-1.94263746160262</v>
       </c>
       <c r="D242" t="n">
-        <v>0.00465228580413858</v>
+        <v>0.00465228580441594</v>
       </c>
       <c r="E242" t="n">
-        <v>-2.72045412596877</v>
+        <v>-2.72045412596823</v>
       </c>
       <c r="F242" t="n">
-        <v>0.000401532230198076</v>
+        <v>0.000401532230322816</v>
       </c>
     </row>
     <row r="243">
@@ -7828,16 +7828,16 @@
         <v>471</v>
       </c>
       <c r="C243" t="n">
-        <v>-0.570585708528265</v>
+        <v>-0.570585708528262</v>
       </c>
       <c r="D243" t="n">
-        <v>0.00279098650635566</v>
+        <v>0.0027909865066713</v>
       </c>
       <c r="E243" t="n">
-        <v>-1.01257220334466</v>
+        <v>-1.01257220334447</v>
       </c>
       <c r="F243" t="n">
-        <v>0.000170338900664581</v>
+        <v>0.000170338900952846</v>
       </c>
     </row>
     <row r="244">
@@ -7848,16 +7848,16 @@
         <v>473</v>
       </c>
       <c r="C244" t="n">
-        <v>1.19632648237224</v>
+        <v>1.19632648237222</v>
       </c>
       <c r="D244" t="n">
-        <v>0.00173584782762767</v>
+        <v>0.00173584782774873</v>
       </c>
       <c r="E244" t="n">
-        <v>1.11035232491608</v>
+        <v>1.11035232491613</v>
       </c>
       <c r="F244" t="n">
-        <v>0.0159020107458579</v>
+        <v>0.0159020107525832</v>
       </c>
     </row>
     <row r="245">
@@ -7868,16 +7868,16 @@
         <v>475</v>
       </c>
       <c r="C245" t="n">
-        <v>1.08571029586994</v>
+        <v>1.08571029586993</v>
       </c>
       <c r="D245" t="n">
-        <v>0.0000105725386875931</v>
+        <v>0.0000105725386892332</v>
       </c>
       <c r="E245" t="n">
-        <v>1.34698410964831</v>
+        <v>1.3469841096484</v>
       </c>
       <c r="F245" t="n">
-        <v>0.0000693866083369223</v>
+        <v>0.0000693866084228039</v>
       </c>
     </row>
     <row r="246">
@@ -7888,16 +7888,16 @@
         <v>477</v>
       </c>
       <c r="C246" t="n">
-        <v>-1.16013810389116</v>
+        <v>-1.16013810389115</v>
       </c>
       <c r="D246" t="n">
-        <v>0.0000908117530221036</v>
+        <v>0.0000908117530312285</v>
       </c>
       <c r="E246" t="n">
-        <v>-1.16136961629256</v>
+        <v>-1.16136961629275</v>
       </c>
       <c r="F246" t="n">
-        <v>0.00000781996251953475</v>
+        <v>0.00000781996253583451</v>
       </c>
     </row>
     <row r="247">
@@ -7908,16 +7908,16 @@
         <v>479</v>
       </c>
       <c r="C247" t="n">
-        <v>0.634366971147408</v>
+        <v>0.634366971147414</v>
       </c>
       <c r="D247" t="n">
-        <v>0.0206060386915557</v>
+        <v>0.0206060386927206</v>
       </c>
       <c r="E247" t="n">
-        <v>0.813139401472016</v>
+        <v>0.813139401472147</v>
       </c>
       <c r="F247" t="n">
-        <v>0.00361394470778334</v>
+        <v>0.0036139447103629</v>
       </c>
     </row>
     <row r="248">
@@ -7928,16 +7928,16 @@
         <v>481</v>
       </c>
       <c r="C248" t="n">
-        <v>0.629315399757496</v>
+        <v>0.629315399757497</v>
       </c>
       <c r="D248" t="n">
-        <v>0.046678356814107</v>
+        <v>0.0466783568161448</v>
       </c>
       <c r="E248" t="n">
-        <v>0.880313367430841</v>
+        <v>0.880313367430859</v>
       </c>
       <c r="F248" t="n">
-        <v>0.0201514377237945</v>
+        <v>0.0201514377362268</v>
       </c>
     </row>
     <row r="249">
@@ -7948,16 +7948,16 @@
         <v>483</v>
       </c>
       <c r="C249" t="n">
-        <v>0.992907752346625</v>
+        <v>0.992907752346632</v>
       </c>
       <c r="D249" t="n">
-        <v>0.0275866612250124</v>
+        <v>0.0275866612261525</v>
       </c>
       <c r="E249" t="n">
-        <v>1.07790722680604</v>
+        <v>1.07790722680605</v>
       </c>
       <c r="F249" t="n">
-        <v>0.0320451413998449</v>
+        <v>0.0320451414107452</v>
       </c>
     </row>
     <row r="250">
@@ -7968,16 +7968,16 @@
         <v>485</v>
       </c>
       <c r="C250" t="n">
-        <v>-0.998690865518604</v>
+        <v>-0.998690865518599</v>
       </c>
       <c r="D250" t="n">
-        <v>0.000591465483318771</v>
+        <v>0.000591465483381842</v>
       </c>
       <c r="E250" t="n">
-        <v>-0.912560857643588</v>
+        <v>-0.912560857643722</v>
       </c>
       <c r="F250" t="n">
-        <v>0.000258105197000806</v>
+        <v>0.000258105197457489</v>
       </c>
     </row>
     <row r="251">
@@ -7988,16 +7988,16 @@
         <v>487</v>
       </c>
       <c r="C251" t="n">
-        <v>1.04477759179198</v>
+        <v>1.04477759179197</v>
       </c>
       <c r="D251" t="n">
-        <v>0.0101708025452494</v>
+        <v>0.0101708025459165</v>
       </c>
       <c r="E251" t="n">
-        <v>1.18992414386845</v>
+        <v>1.18992414386828</v>
       </c>
       <c r="F251" t="n">
-        <v>0.0114076783499235</v>
+        <v>0.0114076783546839</v>
       </c>
     </row>
     <row r="252">
@@ -8006,16 +8006,16 @@
       </c>
       <c r="B252"/>
       <c r="C252" t="n">
-        <v>-0.933340638841481</v>
+        <v>-0.933340638841492</v>
       </c>
       <c r="D252" t="n">
-        <v>0.00611027508846864</v>
+        <v>0.00611027508890211</v>
       </c>
       <c r="E252" t="n">
-        <v>-1.61820667669478</v>
+        <v>-1.618206676695</v>
       </c>
       <c r="F252" t="n">
-        <v>0.00000431692480443441</v>
+        <v>0.00000431692480982131</v>
       </c>
     </row>
     <row r="253">
@@ -8026,16 +8026,16 @@
         <v>490</v>
       </c>
       <c r="C253" t="n">
-        <v>-1.78906664648983</v>
+        <v>-1.78906664648984</v>
       </c>
       <c r="D253" t="n">
-        <v>0.0114788816075624</v>
+        <v>0.0114788816081469</v>
       </c>
       <c r="E253" t="n">
-        <v>-1.57619383497</v>
+        <v>-1.57619383496992</v>
       </c>
       <c r="F253" t="n">
-        <v>0.0154605018752548</v>
+        <v>0.0154605018769413</v>
       </c>
     </row>
     <row r="254">
@@ -8046,16 +8046,16 @@
         <v>492</v>
       </c>
       <c r="C254" t="n">
-        <v>4.35575493120885</v>
+        <v>4.35575493120873</v>
       </c>
       <c r="D254" t="n">
-        <v>0.0000000919460872933561</v>
+        <v>0.0000000919460873082132</v>
       </c>
       <c r="E254" t="n">
-        <v>4.75051844260751</v>
+        <v>4.75051844260693</v>
       </c>
       <c r="F254" t="n">
-        <v>0.000000000977771461182092</v>
+        <v>0.000000000977771461989133</v>
       </c>
     </row>
     <row r="255">
@@ -8066,16 +8066,16 @@
         <v>494</v>
       </c>
       <c r="C255" t="n">
-        <v>2.4441067200065</v>
+        <v>2.44410672000655</v>
       </c>
       <c r="D255" t="n">
-        <v>0.000240451378817173</v>
+        <v>0.000240451378840805</v>
       </c>
       <c r="E255" t="n">
-        <v>2.49754039801411</v>
+        <v>2.49754039801417</v>
       </c>
       <c r="F255" t="n">
-        <v>0.00114970149660951</v>
+        <v>0.00114970149690831</v>
       </c>
     </row>
     <row r="256">
@@ -8089,13 +8089,13 @@
         <v>1.07864945580925</v>
       </c>
       <c r="D256" t="n">
-        <v>0.00292941601898269</v>
+        <v>0.00292941601915818</v>
       </c>
       <c r="E256" t="n">
-        <v>1.05470096856687</v>
+        <v>1.05470096856682</v>
       </c>
       <c r="F256" t="n">
-        <v>0.00488999910892996</v>
+        <v>0.00488999911195873</v>
       </c>
     </row>
     <row r="257">
@@ -8106,16 +8106,16 @@
         <v>498</v>
       </c>
       <c r="C257" t="n">
-        <v>0.638094060392588</v>
+        <v>0.638094060392586</v>
       </c>
       <c r="D257" t="n">
-        <v>0.000301239694664883</v>
+        <v>0.000301239694712789</v>
       </c>
       <c r="E257" t="n">
-        <v>0.938399074608118</v>
+        <v>0.938399074608207</v>
       </c>
       <c r="F257" t="n">
-        <v>0.00216489398482799</v>
+        <v>0.00216489398727444</v>
       </c>
     </row>
     <row r="258">
@@ -8129,13 +8129,13 @@
         <v>1.98235433435775</v>
       </c>
       <c r="D258" t="n">
-        <v>0.0457112824929548</v>
+        <v>0.0457112824950116</v>
       </c>
       <c r="E258" t="n">
-        <v>1.9011537086629</v>
+        <v>1.90115370866288</v>
       </c>
       <c r="F258" t="n">
-        <v>0.0441238420368174</v>
+        <v>0.044123842043552</v>
       </c>
     </row>
     <row r="259">
@@ -8149,13 +8149,13 @@
         <v>0.900456800927603</v>
       </c>
       <c r="D259" t="n">
-        <v>0.00043183687810791</v>
+        <v>0.000431836878149859</v>
       </c>
       <c r="E259" t="n">
         <v>1.08013528310302</v>
       </c>
       <c r="F259" t="n">
-        <v>0.0000652564200282583</v>
+        <v>0.0000652564201434812</v>
       </c>
     </row>
     <row r="260">
@@ -8169,13 +8169,13 @@
         <v>1.35612719426545</v>
       </c>
       <c r="D260" t="n">
-        <v>0.00000000553254058963824</v>
+        <v>0.00000000553254059101601</v>
       </c>
       <c r="E260" t="n">
-        <v>1.16916575680064</v>
+        <v>1.16916575680059</v>
       </c>
       <c r="F260" t="n">
-        <v>0.0000533777380681959</v>
+        <v>0.0000533777382036873</v>
       </c>
     </row>
     <row r="261">
@@ -8186,16 +8186,16 @@
         <v>506</v>
       </c>
       <c r="C261" t="n">
-        <v>1.79689833097228</v>
+        <v>1.79689833097226</v>
       </c>
       <c r="D261" t="n">
-        <v>0.000152962697701631</v>
+        <v>0.000152962697718124</v>
       </c>
       <c r="E261" t="n">
-        <v>1.57789270091557</v>
+        <v>1.57789270091554</v>
       </c>
       <c r="F261" t="n">
-        <v>0.00396712061922061</v>
+        <v>0.00396712062064522</v>
       </c>
     </row>
     <row r="262">
@@ -8206,16 +8206,16 @@
         <v>508</v>
       </c>
       <c r="C262" t="n">
-        <v>2.47378154770935</v>
+        <v>2.47378154770938</v>
       </c>
       <c r="D262" t="n">
-        <v>0.00113981118533472</v>
+        <v>0.00113981118541252</v>
       </c>
       <c r="E262" t="n">
-        <v>3.75104105020131</v>
+        <v>3.75104105020169</v>
       </c>
       <c r="F262" t="n">
-        <v>0.00000000000155959786987348</v>
+        <v>0.00000000000155959787834177</v>
       </c>
     </row>
     <row r="263">
@@ -8226,16 +8226,16 @@
         <v>510</v>
       </c>
       <c r="C263" t="n">
-        <v>0.663701676353422</v>
+        <v>0.66370167635341</v>
       </c>
       <c r="D263" t="n">
-        <v>0.0425547641209229</v>
+        <v>0.0425547641229785</v>
       </c>
       <c r="E263" t="n">
-        <v>0.871643511749649</v>
+        <v>0.871643511749563</v>
       </c>
       <c r="F263" t="n">
-        <v>0.00366128154943852</v>
+        <v>0.0036612815531078</v>
       </c>
     </row>
     <row r="264">
@@ -8249,13 +8249,13 @@
         <v>-0.778565513036182</v>
       </c>
       <c r="D264" t="n">
-        <v>0.00000146910863495243</v>
+        <v>0.00000146910863526298</v>
       </c>
       <c r="E264" t="n">
-        <v>-0.816010909673877</v>
+        <v>-0.81601090967392</v>
       </c>
       <c r="F264" t="n">
-        <v>0.0106636664665654</v>
+        <v>0.0106636664768317</v>
       </c>
     </row>
     <row r="265">
@@ -8266,16 +8266,16 @@
         <v>514</v>
       </c>
       <c r="C265" t="n">
-        <v>-2.13998953818429</v>
+        <v>-2.1399895381843</v>
       </c>
       <c r="D265" t="n">
-        <v>0.00000000000000000337535413350213</v>
+        <v>0.00000000000000000337535413490382</v>
       </c>
       <c r="E265" t="n">
-        <v>-2.22270967950123</v>
+        <v>-2.2227096795011</v>
       </c>
       <c r="F265" t="n">
-        <v>0.0000000000000419611512173671</v>
+        <v>0.0000000000000419611513636378</v>
       </c>
     </row>
     <row r="266">
@@ -8286,16 +8286,16 @@
         <v>516</v>
       </c>
       <c r="C266" t="n">
-        <v>-0.937505972271446</v>
+        <v>-0.937505972271449</v>
       </c>
       <c r="D266" t="n">
-        <v>0.000393280804114351</v>
+        <v>0.000393280804159269</v>
       </c>
       <c r="E266" t="n">
-        <v>-0.799800943950556</v>
+        <v>-0.799800943950803</v>
       </c>
       <c r="F266" t="n">
-        <v>0.0272377273788489</v>
+        <v>0.0272377273947617</v>
       </c>
     </row>
     <row r="267">
@@ -8306,16 +8306,16 @@
         <v>518</v>
       </c>
       <c r="C267" t="n">
-        <v>1.25641926297111</v>
+        <v>1.25641926297112</v>
       </c>
       <c r="D267" t="n">
-        <v>0.0161354375899035</v>
+        <v>0.0161354375908003</v>
       </c>
       <c r="E267" t="n">
-        <v>1.35556598604167</v>
+        <v>1.3555659860418</v>
       </c>
       <c r="F267" t="n">
-        <v>0.0116135329174285</v>
+        <v>0.0116135329237735</v>
       </c>
     </row>
     <row r="268">
@@ -8329,13 +8329,13 @@
         <v>0.729654077245813</v>
       </c>
       <c r="D268" t="n">
-        <v>0.0481256416181734</v>
+        <v>0.0481256416205682</v>
       </c>
       <c r="E268" t="n">
-        <v>0.940044190548335</v>
+        <v>0.940044190548217</v>
       </c>
       <c r="F268" t="n">
-        <v>0.010427547353372</v>
+        <v>0.0104275473598883</v>
       </c>
     </row>
     <row r="269">
@@ -8346,16 +8346,16 @@
         <v>522</v>
       </c>
       <c r="C269" t="n">
-        <v>1.66715005701202</v>
+        <v>1.667150057012</v>
       </c>
       <c r="D269" t="n">
-        <v>0.00510220617272079</v>
+        <v>0.00510220617311187</v>
       </c>
       <c r="E269" t="n">
-        <v>1.99738457044406</v>
+        <v>1.9973845704439</v>
       </c>
       <c r="F269" t="n">
-        <v>0.000125053995108162</v>
+        <v>0.000125053995176356</v>
       </c>
     </row>
     <row r="270">
@@ -8366,16 +8366,16 @@
         <v>524</v>
       </c>
       <c r="C270" t="n">
-        <v>2.64973934947232</v>
+        <v>2.64973934947229</v>
       </c>
       <c r="D270" t="n">
-        <v>0.0012233173064483</v>
+        <v>0.00122331730652202</v>
       </c>
       <c r="E270" t="n">
-        <v>3.33534684760969</v>
+        <v>3.33534684760952</v>
       </c>
       <c r="F270" t="n">
-        <v>0.00000111934051963582</v>
+        <v>0.0000011193405202702</v>
       </c>
     </row>
     <row r="271">
@@ -8386,16 +8386,16 @@
         <v>526</v>
       </c>
       <c r="C271" t="n">
-        <v>-1.12640154628501</v>
+        <v>-1.126401546285</v>
       </c>
       <c r="D271" t="n">
-        <v>0.0000159262044434026</v>
+        <v>0.0000159262044454279</v>
       </c>
       <c r="E271" t="n">
-        <v>-0.954279121481845</v>
+        <v>-0.954279121481681</v>
       </c>
       <c r="F271" t="n">
-        <v>0.00242409356449269</v>
+        <v>0.00242409356470265</v>
       </c>
     </row>
     <row r="272">
@@ -8406,16 +8406,16 @@
         <v>528</v>
       </c>
       <c r="C272" t="n">
-        <v>2.70923633552176</v>
+        <v>2.70923633552172</v>
       </c>
       <c r="D272" t="n">
-        <v>0.0000000198154523094984</v>
+        <v>0.0000000198154523124744</v>
       </c>
       <c r="E272" t="n">
-        <v>3.22114101950541</v>
+        <v>3.22114101950513</v>
       </c>
       <c r="F272" t="n">
-        <v>0.0000000000456897311248143</v>
+        <v>0.000000000045689731191803</v>
       </c>
     </row>
     <row r="273">
@@ -8426,16 +8426,16 @@
         <v>530</v>
       </c>
       <c r="C273" t="n">
-        <v>-1.11070461165901</v>
+        <v>-1.11070461165899</v>
       </c>
       <c r="D273" t="n">
-        <v>0.0186730410212275</v>
+        <v>0.0186730410222398</v>
       </c>
       <c r="E273" t="n">
-        <v>-1.60888497677219</v>
+        <v>-1.60888497677248</v>
       </c>
       <c r="F273" t="n">
-        <v>0.0133314799836716</v>
+        <v>0.0133314799872176</v>
       </c>
     </row>
     <row r="274">
@@ -8446,16 +8446,16 @@
         <v>532</v>
       </c>
       <c r="C274" t="n">
-        <v>-1.70972371359876</v>
+        <v>-1.70972371359875</v>
       </c>
       <c r="D274" t="n">
-        <v>0.000943270119964466</v>
+        <v>0.000943270120047279</v>
       </c>
       <c r="E274" t="n">
-        <v>-2.05937229124966</v>
+        <v>-2.05937229125004</v>
       </c>
       <c r="F274" t="n">
-        <v>0.00275428874238754</v>
+        <v>0.00275428874258861</v>
       </c>
     </row>
     <row r="275">
@@ -8466,16 +8466,16 @@
         <v>534</v>
       </c>
       <c r="C275" t="n">
-        <v>0.651686282889612</v>
+        <v>0.651686282889621</v>
       </c>
       <c r="D275" t="n">
-        <v>0.0234585804443966</v>
+        <v>0.0234585804457733</v>
       </c>
       <c r="E275" t="n">
-        <v>0.806200511274352</v>
+        <v>0.806200511274297</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0103706638986251</v>
+        <v>0.0103706639073654</v>
       </c>
     </row>
     <row r="276">
@@ -8489,13 +8489,13 @@
         <v>-0.718548772180261</v>
       </c>
       <c r="D276" t="n">
-        <v>0.00044273885772494</v>
+        <v>0.000442738857775396</v>
       </c>
       <c r="E276" t="n">
-        <v>-0.797341360958347</v>
+        <v>-0.797341360958423</v>
       </c>
       <c r="F276" t="n">
-        <v>0.00564051292410977</v>
+        <v>0.00564051293043666</v>
       </c>
     </row>
     <row r="277">
@@ -8506,16 +8506,16 @@
         <v>538</v>
       </c>
       <c r="C277" t="n">
-        <v>-0.836159871975647</v>
+        <v>-0.836159871975635</v>
       </c>
       <c r="D277" t="n">
-        <v>0.0104256623661345</v>
+        <v>0.0104256623665873</v>
       </c>
       <c r="E277" t="n">
-        <v>-1.05528003613971</v>
+        <v>-1.05528003613977</v>
       </c>
       <c r="F277" t="n">
-        <v>0.00114332800778715</v>
+        <v>0.0011433280084792</v>
       </c>
     </row>
     <row r="278">
@@ -8526,16 +8526,16 @@
         <v>540</v>
       </c>
       <c r="C278" t="n">
-        <v>1.5178683907343</v>
+        <v>1.51786839073429</v>
       </c>
       <c r="D278" t="n">
-        <v>0.0000376585103064777</v>
+        <v>0.0000376585103101601</v>
       </c>
       <c r="E278" t="n">
-        <v>1.60722252460565</v>
+        <v>1.60722252460549</v>
       </c>
       <c r="F278" t="n">
-        <v>0.0000211685095424386</v>
+        <v>0.0000211685095663608</v>
       </c>
     </row>
     <row r="279">
@@ -8546,16 +8546,16 @@
         <v>542</v>
       </c>
       <c r="C279" t="n">
-        <v>1.12215613844872</v>
+        <v>1.12215613844871</v>
       </c>
       <c r="D279" t="n">
-        <v>0.00182284450984836</v>
+        <v>0.00182284451001942</v>
       </c>
       <c r="E279" t="n">
-        <v>1.14209096253758</v>
+        <v>1.14209096253741</v>
       </c>
       <c r="F279" t="n">
-        <v>0.0148196003202824</v>
+        <v>0.0148196003266951</v>
       </c>
     </row>
     <row r="280">
@@ -8569,13 +8569,13 @@
         <v>1.10342905312922</v>
       </c>
       <c r="D280" t="n">
-        <v>0.0000000138843257517666</v>
+        <v>0.0000000138843257549428</v>
       </c>
       <c r="E280" t="n">
-        <v>1.32096531281814</v>
+        <v>1.32096531281813</v>
       </c>
       <c r="F280" t="n">
-        <v>0.000000000727652254271617</v>
+        <v>0.000000000727652257549209</v>
       </c>
     </row>
     <row r="281">
@@ -8586,16 +8586,16 @@
         <v>546</v>
       </c>
       <c r="C281" t="n">
-        <v>0.535332539855402</v>
+        <v>0.535332539855404</v>
       </c>
       <c r="D281" t="n">
-        <v>0.0373080609668307</v>
+        <v>0.0373080609688851</v>
       </c>
       <c r="E281" t="n">
-        <v>0.761649241685545</v>
+        <v>0.76164924168559</v>
       </c>
       <c r="F281" t="n">
-        <v>0.0191104389315923</v>
+        <v>0.0191104389464918</v>
       </c>
     </row>
     <row r="282">
@@ -8606,16 +8606,16 @@
         <v>548</v>
       </c>
       <c r="C282" t="n">
-        <v>-0.855095595062899</v>
+        <v>-0.855095595062901</v>
       </c>
       <c r="D282" t="n">
-        <v>0.00882444573161417</v>
+        <v>0.00882444573218576</v>
       </c>
       <c r="E282" t="n">
-        <v>-1.02130639155017</v>
+        <v>-1.02130639155027</v>
       </c>
       <c r="F282" t="n">
-        <v>0.03779814568801</v>
+        <v>0.037798145701945</v>
       </c>
     </row>
     <row r="283">
@@ -8626,16 +8626,16 @@
         <v>550</v>
       </c>
       <c r="C283" t="n">
-        <v>-0.746311430610685</v>
+        <v>-0.746311430610669</v>
       </c>
       <c r="D283" t="n">
-        <v>0.0299115383292164</v>
+        <v>0.0299115383308495</v>
       </c>
       <c r="E283" t="n">
-        <v>-0.721640030763002</v>
+        <v>-0.721640030762966</v>
       </c>
       <c r="F283" t="n">
-        <v>0.0434322155175509</v>
+        <v>0.0434322155407991</v>
       </c>
     </row>
     <row r="284">
@@ -8646,16 +8646,16 @@
         <v>552</v>
       </c>
       <c r="C284" t="n">
-        <v>-1.83652762171878</v>
+        <v>-1.83652762171877</v>
       </c>
       <c r="D284" t="n">
-        <v>0.00934829416989589</v>
+        <v>0.00934829417033358</v>
       </c>
       <c r="E284" t="n">
-        <v>-1.81218413951084</v>
+        <v>-1.81218413951098</v>
       </c>
       <c r="F284" t="n">
-        <v>0.000291415576119559</v>
+        <v>0.000291415576274106</v>
       </c>
     </row>
     <row r="285">
@@ -8666,16 +8666,16 @@
         <v>554</v>
       </c>
       <c r="C285" t="n">
-        <v>0.730888339203282</v>
+        <v>0.730888339203287</v>
       </c>
       <c r="D285" t="n">
-        <v>0.0183268761102216</v>
+        <v>0.0183268761112755</v>
       </c>
       <c r="E285" t="n">
-        <v>1.23757528679436</v>
+        <v>1.23757528679451</v>
       </c>
       <c r="F285" t="n">
-        <v>0.0000328559202218202</v>
+        <v>0.0000328559202650005</v>
       </c>
     </row>
     <row r="286">
@@ -8686,16 +8686,16 @@
         <v>556</v>
       </c>
       <c r="C286" t="n">
-        <v>-3.64893899536121</v>
+        <v>-3.6489389953611</v>
       </c>
       <c r="D286" t="n">
-        <v>0.000152962697701631</v>
+        <v>0.000152962697718124</v>
       </c>
       <c r="E286" t="n">
-        <v>-3.96932134598753</v>
+        <v>-3.96932134598852</v>
       </c>
       <c r="F286" t="n">
-        <v>0.0000652614821280552</v>
+        <v>0.0000652614821473933</v>
       </c>
     </row>
     <row r="287">
@@ -8706,16 +8706,16 @@
         <v>558</v>
       </c>
       <c r="C287" t="n">
-        <v>-1.16700921252821</v>
+        <v>-1.16700921252819</v>
       </c>
       <c r="D287" t="n">
-        <v>0.0394040901162465</v>
+        <v>0.0394040901179034</v>
       </c>
       <c r="E287" t="n">
-        <v>-1.29962924577351</v>
+        <v>-1.29962924577381</v>
       </c>
       <c r="F287" t="n">
-        <v>0.0139011259719689</v>
+        <v>0.013901125976546</v>
       </c>
     </row>
     <row r="288">
@@ -8726,16 +8726,16 @@
         <v>560</v>
       </c>
       <c r="C288" t="n">
-        <v>-1.49654951983629</v>
+        <v>-1.49654951983628</v>
       </c>
       <c r="D288" t="n">
-        <v>0.00465477591139701</v>
+        <v>0.0046547759117334</v>
       </c>
       <c r="E288" t="n">
-        <v>-2.83402513483355</v>
+        <v>-2.83402513483417</v>
       </c>
       <c r="F288" t="n">
-        <v>0.00000474600675669211</v>
+        <v>0.00000474600675932072</v>
       </c>
     </row>
     <row r="289">
@@ -8746,16 +8746,16 @@
         <v>562</v>
       </c>
       <c r="C289" t="n">
-        <v>-0.460724758277164</v>
+        <v>-0.460724758277152</v>
       </c>
       <c r="D289" t="n">
-        <v>0.0371061741531942</v>
+        <v>0.0371061741556252</v>
       </c>
       <c r="E289" t="n">
-        <v>-0.769142487829471</v>
+        <v>-0.769142487829647</v>
       </c>
       <c r="F289" t="n">
-        <v>0.00696402271688301</v>
+        <v>0.00696402272434801</v>
       </c>
     </row>
     <row r="290">
@@ -8766,16 +8766,16 @@
         <v>564</v>
       </c>
       <c r="C290" t="n">
-        <v>-2.7579760187234</v>
+        <v>-2.75797601872336</v>
       </c>
       <c r="D290" t="n">
-        <v>0.00000480707926862192</v>
+        <v>0.00000480707926916409</v>
       </c>
       <c r="E290" t="n">
-        <v>-2.50208667691417</v>
+        <v>-2.50208667691415</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0000950929359826024</v>
+        <v>0.000095092936023504</v>
       </c>
     </row>
     <row r="291">
@@ -8786,16 +8786,16 @@
         <v>566</v>
       </c>
       <c r="C291" t="n">
-        <v>-2.90479187930904</v>
+        <v>-2.904791879309</v>
       </c>
       <c r="D291" t="n">
-        <v>0.000853102738850295</v>
+        <v>0.000853102738910103</v>
       </c>
       <c r="E291" t="n">
-        <v>-3.00861494827863</v>
+        <v>-3.00861494827894</v>
       </c>
       <c r="F291" t="n">
-        <v>0.00116814132917279</v>
+        <v>0.00116814132940656</v>
       </c>
     </row>
     <row r="292">
@@ -8806,16 +8806,16 @@
         <v>568</v>
       </c>
       <c r="C292" t="n">
-        <v>6.85588637389503</v>
+        <v>6.85588637389505</v>
       </c>
       <c r="D292" t="n">
-        <v>0.00950441151850174</v>
+        <v>0.00950441151889212</v>
       </c>
       <c r="E292" t="n">
-        <v>7.20092219367022</v>
+        <v>7.20092219367026</v>
       </c>
       <c r="F292" t="n">
-        <v>0.00287474606235388</v>
+        <v>0.00287474606257929</v>
       </c>
     </row>
     <row r="293">
@@ -8826,16 +8826,16 @@
         <v>570</v>
       </c>
       <c r="C293" t="n">
-        <v>0.740684004206309</v>
+        <v>0.740684004206319</v>
       </c>
       <c r="D293" t="n">
-        <v>0.0269246252053454</v>
+        <v>0.0269246252066973</v>
       </c>
       <c r="E293" t="n">
-        <v>0.892974393794375</v>
+        <v>0.892974393794539</v>
       </c>
       <c r="F293" t="n">
-        <v>0.0315499293726757</v>
+        <v>0.0315499293879716</v>
       </c>
     </row>
     <row r="294">
@@ -8846,16 +8846,16 @@
         <v>572</v>
       </c>
       <c r="C294" t="n">
-        <v>-1.23926791880011</v>
+        <v>-1.2392679188001</v>
       </c>
       <c r="D294" t="n">
-        <v>0.000072833767940767</v>
+        <v>0.0000728337679499024</v>
       </c>
       <c r="E294" t="n">
-        <v>-1.24086046144316</v>
+        <v>-1.24086046144345</v>
       </c>
       <c r="F294" t="n">
-        <v>0.000278660501152121</v>
+        <v>0.000278660501435101</v>
       </c>
     </row>
     <row r="295">
@@ -8866,16 +8866,16 @@
         <v>574</v>
       </c>
       <c r="C295" t="n">
-        <v>4.80324296404441</v>
+        <v>4.8032429640442</v>
       </c>
       <c r="D295" t="n">
-        <v>0.00075626713979205</v>
+        <v>0.000756267139846727</v>
       </c>
       <c r="E295" t="n">
-        <v>5.01528176816295</v>
+        <v>5.0152817681624</v>
       </c>
       <c r="F295" t="n">
-        <v>0.000125008028126382</v>
+        <v>0.000125008028292993</v>
       </c>
     </row>
     <row r="296">
@@ -8886,16 +8886,16 @@
         <v>576</v>
       </c>
       <c r="C296" t="n">
-        <v>-0.902101592229562</v>
+        <v>-0.902101592229556</v>
       </c>
       <c r="D296" t="n">
-        <v>0.00195815725000369</v>
+        <v>0.0019581572501461</v>
       </c>
       <c r="E296" t="n">
-        <v>-0.928979179316619</v>
+        <v>-0.928979179316681</v>
       </c>
       <c r="F296" t="n">
-        <v>0.000664163644882706</v>
+        <v>0.000664163645843303</v>
       </c>
     </row>
     <row r="297">
@@ -8906,16 +8906,16 @@
         <v>578</v>
       </c>
       <c r="C297" t="n">
-        <v>-1.09181426903163</v>
+        <v>-1.09181426903162</v>
       </c>
       <c r="D297" t="n">
-        <v>0.0127709847605627</v>
+        <v>0.0127709847612522</v>
       </c>
       <c r="E297" t="n">
-        <v>-1.28129090911537</v>
+        <v>-1.28129090911518</v>
       </c>
       <c r="F297" t="n">
-        <v>0.00592370077526094</v>
+        <v>0.00592370077749202</v>
       </c>
     </row>
     <row r="298">
@@ -8924,16 +8924,16 @@
       </c>
       <c r="B298"/>
       <c r="C298" t="n">
-        <v>-0.803544913053926</v>
+        <v>-0.803544913053916</v>
       </c>
       <c r="D298" t="n">
-        <v>0.00629799188805912</v>
+        <v>0.00629799188841205</v>
       </c>
       <c r="E298" t="n">
-        <v>-1.26988391877142</v>
+        <v>-1.26988391877135</v>
       </c>
       <c r="F298" t="n">
-        <v>0.000108240633596686</v>
+        <v>0.000108240633723636</v>
       </c>
     </row>
     <row r="299">
@@ -8944,16 +8944,16 @@
         <v>581</v>
       </c>
       <c r="C299" t="n">
-        <v>-0.943867639264059</v>
+        <v>-0.943867639264064</v>
       </c>
       <c r="D299" t="n">
-        <v>0.00000213057880235956</v>
+        <v>0.00000213057880260125</v>
       </c>
       <c r="E299" t="n">
-        <v>-1.47248086041598</v>
+        <v>-1.47248086041607</v>
       </c>
       <c r="F299" t="n">
-        <v>0.000000195399845584206</v>
+        <v>0.000000195399846090927</v>
       </c>
     </row>
     <row r="300">
@@ -8964,16 +8964,16 @@
         <v>583</v>
       </c>
       <c r="C300" t="n">
-        <v>-1.38196731448493</v>
+        <v>-1.38196731448492</v>
       </c>
       <c r="D300" t="n">
-        <v>0.00267348066846509</v>
+        <v>0.002673480668644</v>
       </c>
       <c r="E300" t="n">
-        <v>-1.3649964831706</v>
+        <v>-1.36499648317035</v>
       </c>
       <c r="F300" t="n">
-        <v>0.000911771510999462</v>
+        <v>0.000911771511618865</v>
       </c>
     </row>
     <row r="301">
@@ -8984,16 +8984,16 @@
         <v>585</v>
       </c>
       <c r="C301" t="n">
-        <v>1.19865803730706</v>
+        <v>1.19865803730707</v>
       </c>
       <c r="D301" t="n">
-        <v>0.0173198988737215</v>
+        <v>0.0173198988746471</v>
       </c>
       <c r="E301" t="n">
-        <v>1.30757595716942</v>
+        <v>1.30757595716957</v>
       </c>
       <c r="F301" t="n">
-        <v>0.00987375943212201</v>
+        <v>0.00987375943602402</v>
       </c>
     </row>
     <row r="302">
@@ -9004,16 +9004,16 @@
         <v>587</v>
       </c>
       <c r="C302" t="n">
-        <v>1.61303569842685</v>
+        <v>1.61303569842682</v>
       </c>
       <c r="D302" t="n">
-        <v>0.00252155349722819</v>
+        <v>0.00252155349739767</v>
       </c>
       <c r="E302" t="n">
-        <v>2.07036213423684</v>
+        <v>2.07036213423685</v>
       </c>
       <c r="F302" t="n">
-        <v>0.000168373293723932</v>
+        <v>0.000168373293810829</v>
       </c>
     </row>
     <row r="303">
@@ -9027,13 +9027,13 @@
         <v>1.14241843923889</v>
       </c>
       <c r="D303" t="n">
-        <v>0.00139931893180035</v>
+        <v>0.00139931893194052</v>
       </c>
       <c r="E303" t="n">
-        <v>1.22419639372923</v>
+        <v>1.22419639372932</v>
       </c>
       <c r="F303" t="n">
-        <v>0.00346602781760449</v>
+        <v>0.00346602781909805</v>
       </c>
     </row>
     <row r="304">
@@ -9044,16 +9044,16 @@
         <v>591</v>
       </c>
       <c r="C304" t="n">
-        <v>0.749694019163151</v>
+        <v>0.74969401916316</v>
       </c>
       <c r="D304" t="n">
-        <v>0.00237313807625583</v>
+        <v>0.00237313807648849</v>
       </c>
       <c r="E304" t="n">
-        <v>0.669266760629601</v>
+        <v>0.669266760629711</v>
       </c>
       <c r="F304" t="n">
-        <v>0.0320716563657973</v>
+        <v>0.0320716563889545</v>
       </c>
     </row>
     <row r="305">
@@ -9065,13 +9065,13 @@
         <v>1.06778313773859</v>
       </c>
       <c r="D305" t="n">
-        <v>0.00550010572045005</v>
+        <v>0.00550010572081556</v>
       </c>
       <c r="E305" t="n">
-        <v>1.13811524358051</v>
+        <v>1.13811524358038</v>
       </c>
       <c r="F305" t="n">
-        <v>0.00129569493009504</v>
+        <v>0.00129569493143536</v>
       </c>
     </row>
     <row r="306">
@@ -9085,13 +9085,13 @@
         <v>0.689724215502384</v>
       </c>
       <c r="D306" t="n">
-        <v>0.00747914296226986</v>
+        <v>0.00747914296276073</v>
       </c>
       <c r="E306" t="n">
-        <v>0.828452953487063</v>
+        <v>0.828452953487026</v>
       </c>
       <c r="F306" t="n">
-        <v>0.000360335101201907</v>
+        <v>0.0003603351019099</v>
       </c>
     </row>
     <row r="307">
@@ -9102,16 +9102,16 @@
         <v>596</v>
       </c>
       <c r="C307" t="n">
-        <v>-0.58608219974633</v>
+        <v>-0.586082199746329</v>
       </c>
       <c r="D307" t="n">
-        <v>0.00346520360806586</v>
+        <v>0.00346520360842594</v>
       </c>
       <c r="E307" t="n">
-        <v>-0.683378328226591</v>
+        <v>-0.68337832822645</v>
       </c>
       <c r="F307" t="n">
-        <v>0.00664319895357633</v>
+        <v>0.00664319895680063</v>
       </c>
     </row>
     <row r="308">
@@ -9122,16 +9122,16 @@
         <v>598</v>
       </c>
       <c r="C308" t="n">
-        <v>-0.622185495965474</v>
+        <v>-0.622185495965476</v>
       </c>
       <c r="D308" t="n">
-        <v>0.0188262548230873</v>
+        <v>0.0188262548241603</v>
       </c>
       <c r="E308" t="n">
-        <v>-0.830133726842308</v>
+        <v>-0.83013372684255</v>
       </c>
       <c r="F308" t="n">
-        <v>0.0319047864666381</v>
+        <v>0.0319047864782491</v>
       </c>
     </row>
     <row r="309">
@@ -9142,16 +9142,16 @@
         <v>600</v>
       </c>
       <c r="C309" t="n">
-        <v>1.55908670649268</v>
+        <v>1.55908670649265</v>
       </c>
       <c r="D309" t="n">
-        <v>0.0344460444164286</v>
+        <v>0.0344460444179748</v>
       </c>
       <c r="E309" t="n">
-        <v>2.42137148732222</v>
+        <v>2.42137148732212</v>
       </c>
       <c r="F309" t="n">
-        <v>0.00000176099402653504</v>
+        <v>0.00000176099402783682</v>
       </c>
     </row>
     <row r="310">
@@ -9162,16 +9162,16 @@
         <v>602</v>
       </c>
       <c r="C310" t="n">
-        <v>-1.89272706857048</v>
+        <v>-1.89272706857049</v>
       </c>
       <c r="D310" t="n">
-        <v>0.00000000000000181883318518707</v>
+        <v>0.00000000000000181883318597762</v>
       </c>
       <c r="E310" t="n">
-        <v>-1.01157305056798</v>
+        <v>-1.01157305056792</v>
       </c>
       <c r="F310" t="n">
-        <v>0.000682834961024099</v>
+        <v>0.000682834961866641</v>
       </c>
     </row>
     <row r="311">
@@ -9185,13 +9185,13 @@
         <v>1.21074434278575</v>
       </c>
       <c r="D311" t="n">
-        <v>0.000680684882355657</v>
+        <v>0.000680684882407228</v>
       </c>
       <c r="E311" t="n">
-        <v>1.4062630739222</v>
+        <v>1.40626307392211</v>
       </c>
       <c r="F311" t="n">
-        <v>0.000164669497947649</v>
+        <v>0.000164669498116227</v>
       </c>
     </row>
     <row r="312">
@@ -9205,13 +9205,13 @@
         <v>-1.58655788524942</v>
       </c>
       <c r="D312" t="n">
-        <v>0.0000000000000000000000000201500476950266</v>
+        <v>0.0000000000000000000000000201500477109049</v>
       </c>
       <c r="E312" t="n">
-        <v>-1.2966016876099</v>
+        <v>-1.29660168760996</v>
       </c>
       <c r="F312" t="n">
-        <v>0.000000122589835416691</v>
+        <v>0.000000122589835804013</v>
       </c>
     </row>
     <row r="313">
@@ -9225,13 +9225,13 @@
         <v>1.84628667956113</v>
       </c>
       <c r="D313" t="n">
-        <v>0.00000719957284521785</v>
+        <v>0.00000719957284600454</v>
       </c>
       <c r="E313" t="n">
-        <v>2.04056176348946</v>
+        <v>2.04056176348945</v>
       </c>
       <c r="F313" t="n">
-        <v>0.0000000063430513598617</v>
+        <v>0.00000000634305137093197</v>
       </c>
     </row>
     <row r="314">
@@ -9242,16 +9242,16 @@
         <v>610</v>
       </c>
       <c r="C314" t="n">
-        <v>-3.36092889086835</v>
+        <v>-3.36092889086833</v>
       </c>
       <c r="D314" t="n">
-        <v>0.00000353295388304873</v>
+        <v>0.00000353295388337968</v>
       </c>
       <c r="E314" t="n">
-        <v>-3.72373380878719</v>
+        <v>-3.72373380878817</v>
       </c>
       <c r="F314" t="n">
-        <v>0.000000111877671763246</v>
+        <v>0.000000111877671850143</v>
       </c>
     </row>
     <row r="315">
@@ -9262,16 +9262,16 @@
         <v>612</v>
       </c>
       <c r="C315" t="n">
-        <v>-0.976222712221685</v>
+        <v>-0.976222712221679</v>
       </c>
       <c r="D315" t="n">
-        <v>0.0348618725092992</v>
+        <v>0.0348618725109942</v>
       </c>
       <c r="E315" t="n">
-        <v>-1.47982154920889</v>
+        <v>-1.47982154920866</v>
       </c>
       <c r="F315" t="n">
-        <v>0.000758306325693915</v>
+        <v>0.000758306326155156</v>
       </c>
     </row>
     <row r="316">
@@ -9282,16 +9282,16 @@
         <v>614</v>
       </c>
       <c r="C316" t="n">
-        <v>1.80470819394993</v>
+        <v>1.80470819394995</v>
       </c>
       <c r="D316" t="n">
-        <v>0.00418302261756214</v>
+        <v>0.00418302261782796</v>
       </c>
       <c r="E316" t="n">
-        <v>1.76013180089655</v>
+        <v>1.7601318008967</v>
       </c>
       <c r="F316" t="n">
-        <v>0.00488999910892996</v>
+        <v>0.00488999911195873</v>
       </c>
     </row>
     <row r="317">
@@ -9302,16 +9302,16 @@
         <v>616</v>
       </c>
       <c r="C317" t="n">
-        <v>0.520194478814641</v>
+        <v>0.520194478814636</v>
       </c>
       <c r="D317" t="n">
-        <v>0.0475914396599317</v>
+        <v>0.0475914396620529</v>
       </c>
       <c r="E317" t="n">
-        <v>0.761662006997022</v>
+        <v>0.761662006997057</v>
       </c>
       <c r="F317" t="n">
-        <v>0.025666500320778</v>
+        <v>0.0256665003376466</v>
       </c>
     </row>
     <row r="318">
@@ -9325,13 +9325,13 @@
         <v>0.596499589232951</v>
       </c>
       <c r="D318" t="n">
-        <v>0.000990634054239639</v>
+        <v>0.000990634054378262</v>
       </c>
       <c r="E318" t="n">
-        <v>0.613685102934617</v>
+        <v>0.613685102934544</v>
       </c>
       <c r="F318" t="n">
-        <v>0.0260109603218201</v>
+        <v>0.0260109603463997</v>
       </c>
     </row>
     <row r="319">
@@ -9342,16 +9342,16 @@
         <v>620</v>
       </c>
       <c r="C319" t="n">
-        <v>1.56683076510219</v>
+        <v>1.5668307651022</v>
       </c>
       <c r="D319" t="n">
-        <v>0.0272227951478788</v>
+        <v>0.0272227951489229</v>
       </c>
       <c r="E319" t="n">
-        <v>1.80805644727422</v>
+        <v>1.80805644727434</v>
       </c>
       <c r="F319" t="n">
-        <v>0.0130774960378327</v>
+        <v>0.0130774960405906</v>
       </c>
     </row>
     <row r="320">
@@ -9365,13 +9365,13 @@
         <v>1.25618163077091</v>
       </c>
       <c r="D320" t="n">
-        <v>0.00425728933594562</v>
+        <v>0.00425728933622849</v>
       </c>
       <c r="E320" t="n">
-        <v>1.05576245151626</v>
+        <v>1.05576245151613</v>
       </c>
       <c r="F320" t="n">
-        <v>0.0396136902965564</v>
+        <v>0.0396136903017736</v>
       </c>
     </row>
     <row r="321">
@@ -9385,13 +9385,13 @@
         <v>1.48424298594862</v>
       </c>
       <c r="D321" t="n">
-        <v>0.000244204765264289</v>
+        <v>0.000244204765287589</v>
       </c>
       <c r="E321" t="n">
-        <v>1.83550748159566</v>
+        <v>1.83550748159576</v>
       </c>
       <c r="F321" t="n">
-        <v>0.0000206542563514148</v>
+        <v>0.0000206542563696293</v>
       </c>
     </row>
     <row r="322">
@@ -9402,16 +9402,16 @@
         <v>626</v>
       </c>
       <c r="C322" t="n">
-        <v>-0.818545794688999</v>
+        <v>-0.81854579468901</v>
       </c>
       <c r="D322" t="n">
-        <v>0.0490042136146815</v>
+        <v>0.0490042136166491</v>
       </c>
       <c r="E322" t="n">
-        <v>-1.43059005081638</v>
+        <v>-1.43059005081639</v>
       </c>
       <c r="F322" t="n">
-        <v>0.000362999034023776</v>
+        <v>0.000362999034316396</v>
       </c>
     </row>
     <row r="323">
@@ -9422,16 +9422,16 @@
         <v>628</v>
       </c>
       <c r="C323" t="n">
-        <v>0.893399394578755</v>
+        <v>0.893399394578766</v>
       </c>
       <c r="D323" t="n">
-        <v>0.00996882585811822</v>
+        <v>0.00996882585877147</v>
       </c>
       <c r="E323" t="n">
-        <v>1.17633034165509</v>
+        <v>1.17633034165525</v>
       </c>
       <c r="F323" t="n">
-        <v>0.00533643012496007</v>
+        <v>0.00533643012798967</v>
       </c>
     </row>
     <row r="324">
@@ -9440,16 +9440,16 @@
       </c>
       <c r="B324"/>
       <c r="C324" t="n">
-        <v>-0.969681135505451</v>
+        <v>-0.969681135505435</v>
       </c>
       <c r="D324" t="n">
-        <v>0.0112823775247367</v>
+        <v>0.0112823775253211</v>
       </c>
       <c r="E324" t="n">
-        <v>-0.814833959665265</v>
+        <v>-0.814833959665377</v>
       </c>
       <c r="F324" t="n">
-        <v>0.0260109603218201</v>
+        <v>0.0260109603463997</v>
       </c>
     </row>
     <row r="325">
@@ -9460,16 +9460,16 @@
         <v>631</v>
       </c>
       <c r="C325" t="n">
-        <v>0.820220843555255</v>
+        <v>0.820220843555254</v>
       </c>
       <c r="D325" t="n">
-        <v>0.00306357474467814</v>
+        <v>0.00306357474495533</v>
       </c>
       <c r="E325" t="n">
-        <v>0.99041353592219</v>
+        <v>0.990413535922245</v>
       </c>
       <c r="F325" t="n">
-        <v>0.00040082737922351</v>
+        <v>0.000400827379775654</v>
       </c>
     </row>
     <row r="326">
@@ -9480,16 +9480,16 @@
         <v>633</v>
       </c>
       <c r="C326" t="n">
-        <v>0.820347687118403</v>
+        <v>0.820347687118398</v>
       </c>
       <c r="D326" t="n">
-        <v>0.00334370728937694</v>
+        <v>0.00334370728960102</v>
       </c>
       <c r="E326" t="n">
-        <v>0.651711166000194</v>
+        <v>0.651711166000182</v>
       </c>
       <c r="F326" t="n">
-        <v>0.0402670318951189</v>
+        <v>0.0402670319080213</v>
       </c>
     </row>
     <row r="327">
@@ -9500,16 +9500,16 @@
         <v>635</v>
       </c>
       <c r="C327" t="n">
-        <v>1.39022995018013</v>
+        <v>1.39022995018014</v>
       </c>
       <c r="D327" t="n">
-        <v>0.000935860522067778</v>
+        <v>0.000935860522144285</v>
       </c>
       <c r="E327" t="n">
         <v>1.49644078228372</v>
       </c>
       <c r="F327" t="n">
-        <v>0.00346602781760449</v>
+        <v>0.00346602781909805</v>
       </c>
     </row>
     <row r="328">
@@ -9520,16 +9520,16 @@
         <v>637</v>
       </c>
       <c r="C328" t="n">
-        <v>1.5077251648534</v>
+        <v>1.50772516485341</v>
       </c>
       <c r="D328" t="n">
-        <v>0.00556987298484669</v>
+        <v>0.00556987298515069</v>
       </c>
       <c r="E328" t="n">
-        <v>1.63379163181427</v>
+        <v>1.63379163181441</v>
       </c>
       <c r="F328" t="n">
-        <v>0.000470529677069494</v>
+        <v>0.00047052967746617</v>
       </c>
     </row>
     <row r="329">
@@ -9540,16 +9540,16 @@
         <v>639</v>
       </c>
       <c r="C329" t="n">
-        <v>0.77749464142421</v>
+        <v>0.777494641424204</v>
       </c>
       <c r="D329" t="n">
-        <v>0.000302810554763994</v>
+        <v>0.000302810554801103</v>
       </c>
       <c r="E329" t="n">
-        <v>0.629417411782906</v>
+        <v>0.629417411782824</v>
       </c>
       <c r="F329" t="n">
-        <v>0.0238515205063869</v>
+        <v>0.023851520528616</v>
       </c>
     </row>
     <row r="330">
@@ -9560,16 +9560,16 @@
         <v>641</v>
       </c>
       <c r="C330" t="n">
-        <v>0.813106747511484</v>
+        <v>0.813106747511481</v>
       </c>
       <c r="D330" t="n">
-        <v>0.00505147867260164</v>
+        <v>0.00505147867292962</v>
       </c>
       <c r="E330" t="n">
-        <v>1.39785655363014</v>
+        <v>1.39785655363028</v>
       </c>
       <c r="F330" t="n">
-        <v>0.000270257068449263</v>
+        <v>0.000270257068603255</v>
       </c>
     </row>
     <row r="331">
@@ -9580,16 +9580,16 @@
         <v>643</v>
       </c>
       <c r="C331" t="n">
-        <v>1.08534094504735</v>
+        <v>1.08534094504734</v>
       </c>
       <c r="D331" t="n">
-        <v>0.0311773023132316</v>
+        <v>0.0311773023147072</v>
       </c>
       <c r="E331" t="n">
-        <v>1.32967190909138</v>
+        <v>1.32967190909148</v>
       </c>
       <c r="F331" t="n">
-        <v>0.0377820338851268</v>
+        <v>0.0377820338898057</v>
       </c>
     </row>
     <row r="332">
@@ -9598,16 +9598,16 @@
       </c>
       <c r="B332"/>
       <c r="C332" t="n">
-        <v>1.53271794325117</v>
+        <v>1.53271794325116</v>
       </c>
       <c r="D332" t="n">
-        <v>0.00965151622877805</v>
+        <v>0.009651516229349</v>
       </c>
       <c r="E332" t="n">
-        <v>2.30534584072406</v>
+        <v>2.30534584072398</v>
       </c>
       <c r="F332" t="n">
-        <v>0.000000870243936456556</v>
+        <v>0.000000870243937213321</v>
       </c>
     </row>
     <row r="333">
@@ -9618,16 +9618,16 @@
         <v>646</v>
       </c>
       <c r="C333" t="n">
-        <v>0.739188474673819</v>
+        <v>0.73918847467381</v>
       </c>
       <c r="D333" t="n">
-        <v>0.00267348066846509</v>
+        <v>0.002673480668644</v>
       </c>
       <c r="E333" t="n">
-        <v>1.00371649664522</v>
+        <v>1.00371649664508</v>
       </c>
       <c r="F333" t="n">
-        <v>0.00252626620404165</v>
+        <v>0.00252626620638353</v>
       </c>
     </row>
     <row r="334">
@@ -9638,16 +9638,16 @@
         <v>648</v>
       </c>
       <c r="C334" t="n">
-        <v>0.827298013988854</v>
+        <v>0.827298013988851</v>
       </c>
       <c r="D334" t="n">
-        <v>0.0183534198939876</v>
+        <v>0.0183534198949249</v>
       </c>
       <c r="E334" t="n">
-        <v>1.45385772210705</v>
+        <v>1.45385772210715</v>
       </c>
       <c r="F334" t="n">
-        <v>0.000371886579773582</v>
+        <v>0.000371886580244753</v>
       </c>
     </row>
     <row r="335">
@@ -9658,16 +9658,16 @@
         <v>650</v>
       </c>
       <c r="C335" t="n">
-        <v>0.905510844685193</v>
+        <v>0.905510844685202</v>
       </c>
       <c r="D335" t="n">
-        <v>0.00834694943595662</v>
+        <v>0.00834694943648342</v>
       </c>
       <c r="E335" t="n">
-        <v>1.06005703640434</v>
+        <v>1.0600570364045</v>
       </c>
       <c r="F335" t="n">
-        <v>0.0113456085687284</v>
+        <v>0.0113456085747808</v>
       </c>
     </row>
     <row r="336">
@@ -9678,16 +9678,16 @@
         <v>652</v>
       </c>
       <c r="C336" t="n">
-        <v>0.908168317667018</v>
+        <v>0.90816831766703</v>
       </c>
       <c r="D336" t="n">
-        <v>0.0217785274717699</v>
+        <v>0.0217785274730792</v>
       </c>
       <c r="E336" t="n">
-        <v>1.14225754281411</v>
+        <v>1.14225754281429</v>
       </c>
       <c r="F336" t="n">
-        <v>0.00761668710780448</v>
+        <v>0.00761668711159601</v>
       </c>
     </row>
     <row r="337">
@@ -9698,16 +9698,16 @@
         <v>654</v>
       </c>
       <c r="C337" t="n">
-        <v>2.34436466305751</v>
+        <v>2.34436466305755</v>
       </c>
       <c r="D337" t="n">
-        <v>0.00000688558999426802</v>
+        <v>0.00000688558999518244</v>
       </c>
       <c r="E337" t="n">
-        <v>2.33028498209718</v>
+        <v>2.33028498209719</v>
       </c>
       <c r="F337" t="n">
-        <v>0.000627477795385578</v>
+        <v>0.000627477795588383</v>
       </c>
     </row>
     <row r="338">
@@ -9716,16 +9716,16 @@
       </c>
       <c r="B338"/>
       <c r="C338" t="n">
-        <v>-0.806626087216821</v>
+        <v>-0.806626087216828</v>
       </c>
       <c r="D338" t="n">
-        <v>0.00067958159852993</v>
+        <v>0.000679581598585086</v>
       </c>
       <c r="E338" t="n">
-        <v>-0.926934482795986</v>
+        <v>-0.926934482795995</v>
       </c>
       <c r="F338" t="n">
-        <v>0.00219242280488293</v>
+        <v>0.00219242280535846</v>
       </c>
     </row>
     <row r="339">
@@ -9736,16 +9736,16 @@
         <v>657</v>
       </c>
       <c r="C339" t="n">
-        <v>1.22426017431263</v>
+        <v>1.22426017431262</v>
       </c>
       <c r="D339" t="n">
-        <v>0.011890975581394</v>
+        <v>0.0118909755820519</v>
       </c>
       <c r="E339" t="n">
-        <v>1.60283404146816</v>
+        <v>1.60283404146824</v>
       </c>
       <c r="F339" t="n">
-        <v>0.00441996553040487</v>
+        <v>0.00441996553159178</v>
       </c>
     </row>
     <row r="340">
@@ -9756,16 +9756,16 @@
         <v>659</v>
       </c>
       <c r="C340" t="n">
-        <v>2.44080898088473</v>
+        <v>2.44080898088477</v>
       </c>
       <c r="D340" t="n">
-        <v>0.0000309000364049209</v>
+        <v>0.0000309000364076065</v>
       </c>
       <c r="E340" t="n">
-        <v>2.48043903170935</v>
+        <v>2.48043903170958</v>
       </c>
       <c r="F340" t="n">
-        <v>0.0000664839692651043</v>
+        <v>0.000066483969298639</v>
       </c>
     </row>
     <row r="341">
@@ -9776,16 +9776,16 @@
         <v>661</v>
       </c>
       <c r="C341" t="n">
-        <v>1.04108737661462</v>
+        <v>1.04108737661461</v>
       </c>
       <c r="D341" t="n">
-        <v>0.00111180994388104</v>
+        <v>0.00111180994401874</v>
       </c>
       <c r="E341" t="n">
-        <v>1.53157009560406</v>
+        <v>1.53157009560413</v>
       </c>
       <c r="F341" t="n">
-        <v>0.000229758467346003</v>
+        <v>0.000229758467547776</v>
       </c>
     </row>
     <row r="342">
@@ -9796,16 +9796,16 @@
         <v>663</v>
       </c>
       <c r="C342" t="n">
-        <v>1.47327847843505</v>
+        <v>1.47327847843507</v>
       </c>
       <c r="D342" t="n">
-        <v>0.007318521768671</v>
+        <v>0.00731852176915451</v>
       </c>
       <c r="E342" t="n">
-        <v>1.88322185122256</v>
+        <v>1.88322185122274</v>
       </c>
       <c r="F342" t="n">
-        <v>0.0024309561988226</v>
+        <v>0.0024309561995972</v>
       </c>
     </row>
     <row r="343">
@@ -9819,13 +9819,13 @@
         <v>1.17722390826419</v>
       </c>
       <c r="D343" t="n">
-        <v>0.0441981647779867</v>
+        <v>0.0441981647792764</v>
       </c>
       <c r="E343" t="n">
-        <v>1.25359797215657</v>
+        <v>1.25359797215667</v>
       </c>
       <c r="F343" t="n">
-        <v>0.0107718227012051</v>
+        <v>0.0107718227057588</v>
       </c>
     </row>
     <row r="344">
@@ -9836,16 +9836,16 @@
         <v>667</v>
       </c>
       <c r="C344" t="n">
-        <v>-0.715295482154114</v>
+        <v>-0.71529548215412</v>
       </c>
       <c r="D344" t="n">
-        <v>0.0124114958620177</v>
+        <v>0.0124114958628704</v>
       </c>
       <c r="E344" t="n">
-        <v>-0.913193472961754</v>
+        <v>-0.913193472961899</v>
       </c>
       <c r="F344" t="n">
-        <v>0.00219242280488293</v>
+        <v>0.00219242280535846</v>
       </c>
     </row>
     <row r="345">
@@ -9859,13 +9859,13 @@
         <v>1.80922522077173</v>
       </c>
       <c r="D345" t="n">
-        <v>0.00000354464439168954</v>
+        <v>0.00000354464439221162</v>
       </c>
       <c r="E345" t="n">
-        <v>1.17332864563281</v>
+        <v>1.17332864563295</v>
       </c>
       <c r="F345" t="n">
-        <v>0.0352284093298575</v>
+        <v>0.0352284093396172</v>
       </c>
     </row>
     <row r="346">
@@ -9876,16 +9876,16 @@
         <v>671</v>
       </c>
       <c r="C346" t="n">
-        <v>-0.804273136186322</v>
+        <v>-0.804273136186315</v>
       </c>
       <c r="D346" t="n">
-        <v>0.0259204887258855</v>
+        <v>0.0259204887272599</v>
       </c>
       <c r="E346" t="n">
-        <v>-1.0260481575529</v>
+        <v>-1.02604815755297</v>
       </c>
       <c r="F346" t="n">
-        <v>0.00129569493009504</v>
+        <v>0.00129569493143536</v>
       </c>
     </row>
     <row r="347">
@@ -9896,16 +9896,16 @@
         <v>673</v>
       </c>
       <c r="C347" t="n">
-        <v>-0.536112266600233</v>
+        <v>-0.536112266600231</v>
       </c>
       <c r="D347" t="n">
-        <v>0.00363777163499252</v>
+        <v>0.00363777163537086</v>
       </c>
       <c r="E347" t="n">
-        <v>-0.663900954672848</v>
+        <v>-0.663900954672942</v>
       </c>
       <c r="F347" t="n">
-        <v>0.0342072712043595</v>
+        <v>0.0342072712315253</v>
       </c>
     </row>
     <row r="348">
@@ -9919,13 +9919,13 @@
         <v>-1.86875262108358</v>
       </c>
       <c r="D348" t="n">
-        <v>0.0000000000000000000000000000000177046523572743</v>
+        <v>0.0000000000000000000000000000000177046523748744</v>
       </c>
       <c r="E348" t="n">
-        <v>-2.56560114681747</v>
+        <v>-2.56560114681776</v>
       </c>
       <c r="F348" t="n">
-        <v>0.0000000000000000000000000000000000000014959357685248</v>
+        <v>0.00000000000000000000000000000000000000149593579482182</v>
       </c>
     </row>
     <row r="349">
@@ -9936,16 +9936,16 @@
         <v>677</v>
       </c>
       <c r="C349" t="n">
-        <v>-1.66827588860615</v>
+        <v>-1.66827588860614</v>
       </c>
       <c r="D349" t="n">
-        <v>0.00000772057802362103</v>
+        <v>0.00000772057802461999</v>
       </c>
       <c r="E349" t="n">
-        <v>-2.71122235197931</v>
+        <v>-2.71122235197988</v>
       </c>
       <c r="F349" t="n">
-        <v>0.00000000000201275748653493</v>
+        <v>0.00000000000201275749048921</v>
       </c>
     </row>
     <row r="350">
@@ -9956,16 +9956,16 @@
         <v>679</v>
       </c>
       <c r="C350" t="n">
-        <v>2.45981517984019</v>
+        <v>2.4598151798402</v>
       </c>
       <c r="D350" t="n">
-        <v>0.000179543650190875</v>
+        <v>0.000179543650190881</v>
       </c>
       <c r="E350" t="n">
-        <v>2.54669421323309</v>
+        <v>2.54669421323308</v>
       </c>
       <c r="F350" t="n">
-        <v>0.000566999863704954</v>
+        <v>0.000566999863704889</v>
       </c>
     </row>
     <row r="351">
@@ -9976,16 +9976,16 @@
         <v>681</v>
       </c>
       <c r="C351" t="n">
-        <v>0.872159378882833</v>
+        <v>0.87215937888284</v>
       </c>
       <c r="D351" t="n">
-        <v>0.000584169183822156</v>
+        <v>0.000584169183888582</v>
       </c>
       <c r="E351" t="n">
-        <v>0.866229603432997</v>
+        <v>0.866229603432933</v>
       </c>
       <c r="F351" t="n">
-        <v>0.013262206629958</v>
+        <v>0.0132622066389639</v>
       </c>
     </row>
     <row r="352">
@@ -9996,16 +9996,16 @@
         <v>683</v>
       </c>
       <c r="C352" t="n">
-        <v>-0.969683460649621</v>
+        <v>-0.969683460649612</v>
       </c>
       <c r="D352" t="n">
-        <v>0.000000085898971636496</v>
+        <v>0.0000000858989716559704</v>
       </c>
       <c r="E352" t="n">
-        <v>-0.903572918947443</v>
+        <v>-0.903572918947495</v>
       </c>
       <c r="F352" t="n">
-        <v>0.0000133887576447456</v>
+        <v>0.0000133887576854507</v>
       </c>
     </row>
     <row r="353">
@@ -10019,13 +10019,13 @@
         <v>-1.52381244246902</v>
       </c>
       <c r="D353" t="n">
-        <v>0.0000000012111772943066</v>
+        <v>0.00000000121117729458593</v>
       </c>
       <c r="E353" t="n">
-        <v>-1.75705153354595</v>
+        <v>-1.75705153354568</v>
       </c>
       <c r="F353" t="n">
-        <v>0.0000000366410178074942</v>
+        <v>0.0000000366410178820893</v>
       </c>
     </row>
     <row r="354">
@@ -10036,16 +10036,16 @@
         <v>687</v>
       </c>
       <c r="C354" t="n">
-        <v>0.789655169357628</v>
+        <v>0.789655169357626</v>
       </c>
       <c r="D354" t="n">
-        <v>0.00544895259283339</v>
+        <v>0.00544895259323099</v>
       </c>
       <c r="E354" t="n">
-        <v>0.707935489527444</v>
+        <v>0.707935489527343</v>
       </c>
       <c r="F354" t="n">
-        <v>0.0311616042649832</v>
+        <v>0.0311616042858589</v>
       </c>
     </row>
     <row r="355">
@@ -10056,16 +10056,16 @@
         <v>689</v>
       </c>
       <c r="C355" t="n">
-        <v>-0.751137225400092</v>
+        <v>-0.751137225400093</v>
       </c>
       <c r="D355" t="n">
-        <v>0.00696138345525774</v>
+        <v>0.00696138345581853</v>
       </c>
       <c r="E355" t="n">
-        <v>-0.731587061775695</v>
+        <v>-0.73158706177587</v>
       </c>
       <c r="F355" t="n">
-        <v>0.0335875449025717</v>
+        <v>0.0335875449228589</v>
       </c>
     </row>
     <row r="356">
@@ -10076,16 +10076,16 @@
         <v>691</v>
       </c>
       <c r="C356" t="n">
-        <v>-0.998943743782137</v>
+        <v>-0.99894374378214</v>
       </c>
       <c r="D356" t="n">
-        <v>0.00495262193355801</v>
+        <v>0.00495262193387662</v>
       </c>
       <c r="E356" t="n">
-        <v>-0.964632676931209</v>
+        <v>-0.964632676931177</v>
       </c>
       <c r="F356" t="n">
-        <v>0.00526693867859691</v>
+        <v>0.00526693868254749</v>
       </c>
     </row>
     <row r="357">
@@ -10096,16 +10096,16 @@
         <v>693</v>
       </c>
       <c r="C357" t="n">
-        <v>0.808500487439306</v>
+        <v>0.808500487439309</v>
       </c>
       <c r="D357" t="n">
-        <v>0.0145297143414149</v>
+        <v>0.0145297143421954</v>
       </c>
       <c r="E357" t="n">
-        <v>1.08870963355771</v>
+        <v>1.08870963355783</v>
       </c>
       <c r="F357" t="n">
-        <v>0.000470529677069494</v>
+        <v>0.00047052967746617</v>
       </c>
     </row>
     <row r="358">
@@ -10116,16 +10116,16 @@
         <v>695</v>
       </c>
       <c r="C358" t="n">
-        <v>2.52686162887024</v>
+        <v>2.52686162887019</v>
       </c>
       <c r="D358" t="n">
-        <v>0.00371809049081451</v>
+        <v>0.00371809049103196</v>
       </c>
       <c r="E358" t="n">
-        <v>2.54020994137577</v>
+        <v>2.54020994137557</v>
       </c>
       <c r="F358" t="n">
-        <v>0.0033078305511702</v>
+        <v>0.0033078305518481</v>
       </c>
     </row>
     <row r="359">
@@ -10136,16 +10136,16 @@
         <v>697</v>
       </c>
       <c r="C359" t="n">
-        <v>-1.85781458790999</v>
+        <v>-1.85781458790997</v>
       </c>
       <c r="D359" t="n">
-        <v>0.000420628540778122</v>
+        <v>0.000420628540817159</v>
       </c>
       <c r="E359" t="n">
-        <v>-1.85235117830753</v>
+        <v>-1.85235117830774</v>
       </c>
       <c r="F359" t="n">
-        <v>0.000263781971877956</v>
+        <v>0.000263781972015556</v>
       </c>
     </row>
     <row r="360">
@@ -10159,13 +10159,13 @@
         <v>6.36173172807174</v>
       </c>
       <c r="D360" t="n">
-        <v>0.00441780211920437</v>
+        <v>0.00441780211937813</v>
       </c>
       <c r="E360" t="n">
-        <v>6.97328751273421</v>
+        <v>6.97328751273429</v>
       </c>
       <c r="F360" t="n">
-        <v>0.000416640351276635</v>
+        <v>0.00041664035131274</v>
       </c>
     </row>
     <row r="361">
@@ -10176,16 +10176,16 @@
         <v>701</v>
       </c>
       <c r="C361" t="n">
-        <v>0.901144675651893</v>
+        <v>0.901144675651883</v>
       </c>
       <c r="D361" t="n">
-        <v>0.000072833767940767</v>
+        <v>0.0000728337679499024</v>
       </c>
       <c r="E361" t="n">
-        <v>1.10857536941916</v>
+        <v>1.1085753694192</v>
       </c>
       <c r="F361" t="n">
-        <v>0.000107786014614401</v>
+        <v>0.000107786014789058</v>
       </c>
     </row>
     <row r="362">
@@ -10196,16 +10196,16 @@
         <v>703</v>
       </c>
       <c r="C362" t="n">
-        <v>1.27380679942693</v>
+        <v>1.27380679942694</v>
       </c>
       <c r="D362" t="n">
-        <v>0.00000979469521832669</v>
+        <v>0.00000979469521954869</v>
       </c>
       <c r="E362" t="n">
-        <v>1.06962362736554</v>
+        <v>1.06962362736561</v>
       </c>
       <c r="F362" t="n">
-        <v>0.00370799859710975</v>
+        <v>0.00370799859989129</v>
       </c>
     </row>
     <row r="363">
@@ -10219,13 +10219,13 @@
         <v>1.66562036588216</v>
       </c>
       <c r="D363" t="n">
-        <v>0.0137898811396522</v>
+        <v>0.0137898811404612</v>
       </c>
       <c r="E363" t="n">
-        <v>2.31371384000653</v>
+        <v>2.31371384000647</v>
       </c>
       <c r="F363" t="n">
-        <v>0.0000116137133745988</v>
+        <v>0.0000116137133817851</v>
       </c>
     </row>
     <row r="364">
@@ -10237,13 +10237,13 @@
         <v>1.57500609622981</v>
       </c>
       <c r="D364" t="n">
-        <v>0.00000000000000110433354486756</v>
+        <v>0.00000000000000110433354519965</v>
       </c>
       <c r="E364" t="n">
-        <v>1.58696028228109</v>
+        <v>1.58696028228112</v>
       </c>
       <c r="F364" t="n">
-        <v>0.00000000037713509388889</v>
+        <v>0.000000000377135095220035</v>
       </c>
     </row>
     <row r="365">
@@ -10254,16 +10254,16 @@
         <v>708</v>
       </c>
       <c r="C365" t="n">
-        <v>-2.08732390110255</v>
+        <v>-2.08732390110252</v>
       </c>
       <c r="D365" t="n">
-        <v>0.0000000745573497078465</v>
+        <v>0.0000000745573497220897</v>
       </c>
       <c r="E365" t="n">
-        <v>-2.80054983065721</v>
+        <v>-2.8005498306578</v>
       </c>
       <c r="F365" t="n">
-        <v>0.00000000624141194496241</v>
+        <v>0.00000000624141195181356</v>
       </c>
     </row>
     <row r="366">
@@ -10277,13 +10277,13 @@
         <v>-1.52399661561992</v>
       </c>
       <c r="D366" t="n">
-        <v>0.00000483824423315694</v>
+        <v>0.00000483824423386014</v>
       </c>
       <c r="E366" t="n">
-        <v>-0.996818444457059</v>
+        <v>-0.996818444457317</v>
       </c>
       <c r="F366" t="n">
-        <v>0.0210885401077312</v>
+        <v>0.0210885401170577</v>
       </c>
     </row>
     <row r="367">
@@ -10294,16 +10294,16 @@
         <v>712</v>
       </c>
       <c r="C367" t="n">
-        <v>-1.03576276617024</v>
+        <v>-1.03576276617025</v>
       </c>
       <c r="D367" t="n">
-        <v>0.000000856305471737818</v>
+        <v>0.000000856305471889115</v>
       </c>
       <c r="E367" t="n">
-        <v>-1.05856457498328</v>
+        <v>-1.05856457498336</v>
       </c>
       <c r="F367" t="n">
-        <v>0.000885216978200869</v>
+        <v>0.00088521697924715</v>
       </c>
     </row>
     <row r="368">
@@ -10314,16 +10314,16 @@
         <v>714</v>
       </c>
       <c r="C368" t="n">
-        <v>-0.887130543615392</v>
+        <v>-0.887130543615388</v>
       </c>
       <c r="D368" t="n">
-        <v>0.0000419967494516893</v>
+        <v>0.0000419967494576171</v>
       </c>
       <c r="E368" t="n">
-        <v>-1.07590094936524</v>
+        <v>-1.07590094936523</v>
       </c>
       <c r="F368" t="n">
-        <v>0.000220424470774987</v>
+        <v>0.000220424471097373</v>
       </c>
     </row>
     <row r="369">
@@ -10334,16 +10334,16 @@
         <v>716</v>
       </c>
       <c r="C369" t="n">
-        <v>-0.831680759334474</v>
+        <v>-0.83168075933447</v>
       </c>
       <c r="D369" t="n">
-        <v>0.0000000838461340531815</v>
+        <v>0.0000000838461340764502</v>
       </c>
       <c r="E369" t="n">
-        <v>-1.50544805132571</v>
+        <v>-1.50544805132566</v>
       </c>
       <c r="F369" t="n">
-        <v>0.00000000000000977989200507364</v>
+        <v>0.00000000000000977989207758786</v>
       </c>
     </row>
     <row r="370">
@@ -10354,16 +10354,16 @@
         <v>718</v>
       </c>
       <c r="C370" t="n">
-        <v>0.692846423833626</v>
+        <v>0.692846423833621</v>
       </c>
       <c r="D370" t="n">
-        <v>0.0313122679774735</v>
+        <v>0.0313122679790672</v>
       </c>
       <c r="E370" t="n">
-        <v>0.767573729743343</v>
+        <v>0.767573729743367</v>
       </c>
       <c r="F370" t="n">
-        <v>0.0445148634394297</v>
+        <v>0.0445148634617828</v>
       </c>
     </row>
     <row r="371">
@@ -10374,16 +10374,16 @@
         <v>720</v>
       </c>
       <c r="C371" t="n">
-        <v>-2.20861890032908</v>
+        <v>-2.20861890032907</v>
       </c>
       <c r="D371" t="n">
-        <v>0.00000000225736619036063</v>
+        <v>0.00000000225736619085293</v>
       </c>
       <c r="E371" t="n">
         <v>-1.77746798279938</v>
       </c>
       <c r="F371" t="n">
-        <v>0.0000559104001270926</v>
+        <v>0.0000559104001695877</v>
       </c>
     </row>
     <row r="372">
@@ -10394,16 +10394,16 @@
         <v>722</v>
       </c>
       <c r="C372" t="n">
-        <v>-1.17845922070849</v>
+        <v>-1.17845922070848</v>
       </c>
       <c r="D372" t="n">
-        <v>0.00441780211920437</v>
+        <v>0.00441780211937813</v>
       </c>
       <c r="E372" t="n">
-        <v>-1.10811865556086</v>
+        <v>-1.10811865556085</v>
       </c>
       <c r="F372" t="n">
-        <v>0.00980419273193773</v>
+        <v>0.00980419273661376</v>
       </c>
     </row>
     <row r="373">
@@ -10417,7 +10417,7 @@
         <v>1.26297421882888</v>
       </c>
       <c r="D373" t="n">
-        <v>0.000000142423821960408</v>
+        <v>0.000000142423821983902</v>
       </c>
       <c r="E373" t="n">
         <v>1.95342450472989</v>
@@ -10437,13 +10437,13 @@
         <v>1.44449281085301</v>
       </c>
       <c r="D374" t="n">
-        <v>0.0386531791445995</v>
+        <v>0.0386531791463968</v>
       </c>
       <c r="E374" t="n">
-        <v>2.89628295340836</v>
+        <v>2.89628295340846</v>
       </c>
       <c r="F374" t="n">
-        <v>0.000000307666966030663</v>
+        <v>0.000000307666966250004</v>
       </c>
     </row>
     <row r="375">
@@ -10454,16 +10454,16 @@
         <v>728</v>
       </c>
       <c r="C375" t="n">
-        <v>0.627118105008679</v>
+        <v>0.627118105008681</v>
       </c>
       <c r="D375" t="n">
-        <v>0.00288785301310841</v>
+        <v>0.00288785301335733</v>
       </c>
       <c r="E375" t="n">
-        <v>0.636823993338611</v>
+        <v>0.636823993338601</v>
       </c>
       <c r="F375" t="n">
-        <v>0.0465344912544172</v>
+        <v>0.0465344912658725</v>
       </c>
     </row>
     <row r="376">
@@ -10474,16 +10474,16 @@
         <v>730</v>
       </c>
       <c r="C376" t="n">
-        <v>1.19349369659551</v>
+        <v>1.19349369659549</v>
       </c>
       <c r="D376" t="n">
-        <v>0.00000114476208120555</v>
+        <v>0.00000114476208140716</v>
       </c>
       <c r="E376" t="n">
-        <v>1.32401548274763</v>
+        <v>1.32401548274765</v>
       </c>
       <c r="F376" t="n">
-        <v>0.000000198137327578086</v>
+        <v>0.000000198137328087418</v>
       </c>
     </row>
     <row r="377">
@@ -10497,13 +10497,13 @@
         <v>1.88273774884563</v>
       </c>
       <c r="D377" t="n">
-        <v>0.00816994321246474</v>
+        <v>0.00816994321293069</v>
       </c>
       <c r="E377" t="n">
-        <v>2.04780831650511</v>
+        <v>2.04780831650515</v>
       </c>
       <c r="F377" t="n">
-        <v>0.00231007000925816</v>
+        <v>0.00231007000981473</v>
       </c>
     </row>
     <row r="378">
@@ -10514,16 +10514,16 @@
         <v>734</v>
       </c>
       <c r="C378" t="n">
-        <v>0.718856536730781</v>
+        <v>0.718856536730767</v>
       </c>
       <c r="D378" t="n">
-        <v>0.0387402330882367</v>
+        <v>0.0387402330899687</v>
       </c>
       <c r="E378" t="n">
-        <v>0.819852640953703</v>
+        <v>0.819852640953716</v>
       </c>
       <c r="F378" t="n">
-        <v>0.0491603158203905</v>
+        <v>0.0491603158407748</v>
       </c>
     </row>
     <row r="379">
@@ -10534,16 +10534,16 @@
         <v>736</v>
       </c>
       <c r="C379" t="n">
-        <v>1.3765752973998</v>
+        <v>1.37657529739979</v>
       </c>
       <c r="D379" t="n">
-        <v>0.0000000000000000000000710543728800355</v>
+        <v>0.0000000000000000000000710543729352768</v>
       </c>
       <c r="E379" t="n">
-        <v>1.46241452559573</v>
+        <v>1.46241452559568</v>
       </c>
       <c r="F379" t="n">
-        <v>0.0000000000000158215086008112</v>
+        <v>0.0000000000000158215087211967</v>
       </c>
     </row>
     <row r="380">
@@ -10554,16 +10554,16 @@
         <v>738</v>
       </c>
       <c r="C380" t="n">
-        <v>2.41029501413948</v>
+        <v>2.41029501413947</v>
       </c>
       <c r="D380" t="n">
-        <v>0.0000126812371701801</v>
+        <v>0.0000126812371717045</v>
       </c>
       <c r="E380" t="n">
-        <v>2.19001245557275</v>
+        <v>2.19001245557281</v>
       </c>
       <c r="F380" t="n">
-        <v>0.00100717830999653</v>
+        <v>0.00100717831031389</v>
       </c>
     </row>
     <row r="381">
@@ -10577,13 +10577,13 @@
         <v>2.25754371709628</v>
       </c>
       <c r="D381" t="n">
-        <v>0.0000000000000000000000000000000177046523572743</v>
+        <v>0.0000000000000000000000000000000177046523748744</v>
       </c>
       <c r="E381" t="n">
-        <v>2.02567118078508</v>
+        <v>2.02567118078502</v>
       </c>
       <c r="F381" t="n">
-        <v>0.0000000000000000000106829168699384</v>
+        <v>0.000000000000000000010682916930332</v>
       </c>
     </row>
     <row r="382">
@@ -10592,16 +10592,16 @@
       </c>
       <c r="B382"/>
       <c r="C382" t="n">
-        <v>2.36732049205632</v>
+        <v>2.36732049205629</v>
       </c>
       <c r="D382" t="n">
-        <v>0.0184290735654443</v>
+        <v>0.0184290735661414</v>
       </c>
       <c r="E382" t="n">
-        <v>2.20354538642419</v>
+        <v>2.20354538642407</v>
       </c>
       <c r="F382" t="n">
-        <v>0.0415805657233419</v>
+        <v>0.0415805657270028</v>
       </c>
     </row>
     <row r="383">
@@ -10612,16 +10612,16 @@
         <v>743</v>
       </c>
       <c r="C383" t="n">
-        <v>-0.701583474383737</v>
+        <v>-0.701583474383738</v>
       </c>
       <c r="D383" t="n">
-        <v>0.00747914296226986</v>
+        <v>0.00747914296276073</v>
       </c>
       <c r="E383" t="n">
-        <v>-0.880454565708065</v>
+        <v>-0.880454565707907</v>
       </c>
       <c r="F383" t="n">
-        <v>0.00784155930532228</v>
+        <v>0.00784155931013009</v>
       </c>
     </row>
     <row r="384">
@@ -10632,16 +10632,16 @@
         <v>745</v>
       </c>
       <c r="C384" t="n">
-        <v>6.25919370450585</v>
+        <v>6.25919370450586</v>
       </c>
       <c r="D384" t="n">
-        <v>0.000355113344651565</v>
+        <v>0.000355113344667267</v>
       </c>
       <c r="E384" t="n">
-        <v>7.06567384195969</v>
+        <v>7.06567384195978</v>
       </c>
       <c r="F384" t="n">
-        <v>0.00000227558958901643</v>
+        <v>0.000002275589589334</v>
       </c>
     </row>
     <row r="385">
@@ -10652,16 +10652,16 @@
         <v>747</v>
       </c>
       <c r="C385" t="n">
-        <v>1.36076201716392</v>
+        <v>1.36076201716393</v>
       </c>
       <c r="D385" t="n">
-        <v>0.00000207430987247307</v>
+        <v>0.00000207430987292283</v>
       </c>
       <c r="E385" t="n">
-        <v>1.58854403397306</v>
+        <v>1.58854403397305</v>
       </c>
       <c r="F385" t="n">
-        <v>0.00000000000856796148361598</v>
+        <v>0.00000000000856796152093536</v>
       </c>
     </row>
     <row r="386">
@@ -10675,13 +10675,13 @@
         <v>-1.08736866948573</v>
       </c>
       <c r="D386" t="n">
-        <v>0.000000000122441237868757</v>
+        <v>0.000000000122441237905441</v>
       </c>
       <c r="E386" t="n">
-        <v>-1.65062174365696</v>
+        <v>-1.65062174365702</v>
       </c>
       <c r="F386" t="n">
-        <v>0.0000000000000334955100087313</v>
+        <v>0.0000000000000334955102188598</v>
       </c>
     </row>
     <row r="387">
@@ -10692,16 +10692,16 @@
         <v>751</v>
       </c>
       <c r="C387" t="n">
-        <v>-0.610549009821873</v>
+        <v>-0.610549009821864</v>
       </c>
       <c r="D387" t="n">
-        <v>0.0392531826401584</v>
+        <v>0.0392531826423452</v>
       </c>
       <c r="E387" t="n">
-        <v>-0.75098394047252</v>
+        <v>-0.750983940472717</v>
       </c>
       <c r="F387" t="n">
-        <v>0.0280850203777653</v>
+        <v>0.0280850203838854</v>
       </c>
     </row>
     <row r="388">
@@ -10712,16 +10712,16 @@
         <v>753</v>
       </c>
       <c r="C388" t="n">
-        <v>1.92526017406871</v>
+        <v>1.92526017406869</v>
       </c>
       <c r="D388" t="n">
-        <v>0.000000087157485313162</v>
+        <v>0.0000000871574853315142</v>
       </c>
       <c r="E388" t="n">
-        <v>1.58364635406846</v>
+        <v>1.58364635406829</v>
       </c>
       <c r="F388" t="n">
-        <v>0.00023553628261622</v>
+        <v>0.000235536282779416</v>
       </c>
     </row>
     <row r="389">
@@ -10735,13 +10735,13 @@
         <v>1.1784616402857</v>
       </c>
       <c r="D389" t="n">
-        <v>0.00595795796260988</v>
+        <v>0.00595795796292751</v>
       </c>
       <c r="E389" t="n">
-        <v>1.05236985727297</v>
+        <v>1.05236985727294</v>
       </c>
       <c r="F389" t="n">
-        <v>0.0396136902965564</v>
+        <v>0.0396136903017736</v>
       </c>
     </row>
     <row r="390">
@@ -10755,13 +10755,13 @@
         <v>-1.10731496030521</v>
       </c>
       <c r="D390" t="n">
-        <v>0.0000364468060586288</v>
+        <v>0.0000364468060642671</v>
       </c>
       <c r="E390" t="n">
-        <v>-1.86573793124207</v>
+        <v>-1.86573793124181</v>
       </c>
       <c r="F390" t="n">
-        <v>0.0000000217827989149046</v>
+        <v>0.0000000217827989595037</v>
       </c>
     </row>
     <row r="391">
@@ -10772,16 +10772,16 @@
         <v>759</v>
       </c>
       <c r="C391" t="n">
-        <v>1.72219923608446</v>
+        <v>1.72219923608443</v>
       </c>
       <c r="D391" t="n">
-        <v>0.0163621658349626</v>
+        <v>0.0163621658356221</v>
       </c>
       <c r="E391" t="n">
-        <v>1.59721943843187</v>
+        <v>1.59721943843181</v>
       </c>
       <c r="F391" t="n">
-        <v>0.0406787509013521</v>
+        <v>0.0406787509078033</v>
       </c>
     </row>
     <row r="392">
@@ -10792,16 +10792,16 @@
         <v>761</v>
       </c>
       <c r="C392" t="n">
-        <v>-0.740668987595061</v>
+        <v>-0.740668987595058</v>
       </c>
       <c r="D392" t="n">
-        <v>0.0429991663717504</v>
+        <v>0.0429991663736563</v>
       </c>
       <c r="E392" t="n">
-        <v>-1.41736908814331</v>
+        <v>-1.41736908814327</v>
       </c>
       <c r="F392" t="n">
-        <v>0.000319371500178284</v>
+        <v>0.000319371500445999</v>
       </c>
     </row>
     <row r="393">
@@ -10812,16 +10812,16 @@
         <v>763</v>
       </c>
       <c r="C393" t="n">
-        <v>2.7844121929364</v>
+        <v>2.78441219293638</v>
       </c>
       <c r="D393" t="n">
-        <v>0.0140247956519765</v>
+        <v>0.0140247956525676</v>
       </c>
       <c r="E393" t="n">
-        <v>3.20861185158245</v>
+        <v>3.20861185158256</v>
       </c>
       <c r="F393" t="n">
-        <v>0.000970219718453592</v>
+        <v>0.000970219718573596</v>
       </c>
     </row>
     <row r="394">
@@ -10832,16 +10832,16 @@
         <v>765</v>
       </c>
       <c r="C394" t="n">
-        <v>0.771889089092437</v>
+        <v>0.771889089092438</v>
       </c>
       <c r="D394" t="n">
-        <v>0.0435975652179556</v>
+        <v>0.0435975652202535</v>
       </c>
       <c r="E394" t="n">
-        <v>1.15864275255221</v>
+        <v>1.15864275255235</v>
       </c>
       <c r="F394" t="n">
-        <v>0.0175574165321247</v>
+        <v>0.0175574165383004</v>
       </c>
     </row>
     <row r="395">
@@ -10852,16 +10852,16 @@
         <v>767</v>
       </c>
       <c r="C395" t="n">
-        <v>0.841842574692005</v>
+        <v>0.841842574692008</v>
       </c>
       <c r="D395" t="n">
-        <v>0.000591465483318771</v>
+        <v>0.000591465483381842</v>
       </c>
       <c r="E395" t="n">
-        <v>1.04918059307204</v>
+        <v>1.04918059307202</v>
       </c>
       <c r="F395" t="n">
-        <v>0.0000749321296819947</v>
+        <v>0.0000749321298114205</v>
       </c>
     </row>
     <row r="396">
@@ -10872,16 +10872,16 @@
         <v>769</v>
       </c>
       <c r="C396" t="n">
-        <v>0.835878092105404</v>
+        <v>0.835878092105395</v>
       </c>
       <c r="D396" t="n">
-        <v>0.0162845952389697</v>
+        <v>0.0162845952398521</v>
       </c>
       <c r="E396" t="n">
-        <v>0.849636673860078</v>
+        <v>0.849636673859914</v>
       </c>
       <c r="F396" t="n">
-        <v>0.0296622357396574</v>
+        <v>0.0296622357550559</v>
       </c>
     </row>
     <row r="397">
@@ -10895,13 +10895,13 @@
         <v>-2.32718902105687</v>
       </c>
       <c r="D397" t="n">
-        <v>0.000832052293230314</v>
+        <v>0.000832052293308665</v>
       </c>
       <c r="E397" t="n">
-        <v>-2.15810891027742</v>
+        <v>-2.15810891027718</v>
       </c>
       <c r="F397" t="n">
-        <v>0.0178303901471697</v>
+        <v>0.0178303901486498</v>
       </c>
     </row>
     <row r="398">
@@ -10915,13 +10915,13 @@
         <v>-1.17167360650881</v>
       </c>
       <c r="D398" t="n">
-        <v>0.00267391938268606</v>
+        <v>0.00267391938288333</v>
       </c>
       <c r="E398" t="n">
-        <v>-1.00932164343893</v>
+        <v>-1.00932164343914</v>
       </c>
       <c r="F398" t="n">
-        <v>0.0108572504478178</v>
+        <v>0.0108572504537335</v>
       </c>
     </row>
     <row r="399">
@@ -10935,13 +10935,13 @@
         <v>-1.50388198763675</v>
       </c>
       <c r="D399" t="n">
-        <v>0.0000459074126363686</v>
+        <v>0.0000459074126417151</v>
       </c>
       <c r="E399" t="n">
-        <v>-1.36420006327872</v>
+        <v>-1.36420006327894</v>
       </c>
       <c r="F399" t="n">
-        <v>0.00112640293621062</v>
+        <v>0.00112640293693047</v>
       </c>
     </row>
     <row r="400">
@@ -10952,16 +10952,16 @@
         <v>777</v>
       </c>
       <c r="C400" t="n">
-        <v>1.94846393325396</v>
+        <v>1.94846393325397</v>
       </c>
       <c r="D400" t="n">
-        <v>0.000000480504890644774</v>
+        <v>0.000000480504890713741</v>
       </c>
       <c r="E400" t="n">
-        <v>1.52189275447419</v>
+        <v>1.52189275447424</v>
       </c>
       <c r="F400" t="n">
-        <v>0.0019953337503962</v>
+        <v>0.00199533375137358</v>
       </c>
     </row>
     <row r="401">
@@ -10972,16 +10972,16 @@
         <v>779</v>
       </c>
       <c r="C401" t="n">
-        <v>-0.868641437103425</v>
+        <v>-0.868641437103418</v>
       </c>
       <c r="D401" t="n">
-        <v>0.0324591296212807</v>
+        <v>0.0324591296224152</v>
       </c>
       <c r="E401" t="n">
-        <v>-1.0947151724593</v>
+        <v>-1.09471517245937</v>
       </c>
       <c r="F401" t="n">
-        <v>0.00488999910892996</v>
+        <v>0.00488999911195873</v>
       </c>
     </row>
     <row r="402">
@@ -10992,16 +10992,16 @@
         <v>781</v>
       </c>
       <c r="C402" t="n">
-        <v>0.985683640512525</v>
+        <v>0.985683640512524</v>
       </c>
       <c r="D402" t="n">
-        <v>0.0161354375899035</v>
+        <v>0.0161354375908003</v>
       </c>
       <c r="E402" t="n">
-        <v>1.23082758021653</v>
+        <v>1.23082758021651</v>
       </c>
       <c r="F402" t="n">
-        <v>0.00374649037089781</v>
+        <v>0.00374649037304298</v>
       </c>
     </row>
     <row r="403">
@@ -11012,16 +11012,16 @@
         <v>783</v>
       </c>
       <c r="C403" t="n">
-        <v>-2.83521842162305</v>
+        <v>-2.83521842162303</v>
       </c>
       <c r="D403" t="n">
-        <v>0.0295995646142125</v>
+        <v>0.0295995646155572</v>
       </c>
       <c r="E403" t="n">
-        <v>-5.04139579463791</v>
+        <v>-5.04139579463871</v>
       </c>
       <c r="F403" t="n">
-        <v>0.00000000378806997004037</v>
+        <v>0.00000000378806997180056</v>
       </c>
     </row>
     <row r="404">
@@ -11032,16 +11032,16 @@
         <v>785</v>
       </c>
       <c r="C404" t="n">
-        <v>1.79652085750663</v>
+        <v>1.79652085750661</v>
       </c>
       <c r="D404" t="n">
-        <v>0.00500449189636404</v>
+        <v>0.00500449189659935</v>
       </c>
       <c r="E404" t="n">
-        <v>1.63045884526352</v>
+        <v>1.63045884526347</v>
       </c>
       <c r="F404" t="n">
-        <v>0.023466017001749</v>
+        <v>0.0234660170068033</v>
       </c>
     </row>
     <row r="405">
@@ -11052,16 +11052,16 @@
         <v>787</v>
       </c>
       <c r="C405" t="n">
-        <v>-1.45329546572331</v>
+        <v>-1.45329546572329</v>
       </c>
       <c r="D405" t="n">
-        <v>0.00441780211920437</v>
+        <v>0.00441780211937813</v>
       </c>
       <c r="E405" t="n">
-        <v>-2.02328777156761</v>
+        <v>-2.02328777156809</v>
       </c>
       <c r="F405" t="n">
-        <v>0.00121816454221575</v>
+        <v>0.0012181645426589</v>
       </c>
     </row>
     <row r="406">
@@ -11072,16 +11072,16 @@
         <v>789</v>
       </c>
       <c r="C406" t="n">
-        <v>2.92705890978515</v>
+        <v>2.92705890978513</v>
       </c>
       <c r="D406" t="n">
-        <v>0.00000000000260815508230611</v>
+        <v>0.00000000000260815508305492</v>
       </c>
       <c r="E406" t="n">
-        <v>3.38697622581433</v>
+        <v>3.38697622581417</v>
       </c>
       <c r="F406" t="n">
-        <v>0.0000000000000415347650158824</v>
+        <v>0.0000000000000415347650847861</v>
       </c>
     </row>
     <row r="407">
@@ -11092,16 +11092,16 @@
         <v>791</v>
       </c>
       <c r="C407" t="n">
-        <v>-0.453920982044343</v>
+        <v>-0.453920982044336</v>
       </c>
       <c r="D407" t="n">
-        <v>0.0286613379430812</v>
+        <v>0.0286613379451497</v>
       </c>
       <c r="E407" t="n">
-        <v>-0.700330986725578</v>
+        <v>-0.700330986725492</v>
       </c>
       <c r="F407" t="n">
-        <v>0.00323874400976549</v>
+        <v>0.00323874401479674</v>
       </c>
     </row>
     <row r="408">
@@ -11113,13 +11113,13 @@
         <v>-0.781839246787675</v>
       </c>
       <c r="D408" t="n">
-        <v>0.00202616133983141</v>
+        <v>0.00202616133999813</v>
       </c>
       <c r="E408" t="n">
-        <v>-0.81376521078488</v>
+        <v>-0.813765210785018</v>
       </c>
       <c r="F408" t="n">
-        <v>0.0192216016816763</v>
+        <v>0.0192216016955214</v>
       </c>
     </row>
     <row r="409">
@@ -11130,16 +11130,16 @@
         <v>794</v>
       </c>
       <c r="C409" t="n">
-        <v>-2.92353708513887</v>
+        <v>-2.92353708513882</v>
       </c>
       <c r="D409" t="n">
-        <v>0.000369093931328059</v>
+        <v>0.000369093931353723</v>
       </c>
       <c r="E409" t="n">
-        <v>-2.76902705920373</v>
+        <v>-2.76902705920342</v>
       </c>
       <c r="F409" t="n">
-        <v>0.00381154724632841</v>
+        <v>0.00381154724703767</v>
       </c>
     </row>
     <row r="410">
@@ -11150,16 +11150,16 @@
         <v>796</v>
       </c>
       <c r="C410" t="n">
-        <v>-0.642563655131487</v>
+        <v>-0.642563655131483</v>
       </c>
       <c r="D410" t="n">
-        <v>0.0102130141867598</v>
+        <v>0.010213014187423</v>
       </c>
       <c r="E410" t="n">
-        <v>-1.03167681155371</v>
+        <v>-1.03167681155375</v>
       </c>
       <c r="F410" t="n">
-        <v>0.0000596646277794158</v>
+        <v>0.0000596646278986829</v>
       </c>
     </row>
     <row r="411">
@@ -11170,16 +11170,16 @@
         <v>798</v>
       </c>
       <c r="C411" t="n">
-        <v>1.21204801037227</v>
+        <v>1.21204801037226</v>
       </c>
       <c r="D411" t="n">
-        <v>0.0219097409659008</v>
+        <v>0.0219097409668047</v>
       </c>
       <c r="E411" t="n">
-        <v>1.42868628707322</v>
+        <v>1.42868628707325</v>
       </c>
       <c r="F411" t="n">
-        <v>0.0249048153102871</v>
+        <v>0.024904815316891</v>
       </c>
     </row>
     <row r="412">
@@ -11190,16 +11190,16 @@
         <v>800</v>
       </c>
       <c r="C412" t="n">
-        <v>-0.679369825678665</v>
+        <v>-0.679369825678658</v>
       </c>
       <c r="D412" t="n">
-        <v>0.0109444774842301</v>
+        <v>0.0109444774850049</v>
       </c>
       <c r="E412" t="n">
-        <v>-0.878069281405978</v>
+        <v>-0.878069281406087</v>
       </c>
       <c r="F412" t="n">
-        <v>0.00983094428660907</v>
+        <v>0.00983094429742237</v>
       </c>
     </row>
     <row r="413">
@@ -11210,16 +11210,16 @@
         <v>802</v>
       </c>
       <c r="C413" t="n">
-        <v>1.77007319307669</v>
+        <v>1.77007319307668</v>
       </c>
       <c r="D413" t="n">
-        <v>0.000000000123039875699238</v>
+        <v>0.000000000123039875729257</v>
       </c>
       <c r="E413" t="n">
-        <v>1.58144955903905</v>
+        <v>1.58144955903895</v>
       </c>
       <c r="F413" t="n">
-        <v>0.00000022662665355059</v>
+        <v>0.000000226626653978044</v>
       </c>
     </row>
     <row r="414">
@@ -11233,13 +11233,13 @@
         <v>1.32798271772134</v>
       </c>
       <c r="D414" t="n">
-        <v>0.0397103711326509</v>
+        <v>0.0397103711343514</v>
       </c>
       <c r="E414" t="n">
-        <v>1.75150644345273</v>
+        <v>1.75150644345283</v>
       </c>
       <c r="F414" t="n">
-        <v>0.00202980052895812</v>
+        <v>0.0020298005318524</v>
       </c>
     </row>
     <row r="415">
@@ -11250,16 +11250,16 @@
         <v>806</v>
       </c>
       <c r="C415" t="n">
-        <v>0.629656276996947</v>
+        <v>0.629656276996945</v>
       </c>
       <c r="D415" t="n">
-        <v>0.0261378150496492</v>
+        <v>0.026137815051171</v>
       </c>
       <c r="E415" t="n">
-        <v>1.09440672215833</v>
+        <v>1.09440672215838</v>
       </c>
       <c r="F415" t="n">
-        <v>0.000371886579773582</v>
+        <v>0.000371886580244753</v>
       </c>
     </row>
     <row r="416">
@@ -11270,16 +11270,16 @@
         <v>808</v>
       </c>
       <c r="C416" t="n">
-        <v>-2.46973401060585</v>
+        <v>-2.46973401060583</v>
       </c>
       <c r="D416" t="n">
-        <v>0.000000385881795395714</v>
+        <v>0.000000385881795443457</v>
       </c>
       <c r="E416" t="n">
-        <v>-2.42685463178431</v>
+        <v>-2.42685463178387</v>
       </c>
       <c r="F416" t="n">
-        <v>0.00000242720435158498</v>
+        <v>0.00000242720435341044</v>
       </c>
     </row>
     <row r="417">
@@ -11290,16 +11290,16 @@
         <v>810</v>
       </c>
       <c r="C417" t="n">
-        <v>0.871241539013412</v>
+        <v>0.871241539013403</v>
       </c>
       <c r="D417" t="n">
-        <v>0.000000142423821960408</v>
+        <v>0.000000142423821983902</v>
       </c>
       <c r="E417" t="n">
-        <v>0.922231656669168</v>
+        <v>0.922231656669184</v>
       </c>
       <c r="F417" t="n">
-        <v>0.00000541049009769599</v>
+        <v>0.00000541049009842036</v>
       </c>
     </row>
     <row r="418">
@@ -11313,13 +11313,13 @@
         <v>-2.17604743923928</v>
       </c>
       <c r="D418" t="n">
-        <v>0.000000000051888153216332</v>
+        <v>0.0000000000518881532284517</v>
       </c>
       <c r="E418" t="n">
-        <v>-2.52557694769955</v>
+        <v>-2.52557694769953</v>
       </c>
       <c r="F418" t="n">
-        <v>0.0000000000000030881998842003</v>
+        <v>0.00000000000000308819989442909</v>
       </c>
     </row>
     <row r="419">
@@ -11330,16 +11330,16 @@
         <v>814</v>
       </c>
       <c r="C419" t="n">
-        <v>-1.63182028020298</v>
+        <v>-1.63182028020296</v>
       </c>
       <c r="D419" t="n">
-        <v>0.00145947959876087</v>
+        <v>0.00145947959891732</v>
       </c>
       <c r="E419" t="n">
-        <v>-1.94080079863876</v>
+        <v>-1.94080079863861</v>
       </c>
       <c r="F419" t="n">
-        <v>0.000153098141619631</v>
+        <v>0.000153098141703215</v>
       </c>
     </row>
     <row r="420">
@@ -11350,16 +11350,16 @@
         <v>816</v>
       </c>
       <c r="C420" t="n">
-        <v>-1.85146687810154</v>
+        <v>-1.85146687810155</v>
       </c>
       <c r="D420" t="n">
-        <v>0.000188304685842723</v>
+        <v>0.000188304685863132</v>
       </c>
       <c r="E420" t="n">
-        <v>-2.15523434009038</v>
+        <v>-2.15523434008974</v>
       </c>
       <c r="F420" t="n">
-        <v>0.000694510399582151</v>
+        <v>0.00069451039983825</v>
       </c>
     </row>
     <row r="421">
@@ -11370,16 +11370,16 @@
         <v>818</v>
       </c>
       <c r="C421" t="n">
-        <v>-0.942685545410343</v>
+        <v>-0.942685545410332</v>
       </c>
       <c r="D421" t="n">
-        <v>0.0000915580190652834</v>
+        <v>0.0000915580190774192</v>
       </c>
       <c r="E421" t="n">
-        <v>-1.22875739259663</v>
+        <v>-1.22875739259684</v>
       </c>
       <c r="F421" t="n">
-        <v>0.00000663673924765376</v>
+        <v>0.00000663673926043668</v>
       </c>
     </row>
     <row r="422">
@@ -11390,16 +11390,16 @@
         <v>820</v>
       </c>
       <c r="C422" t="n">
-        <v>1.60787027426579</v>
+        <v>1.6078702742658</v>
       </c>
       <c r="D422" t="n">
-        <v>0.00000434983484697182</v>
+        <v>0.00000434983484754478</v>
       </c>
       <c r="E422" t="n">
-        <v>1.38051311771545</v>
+        <v>1.38051311771556</v>
       </c>
       <c r="F422" t="n">
-        <v>0.0190260404485178</v>
+        <v>0.0190260404542826</v>
       </c>
     </row>
     <row r="423">
@@ -11410,16 +11410,16 @@
         <v>822</v>
       </c>
       <c r="C423" t="n">
-        <v>-0.916483907490994</v>
+        <v>-0.916483907490989</v>
       </c>
       <c r="D423" t="n">
-        <v>0.0000156942211169166</v>
+        <v>0.0000156942211193311</v>
       </c>
       <c r="E423" t="n">
-        <v>-0.900367358196871</v>
+        <v>-0.900367358197017</v>
       </c>
       <c r="F423" t="n">
-        <v>0.0184372918268422</v>
+        <v>0.0184372918421206</v>
       </c>
     </row>
     <row r="424">
@@ -11430,16 +11430,16 @@
         <v>824</v>
       </c>
       <c r="C424" t="n">
-        <v>-0.882052703136137</v>
+        <v>-0.882052703136135</v>
       </c>
       <c r="D424" t="n">
-        <v>0.000505573272572701</v>
+        <v>0.000505573272634961</v>
       </c>
       <c r="E424" t="n">
-        <v>-1.34035990023408</v>
+        <v>-1.34035990023374</v>
       </c>
       <c r="F424" t="n">
-        <v>0.00017511085398962</v>
+        <v>0.000175110854135639</v>
       </c>
     </row>
     <row r="425">
@@ -11453,13 +11453,13 @@
         <v>1.54389342722885</v>
       </c>
       <c r="D425" t="n">
-        <v>0.000000000000000138670829146565</v>
+        <v>0.000000000000000138670829213861</v>
       </c>
       <c r="E425" t="n">
-        <v>1.06292383131898</v>
+        <v>1.06292383131901</v>
       </c>
       <c r="F425" t="n">
-        <v>0.0000579046438405108</v>
+        <v>0.000057904643858768</v>
       </c>
     </row>
     <row r="426">
@@ -11468,16 +11468,16 @@
       </c>
       <c r="B426"/>
       <c r="C426" t="n">
-        <v>0.919791052887515</v>
+        <v>0.919791052887504</v>
       </c>
       <c r="D426" t="n">
-        <v>0.0408715828863422</v>
+        <v>0.0408715828877223</v>
       </c>
       <c r="E426" t="n">
-        <v>1.02669473331824</v>
+        <v>1.02669473331832</v>
       </c>
       <c r="F426" t="n">
-        <v>0.0468559682920624</v>
+        <v>0.046855968305659</v>
       </c>
     </row>
     <row r="427">
@@ -11491,13 +11491,13 @@
         <v>1.06768928204526</v>
       </c>
       <c r="D427" t="n">
-        <v>0.000000267982130990508</v>
+        <v>0.000000267982131039841</v>
       </c>
       <c r="E427" t="n">
-        <v>0.979285725337489</v>
+        <v>0.979285725337463</v>
       </c>
       <c r="F427" t="n">
-        <v>0.000202371648412585</v>
+        <v>0.00020237164865677</v>
       </c>
     </row>
     <row r="428">
@@ -11508,16 +11508,16 @@
         <v>831</v>
       </c>
       <c r="C428" t="n">
-        <v>1.10853508528895</v>
+        <v>1.10853508528896</v>
       </c>
       <c r="D428" t="n">
-        <v>0.00862430031398981</v>
+        <v>0.00862430031447007</v>
       </c>
       <c r="E428" t="n">
-        <v>1.30821864761778</v>
+        <v>1.30821864761792</v>
       </c>
       <c r="F428" t="n">
-        <v>0.015285916403018</v>
+        <v>0.0152859164084455</v>
       </c>
     </row>
     <row r="429">
@@ -11528,16 +11528,16 @@
         <v>833</v>
       </c>
       <c r="C429" t="n">
-        <v>0.817864688674177</v>
+        <v>0.81786468867418</v>
       </c>
       <c r="D429" t="n">
-        <v>0.000000343072261411716</v>
+        <v>0.000000343072261502129</v>
       </c>
       <c r="E429" t="n">
-        <v>0.588489460447714</v>
+        <v>0.58848946044777</v>
       </c>
       <c r="F429" t="n">
-        <v>0.0467982165068222</v>
+        <v>0.0467982165428162</v>
       </c>
     </row>
     <row r="430">
@@ -11548,16 +11548,16 @@
         <v>835</v>
       </c>
       <c r="C430" t="n">
-        <v>0.817101528284616</v>
+        <v>0.817101528284612</v>
       </c>
       <c r="D430" t="n">
-        <v>0.00259241059804534</v>
+        <v>0.00259241059825181</v>
       </c>
       <c r="E430" t="n">
-        <v>0.746500647115732</v>
+        <v>0.746500647115745</v>
       </c>
       <c r="F430" t="n">
-        <v>0.0185971739544373</v>
+        <v>0.0185971739580693</v>
       </c>
     </row>
     <row r="431">
@@ -11568,16 +11568,16 @@
         <v>837</v>
       </c>
       <c r="C431" t="n">
-        <v>-7.31946786320718</v>
+        <v>-7.3194678632072</v>
       </c>
       <c r="D431" t="n">
-        <v>0.00142726038793953</v>
+        <v>0.00142726038809787</v>
       </c>
       <c r="E431" t="n">
-        <v>-4.97656531418287</v>
+        <v>-4.97656531418388</v>
       </c>
       <c r="F431" t="n">
-        <v>0.0262809327275732</v>
+        <v>0.0262809327292267</v>
       </c>
     </row>
     <row r="432">
@@ -11588,16 +11588,16 @@
         <v>839</v>
       </c>
       <c r="C432" t="n">
-        <v>0.943810050503811</v>
+        <v>0.943810050503804</v>
       </c>
       <c r="D432" t="n">
-        <v>0.0348733173915166</v>
+        <v>0.0348733173927794</v>
       </c>
       <c r="E432" t="n">
-        <v>1.31122020238765</v>
+        <v>1.3112202023876</v>
       </c>
       <c r="F432" t="n">
-        <v>0.000573233132044772</v>
+        <v>0.000573233132548292</v>
       </c>
     </row>
     <row r="433">
@@ -11608,16 +11608,16 @@
         <v>841</v>
       </c>
       <c r="C433" t="n">
-        <v>0.844156295370431</v>
+        <v>0.844156295370428</v>
       </c>
       <c r="D433" t="n">
-        <v>0.00141711692059924</v>
+        <v>0.00141711692072631</v>
       </c>
       <c r="E433" t="n">
-        <v>1.00806873403544</v>
+        <v>1.0080687340354</v>
       </c>
       <c r="F433" t="n">
-        <v>0.0034677197813924</v>
+        <v>0.00346771978437376</v>
       </c>
     </row>
     <row r="434">
@@ -11628,16 +11628,16 @@
         <v>843</v>
       </c>
       <c r="C434" t="n">
-        <v>-2.47438921270618</v>
+        <v>-2.47438921270621</v>
       </c>
       <c r="D434" t="n">
-        <v>0.000240451378817173</v>
+        <v>0.000240451378840805</v>
       </c>
       <c r="E434" t="n">
-        <v>-2.50834934578122</v>
+        <v>-2.50834934578136</v>
       </c>
       <c r="F434" t="n">
-        <v>0.0014804959351565</v>
+        <v>0.00148049593552044</v>
       </c>
     </row>
     <row r="435">
@@ -11648,16 +11648,16 @@
         <v>845</v>
       </c>
       <c r="C435" t="n">
-        <v>-1.06989805255939</v>
+        <v>-1.06989805255938</v>
       </c>
       <c r="D435" t="n">
-        <v>0.00269379704183623</v>
+        <v>0.00269379704197316</v>
       </c>
       <c r="E435" t="n">
-        <v>-1.08091177922118</v>
+        <v>-1.08091177922097</v>
       </c>
       <c r="F435" t="n">
-        <v>0.00531851330144425</v>
+        <v>0.00531851330477484</v>
       </c>
     </row>
     <row r="436">
@@ -11668,16 +11668,16 @@
         <v>847</v>
       </c>
       <c r="C436" t="n">
-        <v>-0.805014521567691</v>
+        <v>-0.805014521567682</v>
       </c>
       <c r="D436" t="n">
-        <v>0.0178609210510813</v>
+        <v>0.0178609210518152</v>
       </c>
       <c r="E436" t="n">
-        <v>-1.55591570089563</v>
+        <v>-1.55591570089557</v>
       </c>
       <c r="F436" t="n">
-        <v>0.0000173136974834301</v>
+        <v>0.0000173136975032875</v>
       </c>
     </row>
     <row r="437">
@@ -11686,16 +11686,16 @@
       </c>
       <c r="B437"/>
       <c r="C437" t="n">
-        <v>0.868031946968892</v>
+        <v>0.868031946968891</v>
       </c>
       <c r="D437" t="n">
-        <v>0.0256559353566885</v>
+        <v>0.0256559353580594</v>
       </c>
       <c r="E437" t="n">
-        <v>1.03740830816083</v>
+        <v>1.03740830816092</v>
       </c>
       <c r="F437" t="n">
-        <v>0.0428393182617615</v>
+        <v>0.0428393182752477</v>
       </c>
     </row>
     <row r="438">
@@ -11706,16 +11706,16 @@
         <v>850</v>
       </c>
       <c r="C438" t="n">
-        <v>1.34920869318358</v>
+        <v>1.34920869318359</v>
       </c>
       <c r="D438" t="n">
-        <v>0.000000200753650044667</v>
+        <v>0.000000200753650087653</v>
       </c>
       <c r="E438" t="n">
-        <v>1.53788532036374</v>
+        <v>1.53788532036385</v>
       </c>
       <c r="F438" t="n">
-        <v>0.000000509621834424737</v>
+        <v>0.000000509621835331433</v>
       </c>
     </row>
     <row r="439">
@@ -11726,16 +11726,16 @@
         <v>852</v>
       </c>
       <c r="C439" t="n">
-        <v>1.98530723801187</v>
+        <v>1.98530723801189</v>
       </c>
       <c r="D439" t="n">
-        <v>0.00597015644370377</v>
+        <v>0.00597015644405516</v>
       </c>
       <c r="E439" t="n">
-        <v>1.96177755999974</v>
+        <v>1.96177755999983</v>
       </c>
       <c r="F439" t="n">
-        <v>0.00595483444304769</v>
+        <v>0.0059548344444548</v>
       </c>
     </row>
     <row r="440">
@@ -11749,13 +11749,13 @@
         <v>2.49040873823757</v>
       </c>
       <c r="D440" t="n">
-        <v>0.00000690898004184313</v>
+        <v>0.00000690898004272454</v>
       </c>
       <c r="E440" t="n">
-        <v>3.1746652452869</v>
+        <v>3.17466524528687</v>
       </c>
       <c r="F440" t="n">
-        <v>0.00000000119671763206737</v>
+        <v>0.00000000119671763325558</v>
       </c>
     </row>
     <row r="441">
@@ -11766,16 +11766,16 @@
         <v>856</v>
       </c>
       <c r="C441" t="n">
-        <v>1.88528774867849</v>
+        <v>1.8852877486785</v>
       </c>
       <c r="D441" t="n">
-        <v>0.0000446955656583567</v>
+        <v>0.0000446955656633952</v>
       </c>
       <c r="E441" t="n">
-        <v>1.82311483588251</v>
+        <v>1.82311483588255</v>
       </c>
       <c r="F441" t="n">
-        <v>0.0000863707047399643</v>
+        <v>0.000086370704797168</v>
       </c>
     </row>
     <row r="442">
@@ -11784,16 +11784,16 @@
       </c>
       <c r="B442"/>
       <c r="C442" t="n">
-        <v>2.94478584829118</v>
+        <v>2.94478584829116</v>
       </c>
       <c r="D442" t="n">
-        <v>0.00719762907718464</v>
+        <v>0.00719762907759795</v>
       </c>
       <c r="E442" t="n">
-        <v>2.68298385641656</v>
+        <v>2.68298385641658</v>
       </c>
       <c r="F442" t="n">
-        <v>0.0342454821357799</v>
+        <v>0.0342454821525345</v>
       </c>
     </row>
     <row r="443">
@@ -11804,16 +11804,16 @@
         <v>859</v>
       </c>
       <c r="C443" t="n">
-        <v>-0.584085981284114</v>
+        <v>-0.58408598128411</v>
       </c>
       <c r="D443" t="n">
-        <v>0.0487738272980588</v>
+        <v>0.0487738273007641</v>
       </c>
       <c r="E443" t="n">
-        <v>-0.771530659325918</v>
+        <v>-0.771530659325702</v>
       </c>
       <c r="F443" t="n">
-        <v>0.0163889631836455</v>
+        <v>0.0163889631959208</v>
       </c>
     </row>
     <row r="444">
@@ -11822,16 +11822,16 @@
       </c>
       <c r="B444"/>
       <c r="C444" t="n">
-        <v>-0.737870073299161</v>
+        <v>-0.737870073299165</v>
       </c>
       <c r="D444" t="n">
-        <v>0.0184733275790152</v>
+        <v>0.0184733275801261</v>
       </c>
       <c r="E444" t="n">
-        <v>-0.796926433359039</v>
+        <v>-0.796926433359108</v>
       </c>
       <c r="F444" t="n">
-        <v>0.0247359562720761</v>
+        <v>0.0247359562869832</v>
       </c>
     </row>
     <row r="445">
@@ -11845,13 +11845,13 @@
         <v>-1.16901850854128</v>
       </c>
       <c r="D445" t="n">
-        <v>0.0495714165731437</v>
+        <v>0.0495714165748813</v>
       </c>
       <c r="E445" t="n">
-        <v>-1.35317262831654</v>
+        <v>-1.35317262831667</v>
       </c>
       <c r="F445" t="n">
-        <v>0.0124373665869865</v>
+        <v>0.0124373665910408</v>
       </c>
     </row>
     <row r="446">
@@ -11862,16 +11862,16 @@
         <v>864</v>
       </c>
       <c r="C446" t="n">
-        <v>-0.729343901948861</v>
+        <v>-0.729343901948853</v>
       </c>
       <c r="D446" t="n">
-        <v>0.0351004648896839</v>
+        <v>0.0351004648919997</v>
       </c>
       <c r="E446" t="n">
-        <v>-0.950871043352882</v>
+        <v>-0.950871043352805</v>
       </c>
       <c r="F446" t="n">
-        <v>0.00170094785485176</v>
+        <v>0.00170094785668164</v>
       </c>
     </row>
     <row r="447">
@@ -11882,16 +11882,16 @@
         <v>866</v>
       </c>
       <c r="C447" t="n">
-        <v>-0.728442749505348</v>
+        <v>-0.728442749505338</v>
       </c>
       <c r="D447" t="n">
-        <v>0.00941322284486993</v>
+        <v>0.0094132228455834</v>
       </c>
       <c r="E447" t="n">
-        <v>-1.16082574400783</v>
+        <v>-1.16082574400806</v>
       </c>
       <c r="F447" t="n">
-        <v>0.000125008028126382</v>
+        <v>0.000125008028292993</v>
       </c>
     </row>
     <row r="448">
@@ -11900,16 +11900,16 @@
       </c>
       <c r="B448"/>
       <c r="C448" t="n">
-        <v>-6.80093878958093</v>
+        <v>-6.80093878958091</v>
       </c>
       <c r="D448" t="n">
-        <v>0.0383215486256711</v>
+        <v>0.0383215486275755</v>
       </c>
       <c r="E448" t="n">
-        <v>-6.75393320276238</v>
+        <v>-6.75393320276235</v>
       </c>
       <c r="F448" t="n">
-        <v>0.0402516791262232</v>
+        <v>0.0402516791283159</v>
       </c>
     </row>
     <row r="449">
@@ -11920,16 +11920,16 @@
         <v>869</v>
       </c>
       <c r="C449" t="n">
-        <v>-1.88047610800111</v>
+        <v>-1.88047610800112</v>
       </c>
       <c r="D449" t="n">
-        <v>0.000000371243927488912</v>
+        <v>0.000000371243927551151</v>
       </c>
       <c r="E449" t="n">
-        <v>-2.05324144624815</v>
+        <v>-2.05324144624833</v>
       </c>
       <c r="F449" t="n">
-        <v>0.0000681451869890594</v>
+        <v>0.0000681451870309958</v>
       </c>
     </row>
     <row r="450">
@@ -11940,16 +11940,16 @@
         <v>871</v>
       </c>
       <c r="C450" t="n">
-        <v>-0.776743352323961</v>
+        <v>-0.776743352323955</v>
       </c>
       <c r="D450" t="n">
-        <v>0.00356372524719858</v>
+        <v>0.00356372524744877</v>
       </c>
       <c r="E450" t="n">
-        <v>-0.654088906941263</v>
+        <v>-0.654088906941251</v>
       </c>
       <c r="F450" t="n">
-        <v>0.0352284093298575</v>
+        <v>0.0352284093396172</v>
       </c>
     </row>
     <row r="451">
@@ -11960,16 +11960,16 @@
         <v>873</v>
       </c>
       <c r="C451" t="n">
-        <v>-1.52360813383116</v>
+        <v>-1.52360813383115</v>
       </c>
       <c r="D451" t="n">
-        <v>0.000000233422509314931</v>
+        <v>0.000000233422509353052</v>
       </c>
       <c r="E451" t="n">
-        <v>-1.41559544127592</v>
+        <v>-1.4155954412761</v>
       </c>
       <c r="F451" t="n">
-        <v>0.000371886579773582</v>
+        <v>0.000371886580244753</v>
       </c>
     </row>
     <row r="452">
@@ -11978,16 +11978,16 @@
       </c>
       <c r="B452"/>
       <c r="C452" t="n">
-        <v>-1.20771245969407</v>
+        <v>-1.20771245969405</v>
       </c>
       <c r="D452" t="n">
-        <v>0.00192621204118103</v>
+        <v>0.00192621204134128</v>
       </c>
       <c r="E452" t="n">
-        <v>-1.12405999889797</v>
+        <v>-1.12405999889774</v>
       </c>
       <c r="F452" t="n">
-        <v>0.00190570014849922</v>
+        <v>0.00190570015012214</v>
       </c>
     </row>
     <row r="453">
@@ -11998,16 +11998,16 @@
         <v>876</v>
       </c>
       <c r="C453" t="n">
-        <v>0.888056434253621</v>
+        <v>0.888056434253634</v>
       </c>
       <c r="D453" t="n">
-        <v>0.00912245257845119</v>
+        <v>0.00912245257907688</v>
       </c>
       <c r="E453" t="n">
-        <v>1.42766347230346</v>
+        <v>1.42766347230363</v>
       </c>
       <c r="F453" t="n">
-        <v>0.000304179276935268</v>
+        <v>0.000304179277193896</v>
       </c>
     </row>
     <row r="454">
@@ -12018,16 +12018,16 @@
         <v>878</v>
       </c>
       <c r="C454" t="n">
-        <v>1.71043062968625</v>
+        <v>1.71043062968624</v>
       </c>
       <c r="D454" t="n">
-        <v>0.0000000000631214632473918</v>
+        <v>0.0000000000631214632580889</v>
       </c>
       <c r="E454" t="n">
-        <v>1.86147106733137</v>
+        <v>1.86147106733147</v>
       </c>
       <c r="F454" t="n">
-        <v>0.00000000160674262003156</v>
+        <v>0.0000000016067426235827</v>
       </c>
     </row>
     <row r="455">
@@ -12038,16 +12038,16 @@
         <v>880</v>
       </c>
       <c r="C455" t="n">
-        <v>-0.539018042465807</v>
+        <v>-0.539018042465798</v>
       </c>
       <c r="D455" t="n">
-        <v>0.0286714051847075</v>
+        <v>0.028671405186437</v>
       </c>
       <c r="E455" t="n">
-        <v>-0.701536137812864</v>
+        <v>-0.701536137812713</v>
       </c>
       <c r="F455" t="n">
-        <v>0.0148533825054779</v>
+        <v>0.0148533825195796</v>
       </c>
     </row>
     <row r="456">
@@ -12058,16 +12058,16 @@
         <v>882</v>
       </c>
       <c r="C456" t="n">
-        <v>-0.868802115876708</v>
+        <v>-0.868802115876695</v>
       </c>
       <c r="D456" t="n">
-        <v>0.00633414131695265</v>
+        <v>0.00633414131746641</v>
       </c>
       <c r="E456" t="n">
-        <v>-0.848837700246937</v>
+        <v>-0.848837700246757</v>
       </c>
       <c r="F456" t="n">
-        <v>0.0324175705348509</v>
+        <v>0.0324175705502933</v>
       </c>
     </row>
     <row r="457">
@@ -12078,16 +12078,16 @@
         <v>884</v>
       </c>
       <c r="C457" t="n">
-        <v>-0.825255637136328</v>
+        <v>-0.82525563713632</v>
       </c>
       <c r="D457" t="n">
-        <v>0.00459510877257456</v>
+        <v>0.00459510877292405</v>
       </c>
       <c r="E457" t="n">
-        <v>-0.795779854902815</v>
+        <v>-0.795779854902834</v>
       </c>
       <c r="F457" t="n">
-        <v>0.0136619373123414</v>
+        <v>0.0136619373227768</v>
       </c>
     </row>
     <row r="458">
@@ -12098,16 +12098,16 @@
         <v>886</v>
       </c>
       <c r="C458" t="n">
-        <v>0.525922190354732</v>
+        <v>0.525922190354738</v>
       </c>
       <c r="D458" t="n">
-        <v>0.0271270317973029</v>
+        <v>0.0271270317990171</v>
       </c>
       <c r="E458" t="n">
-        <v>0.831660934234478</v>
+        <v>0.831660934234535</v>
       </c>
       <c r="F458" t="n">
-        <v>0.000204296360927178</v>
+        <v>0.000204296361376035</v>
       </c>
     </row>
     <row r="459">
@@ -12121,13 +12121,13 @@
         <v>-1.41534406029495</v>
       </c>
       <c r="D459" t="n">
-        <v>0.01019611703557</v>
+        <v>0.0101961170360904</v>
       </c>
       <c r="E459" t="n">
-        <v>-2.32683947777698</v>
+        <v>-2.32683947777733</v>
       </c>
       <c r="F459" t="n">
-        <v>0.000000824203999403939</v>
+        <v>0.000000824204000120588</v>
       </c>
     </row>
     <row r="460">
@@ -12141,13 +12141,13 @@
         <v>-1.14335124461391</v>
       </c>
       <c r="D460" t="n">
-        <v>0.0000834623175608025</v>
+        <v>0.0000834623175696504</v>
       </c>
       <c r="E460" t="n">
-        <v>-0.959037401339446</v>
+        <v>-0.959037401339581</v>
       </c>
       <c r="F460" t="n">
-        <v>0.0478640365198689</v>
+        <v>0.0478640365382867</v>
       </c>
     </row>
   </sheetData>

--- a/output/Restab_D62_NTCnoRAPA_DIFF_RAPA.xlsx
+++ b/output/Restab_D62_NTCnoRAPA_DIFF_RAPA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="919">
   <si>
     <t xml:space="preserve">entrezgene</t>
   </si>
@@ -320,6 +320,9 @@
     <t xml:space="preserve">50486</t>
   </si>
   <si>
+    <t xml:space="preserve">G0S2</t>
+  </si>
+  <si>
     <t xml:space="preserve">7044</t>
   </si>
   <si>
@@ -572,6 +575,9 @@
     <t xml:space="preserve">26472</t>
   </si>
   <si>
+    <t xml:space="preserve">PPP1R14B</t>
+  </si>
+  <si>
     <t xml:space="preserve">4054</t>
   </si>
   <si>
@@ -719,6 +725,9 @@
     <t xml:space="preserve">3489</t>
   </si>
   <si>
+    <t xml:space="preserve">IGFBP6</t>
+  </si>
+  <si>
     <t xml:space="preserve">3679</t>
   </si>
   <si>
@@ -782,6 +791,9 @@
     <t xml:space="preserve">429</t>
   </si>
   <si>
+    <t xml:space="preserve">ASCL1</t>
+  </si>
+  <si>
     <t xml:space="preserve">51559</t>
   </si>
   <si>
@@ -941,6 +953,9 @@
     <t xml:space="preserve">83982</t>
   </si>
   <si>
+    <t xml:space="preserve">IFI27L2</t>
+  </si>
+  <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
@@ -950,6 +965,9 @@
     <t xml:space="preserve">317762</t>
   </si>
   <si>
+    <t xml:space="preserve">CCDC85C</t>
+  </si>
+  <si>
     <t xml:space="preserve">7453</t>
   </si>
   <si>
@@ -959,9 +977,15 @@
     <t xml:space="preserve">1778</t>
   </si>
   <si>
+    <t xml:space="preserve">DYNC1H1</t>
+  </si>
+  <si>
     <t xml:space="preserve">23186</t>
   </si>
   <si>
+    <t xml:space="preserve">RCOR1</t>
+  </si>
+  <si>
     <t xml:space="preserve">7127</t>
   </si>
   <si>
@@ -1013,6 +1037,9 @@
     <t xml:space="preserve">4016</t>
   </si>
   <si>
+    <t xml:space="preserve">LOXL1</t>
+  </si>
+  <si>
     <t xml:space="preserve">64220</t>
   </si>
   <si>
@@ -1088,6 +1115,9 @@
     <t xml:space="preserve">4502</t>
   </si>
   <si>
+    <t xml:space="preserve">MT2A</t>
+  </si>
+  <si>
     <t xml:space="preserve">4498</t>
   </si>
   <si>
@@ -1109,6 +1139,9 @@
     <t xml:space="preserve">5699</t>
   </si>
   <si>
+    <t xml:space="preserve">PSMB10</t>
+  </si>
+  <si>
     <t xml:space="preserve">6560</t>
   </si>
   <si>
@@ -1124,12 +1157,15 @@
     <t xml:space="preserve">497190</t>
   </si>
   <si>
-    <t xml:space="preserve">CLEC18B</t>
+    <t xml:space="preserve">CLEC18B;CLEC18C</t>
   </si>
   <si>
     <t xml:space="preserve">57687</t>
   </si>
   <si>
+    <t xml:space="preserve">VAT1L</t>
+  </si>
+  <si>
     <t xml:space="preserve">4094</t>
   </si>
   <si>
@@ -1193,6 +1229,9 @@
     <t xml:space="preserve">4836</t>
   </si>
   <si>
+    <t xml:space="preserve">NMT1</t>
+  </si>
+  <si>
     <t xml:space="preserve">113026</t>
   </si>
   <si>
@@ -1313,6 +1352,9 @@
     <t xml:space="preserve">10272</t>
   </si>
   <si>
+    <t xml:space="preserve">FSTL3</t>
+  </si>
+  <si>
     <t xml:space="preserve">10975</t>
   </si>
   <si>
@@ -1376,6 +1418,9 @@
     <t xml:space="preserve">126299</t>
   </si>
   <si>
+    <t xml:space="preserve">ZNF428</t>
+  </si>
+  <si>
     <t xml:space="preserve">602</t>
   </si>
   <si>
@@ -1481,6 +1526,9 @@
     <t xml:space="preserve">3625</t>
   </si>
   <si>
+    <t xml:space="preserve">INHBB</t>
+  </si>
+  <si>
     <t xml:space="preserve">2995</t>
   </si>
   <si>
@@ -1754,6 +1802,9 @@
     <t xml:space="preserve">11344</t>
   </si>
   <si>
+    <t xml:space="preserve">TWF2</t>
+  </si>
+  <si>
     <t xml:space="preserve">7086</t>
   </si>
   <si>
@@ -1793,6 +1844,9 @@
     <t xml:space="preserve">55081</t>
   </si>
   <si>
+    <t xml:space="preserve">IFT57</t>
+  </si>
+  <si>
     <t xml:space="preserve">151887</t>
   </si>
   <si>
@@ -1904,6 +1958,9 @@
     <t xml:space="preserve">5188</t>
   </si>
   <si>
+    <t xml:space="preserve">GATB</t>
+  </si>
+  <si>
     <t xml:space="preserve">6307</t>
   </si>
   <si>
@@ -1949,6 +2006,9 @@
     <t xml:space="preserve">134121</t>
   </si>
   <si>
+    <t xml:space="preserve">C5orf49</t>
+  </si>
+  <si>
     <t xml:space="preserve">3157</t>
   </si>
   <si>
@@ -1982,6 +2042,9 @@
     <t xml:space="preserve">7025</t>
   </si>
   <si>
+    <t xml:space="preserve">NR2F1</t>
+  </si>
+  <si>
     <t xml:space="preserve">1105</t>
   </si>
   <si>
@@ -2135,6 +2198,9 @@
     <t xml:space="preserve">3400</t>
   </si>
   <si>
+    <t xml:space="preserve">ID4</t>
+  </si>
+  <si>
     <t xml:space="preserve">10537</t>
   </si>
   <si>
@@ -2240,6 +2306,9 @@
     <t xml:space="preserve">51696</t>
   </si>
   <si>
+    <t xml:space="preserve">HECA</t>
+  </si>
+  <si>
     <t xml:space="preserve">6648</t>
   </si>
   <si>
@@ -2291,9 +2360,6 @@
     <t xml:space="preserve">155370</t>
   </si>
   <si>
-    <t xml:space="preserve">SBDSP1</t>
-  </si>
-  <si>
     <t xml:space="preserve">3984</t>
   </si>
   <si>
@@ -2393,6 +2459,9 @@
     <t xml:space="preserve">4708</t>
   </si>
   <si>
+    <t xml:space="preserve">NDUFB2</t>
+  </si>
+  <si>
     <t xml:space="preserve">26047</t>
   </si>
   <si>
@@ -2498,6 +2567,9 @@
     <t xml:space="preserve">51101</t>
   </si>
   <si>
+    <t xml:space="preserve">ZC2HC1A</t>
+  </si>
+  <si>
     <t xml:space="preserve">6383</t>
   </si>
   <si>
@@ -2561,6 +2633,9 @@
     <t xml:space="preserve">23137</t>
   </si>
   <si>
+    <t xml:space="preserve">SMC5</t>
+  </si>
+  <si>
     <t xml:space="preserve">687</t>
   </si>
   <si>
@@ -2588,6 +2663,9 @@
     <t xml:space="preserve">401548</t>
   </si>
   <si>
+    <t xml:space="preserve">SNX30</t>
+  </si>
+  <si>
     <t xml:space="preserve">5998</t>
   </si>
   <si>
@@ -2597,6 +2675,9 @@
     <t xml:space="preserve">399665</t>
   </si>
   <si>
+    <t xml:space="preserve">FAM102A</t>
+  </si>
+  <si>
     <t xml:space="preserve">80142</t>
   </si>
   <si>
@@ -2616,6 +2697,9 @@
   </si>
   <si>
     <t xml:space="preserve">84814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLPP7</t>
   </si>
   <si>
     <t xml:space="preserve">1289</t>
@@ -3998,7 +4082,9 @@
       <c r="A50" t="s">
         <v>101</v>
       </c>
-      <c r="B50"/>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
       <c r="C50" t="n">
         <v>-2.42602877476103</v>
       </c>
@@ -4014,10 +4100,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" t="n">
         <v>-2.00642460298349</v>
@@ -4034,10 +4120,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C52" t="n">
         <v>2.1449605636775</v>
@@ -4054,10 +4140,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" t="n">
         <v>1.19724001259895</v>
@@ -4074,10 +4160,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" t="n">
         <v>3.18007764916993</v>
@@ -4094,10 +4180,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C55" t="n">
         <v>1.06158881647991</v>
@@ -4114,10 +4200,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C56" t="n">
         <v>1.11418604070903</v>
@@ -4134,10 +4220,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C57" t="n">
         <v>0.900581970719871</v>
@@ -4154,10 +4240,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C58" t="n">
         <v>-1.55893077290952</v>
@@ -4174,10 +4260,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C59" t="n">
         <v>2.29882918634942</v>
@@ -4194,10 +4280,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C60" t="n">
         <v>1.45613755318893</v>
@@ -4214,10 +4300,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C61" t="n">
         <v>1.1413653608334</v>
@@ -4234,10 +4320,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C62" t="n">
         <v>-0.543695996664137</v>
@@ -4254,10 +4340,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C63" t="n">
         <v>-1.89995692964691</v>
@@ -4274,10 +4360,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C64" t="n">
         <v>6.82275282707387</v>
@@ -4294,10 +4380,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C65" t="n">
         <v>-1.80514850514018</v>
@@ -4314,10 +4400,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C66" t="n">
         <v>1.21672694190115</v>
@@ -4334,10 +4420,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C67" t="n">
         <v>-2.11953616868789</v>
@@ -4354,10 +4440,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C68" t="n">
         <v>-4.85961337855973</v>
@@ -4374,10 +4460,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C69" t="n">
         <v>-0.522907842759004</v>
@@ -4394,10 +4480,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C70" t="n">
         <v>0.891682411578996</v>
@@ -4414,10 +4500,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C71" t="n">
         <v>1.5401151202326</v>
@@ -4434,10 +4520,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C72" t="n">
         <v>-1.19627682479003</v>
@@ -4454,10 +4540,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C73" t="n">
         <v>-1.13984652036163</v>
@@ -4474,10 +4560,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C74" t="n">
         <v>1.24096659925343</v>
@@ -4494,10 +4580,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C75" t="n">
         <v>1.02708987730119</v>
@@ -4514,10 +4600,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C76" t="n">
         <v>0.829903426334239</v>
@@ -4534,10 +4620,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C77" t="n">
         <v>0.805802794916844</v>
@@ -4554,10 +4640,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C78" t="n">
         <v>-0.521209692316697</v>
@@ -4574,10 +4660,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C79" t="n">
         <v>-3.12632002937899</v>
@@ -4594,10 +4680,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C80" t="n">
         <v>1.17808329115634</v>
@@ -4614,10 +4700,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C81" t="n">
         <v>2.17415075680907</v>
@@ -4634,7 +4720,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B82"/>
       <c r="C82" t="n">
@@ -4652,10 +4738,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C83" t="n">
         <v>1.11441234048427</v>
@@ -4672,10 +4758,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C84" t="n">
         <v>-1.83842407604773</v>
@@ -4692,10 +4778,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C85" t="n">
         <v>-1.27352321103282</v>
@@ -4712,10 +4798,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C86" t="n">
         <v>-0.992775090065446</v>
@@ -4732,10 +4818,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C87" t="n">
         <v>0.888419383077766</v>
@@ -4752,10 +4838,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C88" t="n">
         <v>-1.3784786175604</v>
@@ -4772,10 +4858,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C89" t="n">
         <v>-0.946486154151322</v>
@@ -4792,10 +4878,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90" t="n">
         <v>-0.601012842172202</v>
@@ -4812,10 +4898,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C91" t="n">
         <v>-1.58642536470614</v>
@@ -4832,10 +4918,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C92" t="n">
         <v>-0.719669142339852</v>
@@ -4852,9 +4938,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>185</v>
-      </c>
-      <c r="B93"/>
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
       <c r="C93" t="n">
         <v>-0.92472061586934</v>
       </c>
@@ -4870,10 +4958,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B94" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C94" t="n">
         <v>-0.854056350701769</v>
@@ -4890,10 +4978,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C95" t="n">
         <v>-1.16757128572771</v>
@@ -4910,10 +4998,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C96" t="n">
         <v>-0.482261118004573</v>
@@ -4930,10 +5018,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B97" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C97" t="n">
         <v>-0.755418760751061</v>
@@ -4950,10 +5038,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C98" t="n">
         <v>2.28058255400148</v>
@@ -4970,10 +5058,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B99" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C99" t="n">
         <v>1.07654923910967</v>
@@ -4990,10 +5078,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C100" t="n">
         <v>1.19831925829351</v>
@@ -5010,10 +5098,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C101" t="n">
         <v>1.54480860107015</v>
@@ -5030,10 +5118,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C102" t="n">
         <v>-1.95152559067121</v>
@@ -5050,10 +5138,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B103" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C103" t="n">
         <v>-2.19787052457894</v>
@@ -5070,10 +5158,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B104" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C104" t="n">
         <v>-2.00061153744184</v>
@@ -5090,10 +5178,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B105" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C105" t="n">
         <v>-0.659662098191631</v>
@@ -5110,10 +5198,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B106" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C106" t="n">
         <v>0.667528500270441</v>
@@ -5130,10 +5218,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C107" t="n">
         <v>-0.52486868706925</v>
@@ -5150,10 +5238,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B108" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C108" t="n">
         <v>-1.12682974048459</v>
@@ -5170,10 +5258,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B109" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C109" t="n">
         <v>-1.13956136404222</v>
@@ -5190,10 +5278,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B110" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C110" t="n">
         <v>1.38348933073603</v>
@@ -5210,10 +5298,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C111" t="n">
         <v>1.60138935114284</v>
@@ -5230,10 +5318,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B112" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C112" t="n">
         <v>1.37701827792745</v>
@@ -5250,10 +5338,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B113" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C113" t="n">
         <v>0.77236108675288</v>
@@ -5270,10 +5358,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B114" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C114" t="n">
         <v>4.12367198571213</v>
@@ -5290,10 +5378,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B115" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C115" t="n">
         <v>3.97361374807897</v>
@@ -5310,10 +5398,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B116" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C116" t="n">
         <v>1.35227721214221</v>
@@ -5330,10 +5418,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C117" t="n">
         <v>2.36213464751458</v>
@@ -5350,9 +5438,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>234</v>
-      </c>
-      <c r="B118"/>
+        <v>236</v>
+      </c>
+      <c r="B118" t="s">
+        <v>237</v>
+      </c>
       <c r="C118" t="n">
         <v>-3.16843619081596</v>
       </c>
@@ -5368,10 +5458,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B119" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C119" t="n">
         <v>-0.772055661742034</v>
@@ -5388,10 +5478,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B120" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C120" t="n">
         <v>-1.14184673326188</v>
@@ -5408,10 +5498,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B121" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C121" t="n">
         <v>-4.40183426225538</v>
@@ -5428,10 +5518,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B122" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C122" t="n">
         <v>-0.85359414105144</v>
@@ -5448,10 +5538,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B123" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C123" t="n">
         <v>0.518506935919741</v>
@@ -5468,10 +5558,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B124" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C124" t="n">
         <v>1.35792871021318</v>
@@ -5488,10 +5578,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B125" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C125" t="n">
         <v>-1.23229749539446</v>
@@ -5508,10 +5598,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B126" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C126" t="n">
         <v>1.61900684937638</v>
@@ -5528,10 +5618,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B127" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C127" t="n">
         <v>1.39546450920248</v>
@@ -5548,10 +5638,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B128" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C128" t="n">
         <v>1.28808996306585</v>
@@ -5568,9 +5658,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>255</v>
-      </c>
-      <c r="B129"/>
+        <v>258</v>
+      </c>
+      <c r="B129" t="s">
+        <v>259</v>
+      </c>
       <c r="C129" t="n">
         <v>-1.20014401974343</v>
       </c>
@@ -5586,10 +5678,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B130" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C130" t="n">
         <v>-1.39718470738625</v>
@@ -5606,10 +5698,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B131" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C131" t="n">
         <v>-6.06555263910366</v>
@@ -5626,10 +5718,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B132" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C132" t="n">
         <v>-0.675346654010989</v>
@@ -5646,10 +5738,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B133" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C133" t="n">
         <v>-0.770923469081864</v>
@@ -5666,10 +5758,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B134" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C134" t="n">
         <v>1.42718673082448</v>
@@ -5686,10 +5778,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B135" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C135" t="n">
         <v>1.97381664986328</v>
@@ -5706,10 +5798,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B136" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C136" t="n">
         <v>2.40266715175981</v>
@@ -5726,10 +5818,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B137" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C137" t="n">
         <v>1.19885799967036</v>
@@ -5746,10 +5838,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B138" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C138" t="n">
         <v>0.893043749057273</v>
@@ -5766,10 +5858,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B139" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C139" t="n">
         <v>-0.752241763842992</v>
@@ -5786,10 +5878,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B140" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C140" t="n">
         <v>-0.881111984238882</v>
@@ -5806,10 +5898,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B141" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C141" t="n">
         <v>1.58781652166858</v>
@@ -5826,10 +5918,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B142" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C142" t="n">
         <v>0.866875011172992</v>
@@ -5846,10 +5938,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B143" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C143" t="n">
         <v>5.22395302845047</v>
@@ -5866,10 +5958,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B144" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C144" t="n">
         <v>1.00989663621694</v>
@@ -5886,10 +5978,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B145" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C145" t="n">
         <v>-4.17244426513542</v>
@@ -5906,10 +5998,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B146" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C146" t="n">
         <v>1.10319735235772</v>
@@ -5926,10 +6018,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B147" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C147" t="n">
         <v>-0.471560236933549</v>
@@ -5946,10 +6038,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B148" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C148" t="n">
         <v>-2.04349817227924</v>
@@ -5966,10 +6058,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B149" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C149" t="n">
         <v>1.84376881583311</v>
@@ -5986,10 +6078,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B150" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C150" t="n">
         <v>7.35868055437134</v>
@@ -6006,10 +6098,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B151" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C151" t="n">
         <v>-2.38061424727894</v>
@@ -6026,10 +6118,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B152" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C152" t="n">
         <v>-2.8787480874686</v>
@@ -6046,10 +6138,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B153" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C153" t="n">
         <v>2.12031310368643</v>
@@ -6066,10 +6158,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C154" t="n">
         <v>-0.637174880911508</v>
@@ -6086,10 +6178,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B155" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C155" t="n">
         <v>0.702676741824479</v>
@@ -6106,9 +6198,11 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>308</v>
-      </c>
-      <c r="B156"/>
+        <v>312</v>
+      </c>
+      <c r="B156" t="s">
+        <v>313</v>
+      </c>
       <c r="C156" t="n">
         <v>-0.785817978868756</v>
       </c>
@@ -6124,10 +6218,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B157" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C157" t="n">
         <v>-1.09280971200272</v>
@@ -6144,9 +6238,11 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>311</v>
-      </c>
-      <c r="B158"/>
+        <v>316</v>
+      </c>
+      <c r="B158" t="s">
+        <v>317</v>
+      </c>
       <c r="C158" t="n">
         <v>-1.14153789656221</v>
       </c>
@@ -6162,10 +6258,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B159" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C159" t="n">
         <v>-1.11379246972145</v>
@@ -6182,9 +6278,11 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>314</v>
-      </c>
-      <c r="B160"/>
+        <v>320</v>
+      </c>
+      <c r="B160" t="s">
+        <v>321</v>
+      </c>
       <c r="C160" t="n">
         <v>-0.859997798759778</v>
       </c>
@@ -6200,9 +6298,11 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>315</v>
-      </c>
-      <c r="B161"/>
+        <v>322</v>
+      </c>
+      <c r="B161" t="s">
+        <v>323</v>
+      </c>
       <c r="C161" t="n">
         <v>1.54210049405884</v>
       </c>
@@ -6218,10 +6318,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B162" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C162" t="n">
         <v>-2.03717495522527</v>
@@ -6238,10 +6338,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B163" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C163" t="n">
         <v>1.7083930520001</v>
@@ -6258,10 +6358,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B164" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C164" t="n">
         <v>1.63051636883131</v>
@@ -6278,10 +6378,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B165" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C165" t="n">
         <v>0.902563740201351</v>
@@ -6298,10 +6398,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B166" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C166" t="n">
         <v>1.08714315292773</v>
@@ -6318,10 +6418,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B167" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C167" t="n">
         <v>0.698559077249349</v>
@@ -6338,10 +6438,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B168" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C168" t="n">
         <v>-1.06509056508999</v>
@@ -6358,10 +6458,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B169" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C169" t="n">
         <v>-1.04792118989496</v>
@@ -6378,9 +6478,11 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>332</v>
-      </c>
-      <c r="B170"/>
+        <v>340</v>
+      </c>
+      <c r="B170" t="s">
+        <v>341</v>
+      </c>
       <c r="C170" t="n">
         <v>-1.19519715426088</v>
       </c>
@@ -6396,10 +6498,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B171" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C171" t="n">
         <v>-1.55586292762919</v>
@@ -6416,10 +6518,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B172" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="C172" t="n">
         <v>-1.19751670714345</v>
@@ -6436,10 +6538,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B173" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C173" t="n">
         <v>1.2631768010866</v>
@@ -6456,10 +6558,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B174" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C174" t="n">
         <v>-1.39149876980095</v>
@@ -6476,10 +6578,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B175" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C175" t="n">
         <v>-0.78779034008532</v>
@@ -6496,10 +6598,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B176" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="C176" t="n">
         <v>-0.914929846814617</v>
@@ -6516,10 +6618,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B177" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C177" t="n">
         <v>0.670771188640121</v>
@@ -6536,10 +6638,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B178" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C178" t="n">
         <v>2.73570026965809</v>
@@ -6556,10 +6658,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B179" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C179" t="n">
         <v>0.859832454449797</v>
@@ -6576,10 +6678,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B180" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C180" t="n">
         <v>-1.47915432313558</v>
@@ -6596,10 +6698,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B181" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C181" t="n">
         <v>-0.81998179647403</v>
@@ -6616,10 +6718,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B182" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C182" t="n">
         <v>1.23088986304152</v>
@@ -6636,9 +6738,11 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>357</v>
-      </c>
-      <c r="B183"/>
+        <v>366</v>
+      </c>
+      <c r="B183" t="s">
+        <v>367</v>
+      </c>
       <c r="C183" t="n">
         <v>-0.844790665196926</v>
       </c>
@@ -6654,10 +6758,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B184" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="C184" t="n">
         <v>4.95813353919591</v>
@@ -6674,10 +6778,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B185" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C185" t="n">
         <v>-1.48644413214348</v>
@@ -6694,10 +6798,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B186" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C186" t="n">
         <v>-0.619815861326877</v>
@@ -6714,9 +6818,11 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>364</v>
-      </c>
-      <c r="B187"/>
+        <v>374</v>
+      </c>
+      <c r="B187" t="s">
+        <v>375</v>
+      </c>
       <c r="C187" t="n">
         <v>-1.14189575365466</v>
       </c>
@@ -6732,10 +6838,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="B188" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="C188" t="n">
         <v>-0.837510217255558</v>
@@ -6752,10 +6858,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B189" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C189" t="n">
         <v>-0.828111509185411</v>
@@ -6772,10 +6878,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="B190" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C190" t="n">
         <v>-1.81304414612226</v>
@@ -6792,9 +6898,11 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>371</v>
-      </c>
-      <c r="B191"/>
+        <v>382</v>
+      </c>
+      <c r="B191" t="s">
+        <v>383</v>
+      </c>
       <c r="C191" t="n">
         <v>1.25381535467684</v>
       </c>
@@ -6810,10 +6918,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B192" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C192" t="n">
         <v>0.910108252043435</v>
@@ -6830,10 +6938,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="B193" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C193" t="n">
         <v>-1.8537784288291</v>
@@ -6850,10 +6958,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="B194" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C194" t="n">
         <v>-0.739413023111552</v>
@@ -6870,10 +6978,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="B195" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C195" t="n">
         <v>-2.02516994070025</v>
@@ -6890,10 +6998,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B196" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C196" t="n">
         <v>-1.13906857306865</v>
@@ -6910,10 +7018,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="B197" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C197" t="n">
         <v>-0.786273323245748</v>
@@ -6930,10 +7038,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="B198" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="C198" t="n">
         <v>0.696741864007805</v>
@@ -6950,10 +7058,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B199" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="C199" t="n">
         <v>6.4094460281811</v>
@@ -6970,10 +7078,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B200" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C200" t="n">
         <v>-3.10370675080763</v>
@@ -6990,10 +7098,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B201" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="C201" t="n">
         <v>-0.905278833162382</v>
@@ -7010,9 +7118,11 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>392</v>
-      </c>
-      <c r="B202"/>
+        <v>404</v>
+      </c>
+      <c r="B202" t="s">
+        <v>405</v>
+      </c>
       <c r="C202" t="n">
         <v>-0.602368439740773</v>
       </c>
@@ -7028,10 +7138,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="B203" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C203" t="n">
         <v>-0.745087710398146</v>
@@ -7048,7 +7158,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="B204"/>
       <c r="C204" t="n">
@@ -7066,10 +7176,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="B205" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="C205" t="n">
         <v>-1.10462415573668</v>
@@ -7086,10 +7196,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="B206" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="C206" t="n">
         <v>-1.30653867596157</v>
@@ -7106,10 +7216,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="B207" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="C207" t="n">
         <v>0.471721567834818</v>
@@ -7126,10 +7236,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="B208" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="C208" t="n">
         <v>1.97279437535158</v>
@@ -7146,10 +7256,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="B209" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="C209" t="n">
         <v>0.645792109541765</v>
@@ -7166,10 +7276,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="B210" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="C210" t="n">
         <v>-1.21205348446656</v>
@@ -7186,10 +7296,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B211" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="C211" t="n">
         <v>-0.553659681070774</v>
@@ -7206,10 +7316,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="B212" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="C212" t="n">
         <v>-2.00171186278708</v>
@@ -7226,10 +7336,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="B213" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="C213" t="n">
         <v>-0.670642527806223</v>
@@ -7246,10 +7356,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="B214" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="C214" t="n">
         <v>-0.752370882022021</v>
@@ -7266,10 +7376,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="B215" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="C215" t="n">
         <v>-0.454385363329007</v>
@@ -7286,10 +7396,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="B216" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="C216" t="n">
         <v>-0.72358004179653</v>
@@ -7306,10 +7416,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="B217" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="C217" t="n">
         <v>1.30578413954158</v>
@@ -7326,10 +7436,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="B218" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="C218" t="n">
         <v>1.05575378025215</v>
@@ -7346,10 +7456,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="B219" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="C219" t="n">
         <v>-1.40804169219617</v>
@@ -7366,10 +7476,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="B220" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="C220" t="n">
         <v>2.33321873542014</v>
@@ -7386,10 +7496,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="B221" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="C221" t="n">
         <v>0.890820206338501</v>
@@ -7406,10 +7516,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="B222" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="C222" t="n">
         <v>1.32814765800552</v>
@@ -7426,9 +7536,11 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>432</v>
-      </c>
-      <c r="B223"/>
+        <v>445</v>
+      </c>
+      <c r="B223" t="s">
+        <v>446</v>
+      </c>
       <c r="C223" t="n">
         <v>-1.34800494002635</v>
       </c>
@@ -7444,10 +7556,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="B224" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="C224" t="n">
         <v>-0.473600711564721</v>
@@ -7464,10 +7576,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="B225" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="C225" t="n">
         <v>-0.736216522703925</v>
@@ -7484,10 +7596,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="B226" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="C226" t="n">
         <v>1.19748817807365</v>
@@ -7504,10 +7616,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="B227" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="C227" t="n">
         <v>-1.41297258919504</v>
@@ -7524,10 +7636,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="B228" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="C228" t="n">
         <v>-0.666289603752277</v>
@@ -7544,10 +7656,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="B229" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="C229" t="n">
         <v>-1.03023464765261</v>
@@ -7564,10 +7676,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="B230" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="C230" t="n">
         <v>-1.1297056817288</v>
@@ -7584,10 +7696,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B231" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C231" t="n">
         <v>1.72124037849855</v>
@@ -7604,10 +7716,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="B232" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="C232" t="n">
         <v>-0.714571185785378</v>
@@ -7624,10 +7736,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="B233" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="C233" t="n">
         <v>2.70615020352478</v>
@@ -7644,9 +7756,11 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>453</v>
-      </c>
-      <c r="B234"/>
+        <v>467</v>
+      </c>
+      <c r="B234" t="s">
+        <v>468</v>
+      </c>
       <c r="C234" t="n">
         <v>-0.516454031818762</v>
       </c>
@@ -7662,10 +7776,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="B235" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="C235" t="n">
         <v>-0.756237795413143</v>
@@ -7682,10 +7796,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="B236" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="C236" t="n">
         <v>-0.847876925972413</v>
@@ -7702,10 +7816,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="B237" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="C237" t="n">
         <v>-1.93478674914761</v>
@@ -7722,10 +7836,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="B238" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="C238" t="n">
         <v>-1.16546319057221</v>
@@ -7742,10 +7856,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="B239" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="C239" t="n">
         <v>-0.910638264657986</v>
@@ -7762,10 +7876,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="B240" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="C240" t="n">
         <v>-2.01104881740657</v>
@@ -7782,10 +7896,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="B241" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="C241" t="n">
         <v>-0.510474080864073</v>
@@ -7802,10 +7916,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="B242" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="C242" t="n">
         <v>-1.94263746160262</v>
@@ -7822,10 +7936,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="B243" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="C243" t="n">
         <v>-0.570585708528262</v>
@@ -7842,10 +7956,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="B244" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="C244" t="n">
         <v>1.19632648237222</v>
@@ -7862,10 +7976,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="B245" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="C245" t="n">
         <v>1.08571029586993</v>
@@ -7882,10 +7996,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="B246" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="C246" t="n">
         <v>-1.16013810389115</v>
@@ -7902,10 +8016,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="B247" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C247" t="n">
         <v>0.634366971147414</v>
@@ -7922,10 +8036,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="B248" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="C248" t="n">
         <v>0.629315399757497</v>
@@ -7942,10 +8056,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="B249" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C249" t="n">
         <v>0.992907752346632</v>
@@ -7962,10 +8076,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="B250" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="C250" t="n">
         <v>-0.998690865518599</v>
@@ -7982,10 +8096,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="B251" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="C251" t="n">
         <v>1.04477759179197</v>
@@ -8002,9 +8116,11 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>488</v>
-      </c>
-      <c r="B252"/>
+        <v>503</v>
+      </c>
+      <c r="B252" t="s">
+        <v>504</v>
+      </c>
       <c r="C252" t="n">
         <v>-0.933340638841492</v>
       </c>
@@ -8020,10 +8136,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="B253" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="C253" t="n">
         <v>-1.78906664648984</v>
@@ -8040,10 +8156,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="B254" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="C254" t="n">
         <v>4.35575493120873</v>
@@ -8060,10 +8176,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="B255" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="C255" t="n">
         <v>2.44410672000655</v>
@@ -8080,10 +8196,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="B256" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="C256" t="n">
         <v>1.07864945580925</v>
@@ -8100,10 +8216,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="B257" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="C257" t="n">
         <v>0.638094060392586</v>
@@ -8120,10 +8236,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="B258" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="C258" t="n">
         <v>1.98235433435775</v>
@@ -8140,10 +8256,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="B259" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="C259" t="n">
         <v>0.900456800927603</v>
@@ -8160,10 +8276,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="B260" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="C260" t="n">
         <v>1.35612719426545</v>
@@ -8180,10 +8296,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="B261" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="C261" t="n">
         <v>1.79689833097226</v>
@@ -8200,10 +8316,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="B262" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="C262" t="n">
         <v>2.47378154770938</v>
@@ -8220,10 +8336,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="B263" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="C263" t="n">
         <v>0.66370167635341</v>
@@ -8240,10 +8356,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="B264" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="C264" t="n">
         <v>-0.778565513036182</v>
@@ -8260,10 +8376,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="B265" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="C265" t="n">
         <v>-2.1399895381843</v>
@@ -8280,10 +8396,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="B266" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="C266" t="n">
         <v>-0.937505972271449</v>
@@ -8300,10 +8416,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="B267" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="C267" t="n">
         <v>1.25641926297112</v>
@@ -8320,10 +8436,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="B268" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="C268" t="n">
         <v>0.729654077245813</v>
@@ -8340,10 +8456,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="B269" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="C269" t="n">
         <v>1.667150057012</v>
@@ -8360,10 +8476,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="B270" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="C270" t="n">
         <v>2.64973934947229</v>
@@ -8380,10 +8496,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="B271" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="C271" t="n">
         <v>-1.126401546285</v>
@@ -8400,10 +8516,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="B272" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="C272" t="n">
         <v>2.70923633552172</v>
@@ -8420,10 +8536,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="B273" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="C273" t="n">
         <v>-1.11070461165899</v>
@@ -8440,10 +8556,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="B274" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="C274" t="n">
         <v>-1.70972371359875</v>
@@ -8460,10 +8576,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="B275" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="C275" t="n">
         <v>0.651686282889621</v>
@@ -8480,10 +8596,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="B276" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="C276" t="n">
         <v>-0.718548772180261</v>
@@ -8500,10 +8616,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="B277" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="C277" t="n">
         <v>-0.836159871975635</v>
@@ -8520,10 +8636,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="B278" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="C278" t="n">
         <v>1.51786839073429</v>
@@ -8540,10 +8656,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="B279" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="C279" t="n">
         <v>1.12215613844871</v>
@@ -8560,10 +8676,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="B280" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="C280" t="n">
         <v>1.10342905312922</v>
@@ -8580,10 +8696,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="B281" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="C281" t="n">
         <v>0.535332539855404</v>
@@ -8600,10 +8716,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="B282" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="C282" t="n">
         <v>-0.855095595062901</v>
@@ -8620,10 +8736,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="B283" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="C283" t="n">
         <v>-0.746311430610669</v>
@@ -8640,10 +8756,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="B284" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="C284" t="n">
         <v>-1.83652762171877</v>
@@ -8660,10 +8776,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="B285" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="C285" t="n">
         <v>0.730888339203287</v>
@@ -8680,10 +8796,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="B286" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="C286" t="n">
         <v>-3.6489389953611</v>
@@ -8700,10 +8816,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="B287" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="C287" t="n">
         <v>-1.16700921252819</v>
@@ -8720,10 +8836,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="B288" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="C288" t="n">
         <v>-1.49654951983628</v>
@@ -8740,10 +8856,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="B289" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="C289" t="n">
         <v>-0.460724758277152</v>
@@ -8760,10 +8876,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="B290" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="C290" t="n">
         <v>-2.75797601872336</v>
@@ -8780,10 +8896,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="B291" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="C291" t="n">
         <v>-2.904791879309</v>
@@ -8800,10 +8916,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="B292" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
       <c r="C292" t="n">
         <v>6.85588637389505</v>
@@ -8820,10 +8936,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="B293" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="C293" t="n">
         <v>0.740684004206319</v>
@@ -8840,10 +8956,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="B294" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="C294" t="n">
         <v>-1.2392679188001</v>
@@ -8860,10 +8976,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="B295" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="C295" t="n">
         <v>4.8032429640442</v>
@@ -8880,10 +8996,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="B296" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="C296" t="n">
         <v>-0.902101592229556</v>
@@ -8900,10 +9016,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="B297" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="C297" t="n">
         <v>-1.09181426903162</v>
@@ -8920,9 +9036,11 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>579</v>
-      </c>
-      <c r="B298"/>
+        <v>595</v>
+      </c>
+      <c r="B298" t="s">
+        <v>596</v>
+      </c>
       <c r="C298" t="n">
         <v>-0.803544913053916</v>
       </c>
@@ -8938,10 +9056,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="B299" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="C299" t="n">
         <v>-0.943867639264064</v>
@@ -8958,10 +9076,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="B300" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="C300" t="n">
         <v>-1.38196731448492</v>
@@ -8978,10 +9096,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="B301" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="C301" t="n">
         <v>1.19865803730707</v>
@@ -8998,10 +9116,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="B302" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="C302" t="n">
         <v>1.61303569842682</v>
@@ -9018,10 +9136,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="B303" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="C303" t="n">
         <v>1.14241843923889</v>
@@ -9038,10 +9156,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="B304" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="C304" t="n">
         <v>0.74969401916316</v>
@@ -9058,9 +9176,11 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>592</v>
-      </c>
-      <c r="B305"/>
+        <v>609</v>
+      </c>
+      <c r="B305" t="s">
+        <v>610</v>
+      </c>
       <c r="C305" t="n">
         <v>1.06778313773859</v>
       </c>
@@ -9076,10 +9196,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="B306" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="C306" t="n">
         <v>0.689724215502384</v>
@@ -9096,10 +9216,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="B307" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="C307" t="n">
         <v>-0.586082199746329</v>
@@ -9116,10 +9236,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="B308" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="C308" t="n">
         <v>-0.622185495965476</v>
@@ -9136,10 +9256,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="B309" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="C309" t="n">
         <v>1.55908670649265</v>
@@ -9156,10 +9276,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="B310" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="C310" t="n">
         <v>-1.89272706857049</v>
@@ -9176,10 +9296,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="B311" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="C311" t="n">
         <v>1.21074434278575</v>
@@ -9196,10 +9316,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="B312" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="C312" t="n">
         <v>-1.58655788524942</v>
@@ -9216,10 +9336,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="B313" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="C313" t="n">
         <v>1.84628667956113</v>
@@ -9236,10 +9356,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="B314" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="C314" t="n">
         <v>-3.36092889086833</v>
@@ -9256,10 +9376,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="B315" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="C315" t="n">
         <v>-0.976222712221679</v>
@@ -9276,10 +9396,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="B316" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="C316" t="n">
         <v>1.80470819394995</v>
@@ -9296,10 +9416,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="B317" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="C317" t="n">
         <v>0.520194478814636</v>
@@ -9316,10 +9436,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="B318" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="C318" t="n">
         <v>0.596499589232951</v>
@@ -9336,10 +9456,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="B319" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="C319" t="n">
         <v>1.5668307651022</v>
@@ -9356,10 +9476,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="B320" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="C320" t="n">
         <v>1.25618163077091</v>
@@ -9376,10 +9496,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="B321" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="C321" t="n">
         <v>1.48424298594862</v>
@@ -9396,10 +9516,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="B322" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="C322" t="n">
         <v>-0.81854579468901</v>
@@ -9416,10 +9536,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="B323" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="C323" t="n">
         <v>0.893399394578766</v>
@@ -9436,9 +9556,11 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>629</v>
-      </c>
-      <c r="B324"/>
+        <v>647</v>
+      </c>
+      <c r="B324" t="s">
+        <v>648</v>
+      </c>
       <c r="C324" t="n">
         <v>-0.969681135505435</v>
       </c>
@@ -9454,10 +9576,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="B325" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="C325" t="n">
         <v>0.820220843555254</v>
@@ -9474,10 +9596,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="B326" t="s">
-        <v>633</v>
+        <v>652</v>
       </c>
       <c r="C326" t="n">
         <v>0.820347687118398</v>
@@ -9494,10 +9616,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="B327" t="s">
-        <v>635</v>
+        <v>654</v>
       </c>
       <c r="C327" t="n">
         <v>1.39022995018014</v>
@@ -9514,10 +9636,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>636</v>
+        <v>655</v>
       </c>
       <c r="B328" t="s">
-        <v>637</v>
+        <v>656</v>
       </c>
       <c r="C328" t="n">
         <v>1.50772516485341</v>
@@ -9534,10 +9656,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
       <c r="B329" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
       <c r="C329" t="n">
         <v>0.777494641424204</v>
@@ -9554,10 +9676,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="B330" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="C330" t="n">
         <v>0.813106747511481</v>
@@ -9574,10 +9696,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
       <c r="B331" t="s">
-        <v>643</v>
+        <v>662</v>
       </c>
       <c r="C331" t="n">
         <v>1.08534094504734</v>
@@ -9594,9 +9716,11 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>644</v>
-      </c>
-      <c r="B332"/>
+        <v>663</v>
+      </c>
+      <c r="B332" t="s">
+        <v>664</v>
+      </c>
       <c r="C332" t="n">
         <v>1.53271794325116</v>
       </c>
@@ -9612,10 +9736,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="B333" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="C333" t="n">
         <v>0.73918847467381</v>
@@ -9632,10 +9756,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="B334" t="s">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="C334" t="n">
         <v>0.827298013988851</v>
@@ -9652,10 +9776,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="B335" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="C335" t="n">
         <v>0.905510844685202</v>
@@ -9672,10 +9796,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="B336" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="C336" t="n">
         <v>0.90816831766703</v>
@@ -9692,10 +9816,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="B337" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="C337" t="n">
         <v>2.34436466305755</v>
@@ -9712,9 +9836,11 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>655</v>
-      </c>
-      <c r="B338"/>
+        <v>675</v>
+      </c>
+      <c r="B338" t="s">
+        <v>676</v>
+      </c>
       <c r="C338" t="n">
         <v>-0.806626087216828</v>
       </c>
@@ -9730,10 +9856,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>656</v>
+        <v>677</v>
       </c>
       <c r="B339" t="s">
-        <v>657</v>
+        <v>678</v>
       </c>
       <c r="C339" t="n">
         <v>1.22426017431262</v>
@@ -9750,10 +9876,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>658</v>
+        <v>679</v>
       </c>
       <c r="B340" t="s">
-        <v>659</v>
+        <v>680</v>
       </c>
       <c r="C340" t="n">
         <v>2.44080898088477</v>
@@ -9770,10 +9896,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>660</v>
+        <v>681</v>
       </c>
       <c r="B341" t="s">
-        <v>661</v>
+        <v>682</v>
       </c>
       <c r="C341" t="n">
         <v>1.04108737661461</v>
@@ -9790,10 +9916,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>662</v>
+        <v>683</v>
       </c>
       <c r="B342" t="s">
-        <v>663</v>
+        <v>684</v>
       </c>
       <c r="C342" t="n">
         <v>1.47327847843507</v>
@@ -9810,10 +9936,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>664</v>
+        <v>685</v>
       </c>
       <c r="B343" t="s">
-        <v>665</v>
+        <v>686</v>
       </c>
       <c r="C343" t="n">
         <v>1.17722390826419</v>
@@ -9830,10 +9956,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>666</v>
+        <v>687</v>
       </c>
       <c r="B344" t="s">
-        <v>667</v>
+        <v>688</v>
       </c>
       <c r="C344" t="n">
         <v>-0.71529548215412</v>
@@ -9850,10 +9976,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>668</v>
+        <v>689</v>
       </c>
       <c r="B345" t="s">
-        <v>669</v>
+        <v>690</v>
       </c>
       <c r="C345" t="n">
         <v>1.80922522077173</v>
@@ -9870,10 +9996,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>670</v>
+        <v>691</v>
       </c>
       <c r="B346" t="s">
-        <v>671</v>
+        <v>692</v>
       </c>
       <c r="C346" t="n">
         <v>-0.804273136186315</v>
@@ -9890,10 +10016,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>672</v>
+        <v>693</v>
       </c>
       <c r="B347" t="s">
-        <v>673</v>
+        <v>694</v>
       </c>
       <c r="C347" t="n">
         <v>-0.536112266600231</v>
@@ -9910,10 +10036,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>674</v>
+        <v>695</v>
       </c>
       <c r="B348" t="s">
-        <v>675</v>
+        <v>696</v>
       </c>
       <c r="C348" t="n">
         <v>-1.86875262108358</v>
@@ -9930,10 +10056,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>676</v>
+        <v>697</v>
       </c>
       <c r="B349" t="s">
-        <v>677</v>
+        <v>698</v>
       </c>
       <c r="C349" t="n">
         <v>-1.66827588860614</v>
@@ -9950,10 +10076,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>678</v>
+        <v>699</v>
       </c>
       <c r="B350" t="s">
-        <v>679</v>
+        <v>700</v>
       </c>
       <c r="C350" t="n">
         <v>2.4598151798402</v>
@@ -9970,10 +10096,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>680</v>
+        <v>701</v>
       </c>
       <c r="B351" t="s">
-        <v>681</v>
+        <v>702</v>
       </c>
       <c r="C351" t="n">
         <v>0.87215937888284</v>
@@ -9990,10 +10116,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>682</v>
+        <v>703</v>
       </c>
       <c r="B352" t="s">
-        <v>683</v>
+        <v>704</v>
       </c>
       <c r="C352" t="n">
         <v>-0.969683460649612</v>
@@ -10010,10 +10136,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>684</v>
+        <v>705</v>
       </c>
       <c r="B353" t="s">
-        <v>685</v>
+        <v>706</v>
       </c>
       <c r="C353" t="n">
         <v>-1.52381244246902</v>
@@ -10030,10 +10156,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>686</v>
+        <v>707</v>
       </c>
       <c r="B354" t="s">
-        <v>687</v>
+        <v>708</v>
       </c>
       <c r="C354" t="n">
         <v>0.789655169357626</v>
@@ -10050,10 +10176,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>688</v>
+        <v>709</v>
       </c>
       <c r="B355" t="s">
-        <v>689</v>
+        <v>710</v>
       </c>
       <c r="C355" t="n">
         <v>-0.751137225400093</v>
@@ -10070,10 +10196,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>690</v>
+        <v>711</v>
       </c>
       <c r="B356" t="s">
-        <v>691</v>
+        <v>712</v>
       </c>
       <c r="C356" t="n">
         <v>-0.99894374378214</v>
@@ -10090,10 +10216,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>692</v>
+        <v>713</v>
       </c>
       <c r="B357" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
       <c r="C357" t="n">
         <v>0.808500487439309</v>
@@ -10110,10 +10236,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>694</v>
+        <v>715</v>
       </c>
       <c r="B358" t="s">
-        <v>695</v>
+        <v>716</v>
       </c>
       <c r="C358" t="n">
         <v>2.52686162887019</v>
@@ -10130,10 +10256,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
       <c r="B359" t="s">
-        <v>697</v>
+        <v>718</v>
       </c>
       <c r="C359" t="n">
         <v>-1.85781458790997</v>
@@ -10150,10 +10276,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>698</v>
+        <v>719</v>
       </c>
       <c r="B360" t="s">
-        <v>699</v>
+        <v>720</v>
       </c>
       <c r="C360" t="n">
         <v>6.36173172807174</v>
@@ -10170,10 +10296,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>700</v>
+        <v>721</v>
       </c>
       <c r="B361" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="C361" t="n">
         <v>0.901144675651883</v>
@@ -10190,10 +10316,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>702</v>
+        <v>723</v>
       </c>
       <c r="B362" t="s">
-        <v>703</v>
+        <v>724</v>
       </c>
       <c r="C362" t="n">
         <v>1.27380679942694</v>
@@ -10210,10 +10336,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="B363" t="s">
-        <v>705</v>
+        <v>726</v>
       </c>
       <c r="C363" t="n">
         <v>1.66562036588216</v>
@@ -10230,9 +10356,11 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>706</v>
-      </c>
-      <c r="B364"/>
+        <v>727</v>
+      </c>
+      <c r="B364" t="s">
+        <v>728</v>
+      </c>
       <c r="C364" t="n">
         <v>1.57500609622981</v>
       </c>
@@ -10248,10 +10376,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="B365" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="C365" t="n">
         <v>-2.08732390110252</v>
@@ -10268,10 +10396,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="B366" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="C366" t="n">
         <v>-1.52399661561992</v>
@@ -10288,10 +10416,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="B367" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
       <c r="C367" t="n">
         <v>-1.03576276617025</v>
@@ -10308,10 +10436,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
       <c r="B368" t="s">
-        <v>714</v>
+        <v>736</v>
       </c>
       <c r="C368" t="n">
         <v>-0.887130543615388</v>
@@ -10328,10 +10456,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="B369" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="C369" t="n">
         <v>-0.83168075933447</v>
@@ -10348,10 +10476,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="B370" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="C370" t="n">
         <v>0.692846423833621</v>
@@ -10368,10 +10496,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>719</v>
+        <v>741</v>
       </c>
       <c r="B371" t="s">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="C371" t="n">
         <v>-2.20861890032907</v>
@@ -10388,10 +10516,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="B372" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="C372" t="n">
         <v>-1.17845922070848</v>
@@ -10408,10 +10536,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>723</v>
+        <v>745</v>
       </c>
       <c r="B373" t="s">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="C373" t="n">
         <v>1.26297421882888</v>
@@ -10428,10 +10556,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>725</v>
+        <v>747</v>
       </c>
       <c r="B374" t="s">
-        <v>726</v>
+        <v>748</v>
       </c>
       <c r="C374" t="n">
         <v>1.44449281085301</v>
@@ -10448,10 +10576,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>727</v>
+        <v>749</v>
       </c>
       <c r="B375" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
       <c r="C375" t="n">
         <v>0.627118105008681</v>
@@ -10468,10 +10596,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>729</v>
+        <v>751</v>
       </c>
       <c r="B376" t="s">
-        <v>730</v>
+        <v>752</v>
       </c>
       <c r="C376" t="n">
         <v>1.19349369659549</v>
@@ -10488,10 +10616,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>731</v>
+        <v>753</v>
       </c>
       <c r="B377" t="s">
-        <v>732</v>
+        <v>754</v>
       </c>
       <c r="C377" t="n">
         <v>1.88273774884563</v>
@@ -10508,10 +10636,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>733</v>
+        <v>755</v>
       </c>
       <c r="B378" t="s">
-        <v>734</v>
+        <v>756</v>
       </c>
       <c r="C378" t="n">
         <v>0.718856536730767</v>
@@ -10528,10 +10656,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>735</v>
+        <v>757</v>
       </c>
       <c r="B379" t="s">
-        <v>736</v>
+        <v>758</v>
       </c>
       <c r="C379" t="n">
         <v>1.37657529739979</v>
@@ -10548,10 +10676,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>737</v>
+        <v>759</v>
       </c>
       <c r="B380" t="s">
-        <v>738</v>
+        <v>760</v>
       </c>
       <c r="C380" t="n">
         <v>2.41029501413947</v>
@@ -10568,10 +10696,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>739</v>
+        <v>761</v>
       </c>
       <c r="B381" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
       <c r="C381" t="n">
         <v>2.25754371709628</v>
@@ -10588,9 +10716,11 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>741</v>
-      </c>
-      <c r="B382"/>
+        <v>763</v>
+      </c>
+      <c r="B382" t="s">
+        <v>764</v>
+      </c>
       <c r="C382" t="n">
         <v>2.36732049205629</v>
       </c>
@@ -10606,10 +10736,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>742</v>
+        <v>765</v>
       </c>
       <c r="B383" t="s">
-        <v>743</v>
+        <v>766</v>
       </c>
       <c r="C383" t="n">
         <v>-0.701583474383738</v>
@@ -10626,10 +10756,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>744</v>
+        <v>767</v>
       </c>
       <c r="B384" t="s">
-        <v>745</v>
+        <v>768</v>
       </c>
       <c r="C384" t="n">
         <v>6.25919370450586</v>
@@ -10646,10 +10776,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>746</v>
+        <v>769</v>
       </c>
       <c r="B385" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="C385" t="n">
         <v>1.36076201716393</v>
@@ -10666,10 +10796,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="B386" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="C386" t="n">
         <v>-1.08736866948573</v>
@@ -10686,10 +10816,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>750</v>
+        <v>773</v>
       </c>
       <c r="B387" t="s">
-        <v>751</v>
+        <v>774</v>
       </c>
       <c r="C387" t="n">
         <v>-0.610549009821864</v>
@@ -10706,10 +10836,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>752</v>
+        <v>775</v>
       </c>
       <c r="B388" t="s">
-        <v>753</v>
+        <v>776</v>
       </c>
       <c r="C388" t="n">
         <v>1.92526017406869</v>
@@ -10726,10 +10856,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>754</v>
+        <v>777</v>
       </c>
       <c r="B389" t="s">
-        <v>755</v>
+        <v>778</v>
       </c>
       <c r="C389" t="n">
         <v>1.1784616402857</v>
@@ -10746,10 +10876,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>756</v>
+        <v>779</v>
       </c>
       <c r="B390" t="s">
-        <v>757</v>
+        <v>780</v>
       </c>
       <c r="C390" t="n">
         <v>-1.10731496030521</v>
@@ -10766,11 +10896,9 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>758</v>
-      </c>
-      <c r="B391" t="s">
-        <v>759</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="B391"/>
       <c r="C391" t="n">
         <v>1.72219923608443</v>
       </c>
@@ -10786,10 +10914,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>760</v>
+        <v>782</v>
       </c>
       <c r="B392" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="C392" t="n">
         <v>-0.740668987595058</v>
@@ -10806,10 +10934,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>762</v>
+        <v>784</v>
       </c>
       <c r="B393" t="s">
-        <v>763</v>
+        <v>785</v>
       </c>
       <c r="C393" t="n">
         <v>2.78441219293638</v>
@@ -10826,10 +10954,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>764</v>
+        <v>786</v>
       </c>
       <c r="B394" t="s">
-        <v>765</v>
+        <v>787</v>
       </c>
       <c r="C394" t="n">
         <v>0.771889089092438</v>
@@ -10846,10 +10974,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>766</v>
+        <v>788</v>
       </c>
       <c r="B395" t="s">
-        <v>767</v>
+        <v>789</v>
       </c>
       <c r="C395" t="n">
         <v>0.841842574692008</v>
@@ -10866,10 +10994,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>768</v>
+        <v>790</v>
       </c>
       <c r="B396" t="s">
-        <v>769</v>
+        <v>791</v>
       </c>
       <c r="C396" t="n">
         <v>0.835878092105395</v>
@@ -10886,10 +11014,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>770</v>
+        <v>792</v>
       </c>
       <c r="B397" t="s">
-        <v>771</v>
+        <v>793</v>
       </c>
       <c r="C397" t="n">
         <v>-2.32718902105687</v>
@@ -10906,10 +11034,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>772</v>
+        <v>794</v>
       </c>
       <c r="B398" t="s">
-        <v>773</v>
+        <v>795</v>
       </c>
       <c r="C398" t="n">
         <v>-1.17167360650881</v>
@@ -10926,10 +11054,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>774</v>
+        <v>796</v>
       </c>
       <c r="B399" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="C399" t="n">
         <v>-1.50388198763675</v>
@@ -10946,10 +11074,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>776</v>
+        <v>798</v>
       </c>
       <c r="B400" t="s">
-        <v>777</v>
+        <v>799</v>
       </c>
       <c r="C400" t="n">
         <v>1.94846393325397</v>
@@ -10966,10 +11094,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="B401" t="s">
-        <v>779</v>
+        <v>801</v>
       </c>
       <c r="C401" t="n">
         <v>-0.868641437103418</v>
@@ -10986,10 +11114,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>780</v>
+        <v>802</v>
       </c>
       <c r="B402" t="s">
-        <v>781</v>
+        <v>803</v>
       </c>
       <c r="C402" t="n">
         <v>0.985683640512524</v>
@@ -11006,10 +11134,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>782</v>
+        <v>804</v>
       </c>
       <c r="B403" t="s">
-        <v>783</v>
+        <v>805</v>
       </c>
       <c r="C403" t="n">
         <v>-2.83521842162303</v>
@@ -11026,10 +11154,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>784</v>
+        <v>806</v>
       </c>
       <c r="B404" t="s">
-        <v>785</v>
+        <v>807</v>
       </c>
       <c r="C404" t="n">
         <v>1.79652085750661</v>
@@ -11046,10 +11174,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>786</v>
+        <v>808</v>
       </c>
       <c r="B405" t="s">
-        <v>787</v>
+        <v>809</v>
       </c>
       <c r="C405" t="n">
         <v>-1.45329546572329</v>
@@ -11066,10 +11194,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>788</v>
+        <v>810</v>
       </c>
       <c r="B406" t="s">
-        <v>789</v>
+        <v>811</v>
       </c>
       <c r="C406" t="n">
         <v>2.92705890978513</v>
@@ -11086,10 +11214,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>790</v>
+        <v>812</v>
       </c>
       <c r="B407" t="s">
-        <v>791</v>
+        <v>813</v>
       </c>
       <c r="C407" t="n">
         <v>-0.453920982044336</v>
@@ -11106,9 +11234,11 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>792</v>
-      </c>
-      <c r="B408"/>
+        <v>814</v>
+      </c>
+      <c r="B408" t="s">
+        <v>815</v>
+      </c>
       <c r="C408" t="n">
         <v>-0.781839246787675</v>
       </c>
@@ -11124,10 +11254,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>793</v>
+        <v>816</v>
       </c>
       <c r="B409" t="s">
-        <v>794</v>
+        <v>817</v>
       </c>
       <c r="C409" t="n">
         <v>-2.92353708513882</v>
@@ -11144,10 +11274,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>795</v>
+        <v>818</v>
       </c>
       <c r="B410" t="s">
-        <v>796</v>
+        <v>819</v>
       </c>
       <c r="C410" t="n">
         <v>-0.642563655131483</v>
@@ -11164,10 +11294,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>797</v>
+        <v>820</v>
       </c>
       <c r="B411" t="s">
-        <v>798</v>
+        <v>821</v>
       </c>
       <c r="C411" t="n">
         <v>1.21204801037226</v>
@@ -11184,10 +11314,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>799</v>
+        <v>822</v>
       </c>
       <c r="B412" t="s">
-        <v>800</v>
+        <v>823</v>
       </c>
       <c r="C412" t="n">
         <v>-0.679369825678658</v>
@@ -11204,10 +11334,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>801</v>
+        <v>824</v>
       </c>
       <c r="B413" t="s">
-        <v>802</v>
+        <v>825</v>
       </c>
       <c r="C413" t="n">
         <v>1.77007319307668</v>
@@ -11224,10 +11354,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>803</v>
+        <v>826</v>
       </c>
       <c r="B414" t="s">
-        <v>804</v>
+        <v>827</v>
       </c>
       <c r="C414" t="n">
         <v>1.32798271772134</v>
@@ -11244,10 +11374,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>805</v>
+        <v>828</v>
       </c>
       <c r="B415" t="s">
-        <v>806</v>
+        <v>829</v>
       </c>
       <c r="C415" t="n">
         <v>0.629656276996945</v>
@@ -11264,10 +11394,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>807</v>
+        <v>830</v>
       </c>
       <c r="B416" t="s">
-        <v>808</v>
+        <v>831</v>
       </c>
       <c r="C416" t="n">
         <v>-2.46973401060583</v>
@@ -11284,10 +11414,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>809</v>
+        <v>832</v>
       </c>
       <c r="B417" t="s">
-        <v>810</v>
+        <v>833</v>
       </c>
       <c r="C417" t="n">
         <v>0.871241539013403</v>
@@ -11304,10 +11434,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>811</v>
+        <v>834</v>
       </c>
       <c r="B418" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="C418" t="n">
         <v>-2.17604743923928</v>
@@ -11324,10 +11454,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>813</v>
+        <v>836</v>
       </c>
       <c r="B419" t="s">
-        <v>814</v>
+        <v>837</v>
       </c>
       <c r="C419" t="n">
         <v>-1.63182028020296</v>
@@ -11344,10 +11474,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>815</v>
+        <v>838</v>
       </c>
       <c r="B420" t="s">
-        <v>816</v>
+        <v>839</v>
       </c>
       <c r="C420" t="n">
         <v>-1.85146687810155</v>
@@ -11364,10 +11494,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="B421" t="s">
-        <v>818</v>
+        <v>841</v>
       </c>
       <c r="C421" t="n">
         <v>-0.942685545410332</v>
@@ -11384,10 +11514,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>819</v>
+        <v>842</v>
       </c>
       <c r="B422" t="s">
-        <v>820</v>
+        <v>843</v>
       </c>
       <c r="C422" t="n">
         <v>1.6078702742658</v>
@@ -11404,10 +11534,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>821</v>
+        <v>844</v>
       </c>
       <c r="B423" t="s">
-        <v>822</v>
+        <v>845</v>
       </c>
       <c r="C423" t="n">
         <v>-0.916483907490989</v>
@@ -11424,10 +11554,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>823</v>
+        <v>846</v>
       </c>
       <c r="B424" t="s">
-        <v>824</v>
+        <v>847</v>
       </c>
       <c r="C424" t="n">
         <v>-0.882052703136135</v>
@@ -11444,10 +11574,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>825</v>
+        <v>848</v>
       </c>
       <c r="B425" t="s">
-        <v>826</v>
+        <v>849</v>
       </c>
       <c r="C425" t="n">
         <v>1.54389342722885</v>
@@ -11464,9 +11594,11 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>827</v>
-      </c>
-      <c r="B426"/>
+        <v>850</v>
+      </c>
+      <c r="B426" t="s">
+        <v>851</v>
+      </c>
       <c r="C426" t="n">
         <v>0.919791052887504</v>
       </c>
@@ -11482,10 +11614,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>828</v>
+        <v>852</v>
       </c>
       <c r="B427" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="C427" t="n">
         <v>1.06768928204526</v>
@@ -11502,10 +11634,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>830</v>
+        <v>854</v>
       </c>
       <c r="B428" t="s">
-        <v>831</v>
+        <v>855</v>
       </c>
       <c r="C428" t="n">
         <v>1.10853508528896</v>
@@ -11522,10 +11654,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>832</v>
+        <v>856</v>
       </c>
       <c r="B429" t="s">
-        <v>833</v>
+        <v>857</v>
       </c>
       <c r="C429" t="n">
         <v>0.81786468867418</v>
@@ -11542,10 +11674,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>834</v>
+        <v>858</v>
       </c>
       <c r="B430" t="s">
-        <v>835</v>
+        <v>859</v>
       </c>
       <c r="C430" t="n">
         <v>0.817101528284612</v>
@@ -11562,10 +11694,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>836</v>
+        <v>860</v>
       </c>
       <c r="B431" t="s">
-        <v>837</v>
+        <v>861</v>
       </c>
       <c r="C431" t="n">
         <v>-7.3194678632072</v>
@@ -11582,10 +11714,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>838</v>
+        <v>862</v>
       </c>
       <c r="B432" t="s">
-        <v>839</v>
+        <v>863</v>
       </c>
       <c r="C432" t="n">
         <v>0.943810050503804</v>
@@ -11602,10 +11734,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>840</v>
+        <v>864</v>
       </c>
       <c r="B433" t="s">
-        <v>841</v>
+        <v>865</v>
       </c>
       <c r="C433" t="n">
         <v>0.844156295370428</v>
@@ -11622,10 +11754,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>842</v>
+        <v>866</v>
       </c>
       <c r="B434" t="s">
-        <v>843</v>
+        <v>867</v>
       </c>
       <c r="C434" t="n">
         <v>-2.47438921270621</v>
@@ -11642,10 +11774,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>844</v>
+        <v>868</v>
       </c>
       <c r="B435" t="s">
-        <v>845</v>
+        <v>869</v>
       </c>
       <c r="C435" t="n">
         <v>-1.06989805255938</v>
@@ -11662,10 +11794,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>846</v>
+        <v>870</v>
       </c>
       <c r="B436" t="s">
-        <v>847</v>
+        <v>871</v>
       </c>
       <c r="C436" t="n">
         <v>-0.805014521567682</v>
@@ -11682,9 +11814,11 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>848</v>
-      </c>
-      <c r="B437"/>
+        <v>872</v>
+      </c>
+      <c r="B437" t="s">
+        <v>873</v>
+      </c>
       <c r="C437" t="n">
         <v>0.868031946968891</v>
       </c>
@@ -11700,10 +11834,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>849</v>
+        <v>874</v>
       </c>
       <c r="B438" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="C438" t="n">
         <v>1.34920869318359</v>
@@ -11720,10 +11854,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>851</v>
+        <v>876</v>
       </c>
       <c r="B439" t="s">
-        <v>852</v>
+        <v>877</v>
       </c>
       <c r="C439" t="n">
         <v>1.98530723801189</v>
@@ -11740,10 +11874,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>853</v>
+        <v>878</v>
       </c>
       <c r="B440" t="s">
-        <v>854</v>
+        <v>879</v>
       </c>
       <c r="C440" t="n">
         <v>2.49040873823757</v>
@@ -11760,10 +11894,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>855</v>
+        <v>880</v>
       </c>
       <c r="B441" t="s">
-        <v>856</v>
+        <v>881</v>
       </c>
       <c r="C441" t="n">
         <v>1.8852877486785</v>
@@ -11780,9 +11914,11 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>857</v>
-      </c>
-      <c r="B442"/>
+        <v>882</v>
+      </c>
+      <c r="B442" t="s">
+        <v>883</v>
+      </c>
       <c r="C442" t="n">
         <v>2.94478584829116</v>
       </c>
@@ -11798,10 +11934,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>858</v>
+        <v>884</v>
       </c>
       <c r="B443" t="s">
-        <v>859</v>
+        <v>885</v>
       </c>
       <c r="C443" t="n">
         <v>-0.58408598128411</v>
@@ -11818,9 +11954,11 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>860</v>
-      </c>
-      <c r="B444"/>
+        <v>886</v>
+      </c>
+      <c r="B444" t="s">
+        <v>887</v>
+      </c>
       <c r="C444" t="n">
         <v>-0.737870073299165</v>
       </c>
@@ -11836,10 +11974,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>861</v>
+        <v>888</v>
       </c>
       <c r="B445" t="s">
-        <v>862</v>
+        <v>889</v>
       </c>
       <c r="C445" t="n">
         <v>-1.16901850854128</v>
@@ -11856,10 +11994,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>863</v>
+        <v>890</v>
       </c>
       <c r="B446" t="s">
-        <v>864</v>
+        <v>891</v>
       </c>
       <c r="C446" t="n">
         <v>-0.729343901948853</v>
@@ -11876,10 +12014,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>865</v>
+        <v>892</v>
       </c>
       <c r="B447" t="s">
-        <v>866</v>
+        <v>893</v>
       </c>
       <c r="C447" t="n">
         <v>-0.728442749505338</v>
@@ -11896,9 +12034,11 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>867</v>
-      </c>
-      <c r="B448"/>
+        <v>894</v>
+      </c>
+      <c r="B448" t="s">
+        <v>895</v>
+      </c>
       <c r="C448" t="n">
         <v>-6.80093878958091</v>
       </c>
@@ -11914,10 +12054,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>868</v>
+        <v>896</v>
       </c>
       <c r="B449" t="s">
-        <v>869</v>
+        <v>897</v>
       </c>
       <c r="C449" t="n">
         <v>-1.88047610800112</v>
@@ -11934,10 +12074,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>870</v>
+        <v>898</v>
       </c>
       <c r="B450" t="s">
-        <v>871</v>
+        <v>899</v>
       </c>
       <c r="C450" t="n">
         <v>-0.776743352323955</v>
@@ -11954,10 +12094,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>872</v>
+        <v>900</v>
       </c>
       <c r="B451" t="s">
-        <v>873</v>
+        <v>901</v>
       </c>
       <c r="C451" t="n">
         <v>-1.52360813383115</v>
@@ -11974,7 +12114,7 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>874</v>
+        <v>902</v>
       </c>
       <c r="B452"/>
       <c r="C452" t="n">
@@ -11992,10 +12132,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>875</v>
+        <v>903</v>
       </c>
       <c r="B453" t="s">
-        <v>876</v>
+        <v>904</v>
       </c>
       <c r="C453" t="n">
         <v>0.888056434253634</v>
@@ -12012,10 +12152,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>877</v>
+        <v>905</v>
       </c>
       <c r="B454" t="s">
-        <v>878</v>
+        <v>906</v>
       </c>
       <c r="C454" t="n">
         <v>1.71043062968624</v>
@@ -12032,10 +12172,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>879</v>
+        <v>907</v>
       </c>
       <c r="B455" t="s">
-        <v>880</v>
+        <v>908</v>
       </c>
       <c r="C455" t="n">
         <v>-0.539018042465798</v>
@@ -12052,10 +12192,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>881</v>
+        <v>909</v>
       </c>
       <c r="B456" t="s">
-        <v>882</v>
+        <v>910</v>
       </c>
       <c r="C456" t="n">
         <v>-0.868802115876695</v>
@@ -12072,10 +12212,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>883</v>
+        <v>911</v>
       </c>
       <c r="B457" t="s">
-        <v>884</v>
+        <v>912</v>
       </c>
       <c r="C457" t="n">
         <v>-0.82525563713632</v>
@@ -12092,10 +12232,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>885</v>
+        <v>913</v>
       </c>
       <c r="B458" t="s">
-        <v>886</v>
+        <v>914</v>
       </c>
       <c r="C458" t="n">
         <v>0.525922190354738</v>
@@ -12112,10 +12252,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>887</v>
+        <v>915</v>
       </c>
       <c r="B459" t="s">
-        <v>888</v>
+        <v>916</v>
       </c>
       <c r="C459" t="n">
         <v>-1.41534406029495</v>
@@ -12132,10 +12272,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>889</v>
+        <v>917</v>
       </c>
       <c r="B460" t="s">
-        <v>890</v>
+        <v>918</v>
       </c>
       <c r="C460" t="n">
         <v>-1.14335124461391</v>
